--- a/artfynd/A 46329-2022.xlsx
+++ b/artfynd/A 46329-2022.xlsx
@@ -3232,7 +3232,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111387092</v>
+        <v>111387081</v>
       </c>
       <c r="B23" t="n">
         <v>96348</v>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3281,10 +3281,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>563012.8046913089</v>
+        <v>563042.2621750269</v>
       </c>
       <c r="R23" t="n">
-        <v>6953286.613656651</v>
+        <v>6952996.115978647</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111387077</v>
+        <v>111387073</v>
       </c>
       <c r="B24" t="n">
         <v>96348</v>
@@ -3388,7 +3388,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3402,10 +3402,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>562995.0074451283</v>
+        <v>562853.2791694358</v>
       </c>
       <c r="R24" t="n">
-        <v>6953183.441336502</v>
+        <v>6953238.580949852</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3474,7 +3474,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111387085</v>
+        <v>111387078</v>
       </c>
       <c r="B25" t="n">
         <v>96348</v>
@@ -3523,10 +3523,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>563184.371910503</v>
+        <v>562997.5732215638</v>
       </c>
       <c r="R25" t="n">
-        <v>6952993.784944776</v>
+        <v>6953145.386477226</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3595,10 +3595,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111387102</v>
+        <v>111387075</v>
       </c>
       <c r="B26" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3607,38 +3607,47 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>562910.6623015397</v>
+        <v>562870.5364005073</v>
       </c>
       <c r="R26" t="n">
-        <v>6953291.090640862</v>
+        <v>6953225.596763036</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3707,7 +3716,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111387094</v>
+        <v>111387083</v>
       </c>
       <c r="B27" t="n">
         <v>96348</v>
@@ -3742,7 +3751,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3756,10 +3765,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>562796.6157216484</v>
+        <v>563090.1823450684</v>
       </c>
       <c r="R27" t="n">
-        <v>6953293.048769277</v>
+        <v>6952990.604707411</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3828,10 +3837,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111387054</v>
+        <v>111387088</v>
       </c>
       <c r="B28" t="n">
-        <v>90332</v>
+        <v>96348</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3840,38 +3849,47 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>562699.6339177528</v>
+        <v>563134.0570246503</v>
       </c>
       <c r="R28" t="n">
-        <v>6953364.652957034</v>
+        <v>6953004.299178701</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3940,7 +3958,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111387098</v>
+        <v>111387093</v>
       </c>
       <c r="B29" t="n">
         <v>96348</v>
@@ -3975,7 +3993,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3989,10 +4007,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>562755.5413371911</v>
+        <v>562907.4367122703</v>
       </c>
       <c r="R29" t="n">
-        <v>6953301.448215675</v>
+        <v>6953291.488179443</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4061,10 +4079,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111387104</v>
+        <v>111387079</v>
       </c>
       <c r="B30" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4073,38 +4091,47 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>563012.8046913089</v>
+        <v>562998.218090906</v>
       </c>
       <c r="R30" t="n">
-        <v>6953286.613656651</v>
+        <v>6953087.553533346</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4173,7 +4200,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111387081</v>
+        <v>111387076</v>
       </c>
       <c r="B31" t="n">
         <v>96348</v>
@@ -4208,7 +4235,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -4222,10 +4249,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>563042.2621750269</v>
+        <v>562883.5177444151</v>
       </c>
       <c r="R31" t="n">
-        <v>6952996.115978647</v>
+        <v>6953219.876280347</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4294,10 +4321,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111387078</v>
+        <v>111387071</v>
       </c>
       <c r="B32" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4306,47 +4333,38 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>562997.5732215638</v>
+        <v>563037.3396484138</v>
       </c>
       <c r="R32" t="n">
-        <v>6953145.386477226</v>
+        <v>6953301.77258506</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4415,7 +4433,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111387101</v>
+        <v>111387100</v>
       </c>
       <c r="B33" t="n">
         <v>103288</v>
@@ -4455,10 +4473,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>563012.8046913089</v>
+        <v>563171.2924523354</v>
       </c>
       <c r="R33" t="n">
-        <v>6953286.613656651</v>
+        <v>6953004.552986205</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4527,10 +4545,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111387091</v>
+        <v>111387104</v>
       </c>
       <c r="B34" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4539,47 +4557,38 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>563105.361322377</v>
+        <v>563012.8046913089</v>
       </c>
       <c r="R34" t="n">
-        <v>6953302.614342762</v>
+        <v>6953286.613656651</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4648,10 +4657,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111387070</v>
+        <v>111387097</v>
       </c>
       <c r="B35" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4660,38 +4669,47 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>563066.3086353226</v>
+        <v>562755.5413371911</v>
       </c>
       <c r="R35" t="n">
-        <v>6953301.408277751</v>
+        <v>6953301.448215675</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4760,10 +4778,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111387099</v>
+        <v>111387063</v>
       </c>
       <c r="B36" t="n">
-        <v>96348</v>
+        <v>78604</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4772,47 +4790,38 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>220787</v>
+        <v>6461</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Torss.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>563062.0245114181</v>
+        <v>563098.4786473656</v>
       </c>
       <c r="R36" t="n">
-        <v>6952996.493746921</v>
+        <v>6953037.592026276</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4881,10 +4890,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111387056</v>
+        <v>111387069</v>
       </c>
       <c r="B37" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4897,21 +4906,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4921,10 +4930,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>562599.4090375302</v>
+        <v>562999.5216912739</v>
       </c>
       <c r="R37" t="n">
-        <v>6953389.374023037</v>
+        <v>6953115.583010472</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4993,7 +5002,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111387071</v>
+        <v>111387067</v>
       </c>
       <c r="B38" t="n">
         <v>78578</v>
@@ -5033,10 +5042,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>563037.3396484138</v>
+        <v>562956.5571138755</v>
       </c>
       <c r="R38" t="n">
-        <v>6953301.77258506</v>
+        <v>6953198.774932881</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5105,10 +5114,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111387076</v>
+        <v>111387070</v>
       </c>
       <c r="B39" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5117,47 +5126,38 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>562883.5177444151</v>
+        <v>563066.3086353226</v>
       </c>
       <c r="R39" t="n">
-        <v>6953219.876280347</v>
+        <v>6953301.408277751</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5226,10 +5226,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111387080</v>
+        <v>111387054</v>
       </c>
       <c r="B40" t="n">
-        <v>96348</v>
+        <v>90332</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5238,47 +5238,38 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>562999.3263167407</v>
+        <v>562699.6339177528</v>
       </c>
       <c r="R40" t="n">
-        <v>6953053.60161553</v>
+        <v>6953364.652957034</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5347,7 +5338,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111387082</v>
+        <v>111387077</v>
       </c>
       <c r="B41" t="n">
         <v>96348</v>
@@ -5382,7 +5373,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>65</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -5396,10 +5387,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>563081.3711416697</v>
+        <v>562995.0074451283</v>
       </c>
       <c r="R41" t="n">
-        <v>6952994.56815038</v>
+        <v>6953183.441336502</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5468,10 +5459,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111387084</v>
+        <v>111387101</v>
       </c>
       <c r="B42" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5480,47 +5471,38 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>563156.6005608093</v>
+        <v>563012.8046913089</v>
       </c>
       <c r="R42" t="n">
-        <v>6952979.479832834</v>
+        <v>6953286.613656651</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5589,10 +5571,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111387100</v>
+        <v>111387087</v>
       </c>
       <c r="B43" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5601,38 +5583,47 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>563171.2924523354</v>
+        <v>563169.8697415534</v>
       </c>
       <c r="R43" t="n">
-        <v>6953004.552986205</v>
+        <v>6953006.821267974</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5701,7 +5692,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111387073</v>
+        <v>111387091</v>
       </c>
       <c r="B44" t="n">
         <v>96348</v>
@@ -5750,10 +5741,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>562853.2791694358</v>
+        <v>563105.361322377</v>
       </c>
       <c r="R44" t="n">
-        <v>6953238.580949852</v>
+        <v>6953302.614342762</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5822,7 +5813,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111387093</v>
+        <v>111387082</v>
       </c>
       <c r="B45" t="n">
         <v>96348</v>
@@ -5857,7 +5848,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -5871,10 +5862,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>562907.4367122703</v>
+        <v>563081.3711416697</v>
       </c>
       <c r="R45" t="n">
-        <v>6953291.488179443</v>
+        <v>6952994.56815038</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5943,10 +5934,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111387063</v>
+        <v>111387094</v>
       </c>
       <c r="B46" t="n">
-        <v>78604</v>
+        <v>96348</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5955,38 +5946,47 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6461</v>
+        <v>220787</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>563098.4786473656</v>
+        <v>562796.6157216484</v>
       </c>
       <c r="R46" t="n">
-        <v>6953037.592026276</v>
+        <v>6953293.048769277</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6055,10 +6055,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111387088</v>
+        <v>111387102</v>
       </c>
       <c r="B47" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6067,47 +6067,38 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>563134.0570246503</v>
+        <v>562910.6623015397</v>
       </c>
       <c r="R47" t="n">
-        <v>6953004.299178701</v>
+        <v>6953291.090640862</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6176,7 +6167,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111387090</v>
+        <v>111387086</v>
       </c>
       <c r="B48" t="n">
         <v>96348</v>
@@ -6211,7 +6202,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -6225,10 +6216,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>563095.5280093225</v>
+        <v>563173.1483843722</v>
       </c>
       <c r="R48" t="n">
-        <v>6953047.635786653</v>
+        <v>6953003.67031906</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6297,7 +6288,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111387089</v>
+        <v>111387099</v>
       </c>
       <c r="B49" t="n">
         <v>96348</v>
@@ -6332,7 +6323,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -6346,10 +6337,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>563098.5752202668</v>
+        <v>563062.0245114181</v>
       </c>
       <c r="R49" t="n">
-        <v>6953032.543759782</v>
+        <v>6952996.493746921</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6418,7 +6409,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111387083</v>
+        <v>111387084</v>
       </c>
       <c r="B50" t="n">
         <v>96348</v>
@@ -6453,7 +6444,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -6467,10 +6458,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>563090.1823450684</v>
+        <v>563156.6005608093</v>
       </c>
       <c r="R50" t="n">
-        <v>6952990.604707411</v>
+        <v>6952979.479832834</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6539,10 +6530,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111387066</v>
+        <v>111387085</v>
       </c>
       <c r="B51" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6551,38 +6542,47 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>562599.4090375302</v>
+        <v>563184.371910503</v>
       </c>
       <c r="R51" t="n">
-        <v>6953389.374023037</v>
+        <v>6952993.784944776</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6651,10 +6651,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111387069</v>
+        <v>111387089</v>
       </c>
       <c r="B52" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6663,38 +6663,47 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>562999.5216912739</v>
+        <v>563098.5752202668</v>
       </c>
       <c r="R52" t="n">
-        <v>6953115.583010472</v>
+        <v>6953032.543759782</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6763,7 +6772,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111387087</v>
+        <v>111387090</v>
       </c>
       <c r="B53" t="n">
         <v>96348</v>
@@ -6798,7 +6807,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -6812,10 +6821,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>563169.8697415534</v>
+        <v>563095.5280093225</v>
       </c>
       <c r="R53" t="n">
-        <v>6953006.821267974</v>
+        <v>6953047.635786653</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6884,10 +6893,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111387079</v>
+        <v>111387066</v>
       </c>
       <c r="B54" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6896,47 +6905,38 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>562998.218090906</v>
+        <v>562599.4090375302</v>
       </c>
       <c r="R54" t="n">
-        <v>6953087.553533346</v>
+        <v>6953389.374023037</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -7005,7 +7005,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111387086</v>
+        <v>111387080</v>
       </c>
       <c r="B55" t="n">
         <v>96348</v>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>563173.1483843722</v>
+        <v>562999.3263167407</v>
       </c>
       <c r="R55" t="n">
-        <v>6953003.67031906</v>
+        <v>6953053.60161553</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7126,10 +7126,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111387096</v>
+        <v>111387105</v>
       </c>
       <c r="B56" t="n">
-        <v>96348</v>
+        <v>93881</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7138,47 +7138,38 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>220787</v>
+        <v>2869</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Girg.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>562776.3432141852</v>
+        <v>563041.4755681724</v>
       </c>
       <c r="R56" t="n">
-        <v>6953295.417218027</v>
+        <v>6953301.851638818</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7247,7 +7238,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111387075</v>
+        <v>111387096</v>
       </c>
       <c r="B57" t="n">
         <v>96348</v>
@@ -7282,7 +7273,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -7296,10 +7287,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>562870.5364005073</v>
+        <v>562776.3432141852</v>
       </c>
       <c r="R57" t="n">
-        <v>6953225.596763036</v>
+        <v>6953295.417218027</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7368,10 +7359,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111387067</v>
+        <v>111387056</v>
       </c>
       <c r="B58" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7384,21 +7375,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7408,10 +7399,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>562956.5571138755</v>
+        <v>562599.4090375302</v>
       </c>
       <c r="R58" t="n">
-        <v>6953198.774932881</v>
+        <v>6953389.374023037</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7480,10 +7471,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111387105</v>
+        <v>111387092</v>
       </c>
       <c r="B59" t="n">
-        <v>93881</v>
+        <v>96348</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7492,38 +7483,47 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2869</v>
+        <v>220787</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Girg.</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>563041.4755681724</v>
+        <v>563012.8046913089</v>
       </c>
       <c r="R59" t="n">
-        <v>6953301.851638818</v>
+        <v>6953286.613656651</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7592,10 +7592,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111505021</v>
+        <v>111505031</v>
       </c>
       <c r="B60" t="n">
-        <v>78512</v>
+        <v>96348</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7604,41 +7604,50 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6456</v>
+        <v>220787</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>563127.0267518542</v>
+        <v>563201.2223511444</v>
       </c>
       <c r="R60" t="n">
-        <v>6953803.830203088</v>
+        <v>6953793.776556972</v>
       </c>
       <c r="S60" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7704,10 +7713,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111505027</v>
+        <v>111505021</v>
       </c>
       <c r="B61" t="n">
-        <v>78578</v>
+        <v>78512</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7716,25 +7725,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7744,13 +7753,13 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>563139.9711714545</v>
+        <v>563127.0267518542</v>
       </c>
       <c r="R61" t="n">
-        <v>6953799.947082677</v>
+        <v>6953803.830203088</v>
       </c>
       <c r="S61" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7816,7 +7825,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111505042</v>
+        <v>111505035</v>
       </c>
       <c r="B62" t="n">
         <v>96348</v>
@@ -7851,7 +7860,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -7861,36 +7870,36 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>562819.5119181958</v>
+        <v>563176.4801691328</v>
       </c>
       <c r="R62" t="n">
-        <v>6953707.993414508</v>
+        <v>6953693.698667094</v>
       </c>
       <c r="S62" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
@@ -7937,10 +7946,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111505037</v>
+        <v>111505024</v>
       </c>
       <c r="B63" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7949,50 +7958,41 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>562940.6554937188</v>
+        <v>562988.0254043636</v>
       </c>
       <c r="R63" t="n">
-        <v>6953694.697192283</v>
+        <v>6953909.951939938</v>
       </c>
       <c r="S63" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111506427</v>
+        <v>111505040</v>
       </c>
       <c r="B64" t="n">
         <v>96348</v>
@@ -8093,7 +8093,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -8101,44 +8101,43 @@
           <t>stjälkar/strån/skott</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>563300.3140053455</v>
+        <v>562838.4296954731</v>
       </c>
       <c r="R64" t="n">
-        <v>6953708.007710025</v>
+        <v>6953704.222797605</v>
       </c>
       <c r="S64" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
@@ -8148,7 +8147,7 @@
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
@@ -8180,7 +8179,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111505036</v>
+        <v>111505041</v>
       </c>
       <c r="B65" t="n">
         <v>96348</v>
@@ -8215,7 +8214,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -8225,36 +8224,36 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>563156.3591810546</v>
+        <v>562832.325177824</v>
       </c>
       <c r="R65" t="n">
-        <v>6953688.264125231</v>
+        <v>6953710.991571963</v>
       </c>
       <c r="S65" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
@@ -8301,10 +8300,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111505044</v>
+        <v>111505050</v>
       </c>
       <c r="B66" t="n">
-        <v>90151</v>
+        <v>78611</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8313,69 +8312,60 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>366</v>
+        <v>6463</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>563300.3140053455</v>
+        <v>563111.0943530079</v>
       </c>
       <c r="R66" t="n">
-        <v>6953708.007710025</v>
+        <v>6953795.722308087</v>
       </c>
       <c r="S66" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -8422,7 +8412,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111505028</v>
+        <v>111505026</v>
       </c>
       <c r="B67" t="n">
         <v>78578</v>
@@ -8462,13 +8452,13 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>562994.4598576587</v>
+        <v>563112.0133087402</v>
       </c>
       <c r="R67" t="n">
-        <v>6953693.429543378</v>
+        <v>6953795.739896396</v>
       </c>
       <c r="S67" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -8534,7 +8524,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111505032</v>
+        <v>111506360</v>
       </c>
       <c r="B68" t="n">
         <v>96348</v>
@@ -8569,7 +8559,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -8577,43 +8567,44 @@
           <t>stjälkar/strån/skott</t>
         </is>
       </c>
+      <c r="K68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>563277.1457894059</v>
+        <v>562795.9247683069</v>
       </c>
       <c r="R68" t="n">
-        <v>6953717.6612378</v>
+        <v>6953570.757486098</v>
       </c>
       <c r="S68" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -8623,7 +8614,7 @@
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
@@ -8655,10 +8646,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111505041</v>
+        <v>111505049</v>
       </c>
       <c r="B69" t="n">
-        <v>96348</v>
+        <v>78611</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8667,50 +8658,41 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>220787</v>
+        <v>6463</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>562832.325177824</v>
+        <v>563141.3320316244</v>
       </c>
       <c r="R69" t="n">
-        <v>6953710.991571963</v>
+        <v>6953800.891131622</v>
       </c>
       <c r="S69" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -8776,10 +8758,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111505040</v>
+        <v>111505023</v>
       </c>
       <c r="B70" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8788,69 +8770,60 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>562838.4296954731</v>
+        <v>562450.0507050141</v>
       </c>
       <c r="R70" t="n">
-        <v>6953704.222797605</v>
+        <v>6953411.330941907</v>
       </c>
       <c r="S70" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
@@ -8897,10 +8870,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111505052</v>
+        <v>111505036</v>
       </c>
       <c r="B71" t="n">
-        <v>93881</v>
+        <v>96348</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8909,65 +8882,74 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>2869</v>
+        <v>220787</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Girg.</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>563021.385735066</v>
+        <v>563156.3591810546</v>
       </c>
       <c r="R71" t="n">
-        <v>6953703.583207678</v>
+        <v>6953688.264125231</v>
       </c>
       <c r="S71" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
@@ -8977,7 +8959,7 @@
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
@@ -9009,10 +8991,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111505030</v>
+        <v>111505025</v>
       </c>
       <c r="B72" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -9021,50 +9003,41 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>563188.2250752542</v>
+        <v>563048.1020123652</v>
       </c>
       <c r="R72" t="n">
-        <v>6953800.412410886</v>
+        <v>6953796.81225728</v>
       </c>
       <c r="S72" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -9130,10 +9103,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111506360</v>
+        <v>111505029</v>
       </c>
       <c r="B73" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9142,75 +9115,65 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>562795.9247683069</v>
+        <v>562582.6789697963</v>
       </c>
       <c r="R73" t="n">
-        <v>6953570.757486098</v>
+        <v>6953447.35522902</v>
       </c>
       <c r="S73" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
@@ -9220,7 +9183,7 @@
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
@@ -9252,10 +9215,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111505035</v>
+        <v>111506366</v>
       </c>
       <c r="B74" t="n">
-        <v>96348</v>
+        <v>96368</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9264,74 +9227,66 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>220787</v>
+        <v>221952</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>563176.4801691328</v>
+        <v>562795.9247683069</v>
       </c>
       <c r="R74" t="n">
-        <v>6953693.698667094</v>
+        <v>6953570.757486098</v>
       </c>
       <c r="S74" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
@@ -9341,7 +9296,7 @@
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
@@ -9373,7 +9328,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111505033</v>
+        <v>111505037</v>
       </c>
       <c r="B75" t="n">
         <v>96348</v>
@@ -9408,7 +9363,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -9418,36 +9373,36 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>563271.4189427574</v>
+        <v>562940.6554937188</v>
       </c>
       <c r="R75" t="n">
-        <v>6953704.69911015</v>
+        <v>6953694.697192283</v>
       </c>
       <c r="S75" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W75" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
@@ -9606,10 +9561,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111505034</v>
+        <v>111505028</v>
       </c>
       <c r="B77" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9618,69 +9573,60 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>563233.4131933488</v>
+        <v>562994.4598576587</v>
       </c>
       <c r="R77" t="n">
-        <v>6953697.084956069</v>
+        <v>6953693.429543378</v>
       </c>
       <c r="S77" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
@@ -9727,10 +9673,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111505050</v>
+        <v>111506378</v>
       </c>
       <c r="B78" t="n">
-        <v>78611</v>
+        <v>96381</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9743,37 +9689,38 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6463</v>
+        <v>219874</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>563111.0943530079</v>
+        <v>562795.9247683069</v>
       </c>
       <c r="R78" t="n">
-        <v>6953795.722308087</v>
+        <v>6953570.757486098</v>
       </c>
       <c r="S78" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -9797,7 +9744,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
@@ -9807,7 +9754,7 @@
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
@@ -9839,10 +9786,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111505049</v>
+        <v>111505044</v>
       </c>
       <c r="B79" t="n">
-        <v>78611</v>
+        <v>90151</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9851,60 +9798,69 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6463</v>
+        <v>366</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr"/>
+          <t>(Pers.) Jülich</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>563141.3320316244</v>
+        <v>563300.3140053455</v>
       </c>
       <c r="R79" t="n">
-        <v>6953800.891131622</v>
+        <v>6953708.007710025</v>
       </c>
       <c r="S79" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W79" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
@@ -9951,10 +9907,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111505025</v>
+        <v>111505033</v>
       </c>
       <c r="B80" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9963,60 +9919,69 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>563048.1020123652</v>
+        <v>563271.4189427574</v>
       </c>
       <c r="R80" t="n">
-        <v>6953796.81225728</v>
+        <v>6953704.69911015</v>
       </c>
       <c r="S80" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W80" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
@@ -10063,10 +10028,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111505023</v>
+        <v>111505032</v>
       </c>
       <c r="B81" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -10075,41 +10040,50 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P81" t="inlineStr">
         <is>
           <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>562450.0507050141</v>
+        <v>563277.1457894059</v>
       </c>
       <c r="R81" t="n">
-        <v>6953411.330941907</v>
+        <v>6953717.6612378</v>
       </c>
       <c r="S81" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
@@ -10175,10 +10149,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111505029</v>
+        <v>111505042</v>
       </c>
       <c r="B82" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10187,60 +10161,69 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>562582.6789697963</v>
+        <v>562819.5119181958</v>
       </c>
       <c r="R82" t="n">
-        <v>6953447.35522902</v>
+        <v>6953707.993414508</v>
       </c>
       <c r="S82" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
@@ -10287,7 +10270,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111505038</v>
+        <v>111506427</v>
       </c>
       <c r="B83" t="n">
         <v>96348</v>
@@ -10322,7 +10305,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>55</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -10330,43 +10313,44 @@
           <t>stjälkar/strån/skott</t>
         </is>
       </c>
+      <c r="K83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>562908.6398715272</v>
+        <v>563300.3140053455</v>
       </c>
       <c r="R83" t="n">
-        <v>6953686.283111459</v>
+        <v>6953708.007710025</v>
       </c>
       <c r="S83" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W83" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
@@ -10376,7 +10360,7 @@
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="AB83" t="inlineStr">
@@ -10408,10 +10392,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111505024</v>
+        <v>111505034</v>
       </c>
       <c r="B84" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -10420,60 +10404,69 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>562988.0254043636</v>
+        <v>563233.4131933488</v>
       </c>
       <c r="R84" t="n">
-        <v>6953909.951939938</v>
+        <v>6953697.084956069</v>
       </c>
       <c r="S84" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W84" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
@@ -10520,10 +10513,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111506366</v>
+        <v>111505038</v>
       </c>
       <c r="B85" t="n">
-        <v>96368</v>
+        <v>96348</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10532,42 +10525,50 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>221952</v>
+        <v>220787</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P85" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>562795.9247683069</v>
+        <v>562908.6398715272</v>
       </c>
       <c r="R85" t="n">
-        <v>6953570.757486098</v>
+        <v>6953686.283111459</v>
       </c>
       <c r="S85" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
@@ -10591,7 +10592,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
@@ -10601,7 +10602,7 @@
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB85" t="inlineStr">
@@ -10633,7 +10634,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111505031</v>
+        <v>111505030</v>
       </c>
       <c r="B86" t="n">
         <v>96348</v>
@@ -10668,7 +10669,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -10682,13 +10683,13 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>563201.2223511444</v>
+        <v>563188.2250752542</v>
       </c>
       <c r="R86" t="n">
-        <v>6953793.776556972</v>
+        <v>6953800.412410886</v>
       </c>
       <c r="S86" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
@@ -10754,10 +10755,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111505026</v>
+        <v>111505052</v>
       </c>
       <c r="B87" t="n">
-        <v>78578</v>
+        <v>93881</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10766,25 +10767,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6458</v>
+        <v>2869</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10794,13 +10795,13 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>563112.0133087402</v>
+        <v>563021.385735066</v>
       </c>
       <c r="R87" t="n">
-        <v>6953795.739896396</v>
+        <v>6953703.583207678</v>
       </c>
       <c r="S87" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
@@ -10824,7 +10825,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
@@ -10834,7 +10835,7 @@
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="AB87" t="inlineStr">
@@ -10866,10 +10867,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111506378</v>
+        <v>111505027</v>
       </c>
       <c r="B88" t="n">
-        <v>96381</v>
+        <v>78578</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10878,42 +10879,41 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>219874</v>
+        <v>6458</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>562795.9247683069</v>
+        <v>563139.9711714545</v>
       </c>
       <c r="R88" t="n">
-        <v>6953570.757486098</v>
+        <v>6953799.947082677</v>
       </c>
       <c r="S88" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
@@ -10947,7 +10947,7 @@
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB88" t="inlineStr">
@@ -10979,7 +10979,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111579563</v>
+        <v>111578990</v>
       </c>
       <c r="B89" t="n">
         <v>78578</v>
@@ -11016,36 +11016,36 @@
       <c r="K89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>562802.7270039422</v>
+        <v>562812.7329947776</v>
       </c>
       <c r="R89" t="n">
-        <v>6953768.720964032</v>
+        <v>6953532.978280453</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W89" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
@@ -11055,7 +11055,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -11092,7 +11092,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111579233</v>
+        <v>111578865</v>
       </c>
       <c r="B90" t="n">
         <v>78578</v>
@@ -11133,10 +11133,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>562810.5604810353</v>
+        <v>562788.3053195324</v>
       </c>
       <c r="R90" t="n">
-        <v>6953622.9056556</v>
+        <v>6953560.513836247</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -11168,7 +11168,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
@@ -11178,7 +11178,7 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -11205,10 +11205,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111579646</v>
+        <v>111578583</v>
       </c>
       <c r="B91" t="n">
-        <v>96348</v>
+        <v>78605</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11217,61 +11217,61 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>220787</v>
+        <v>6462</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>562757.9369339028</v>
+        <v>562676.9542402821</v>
       </c>
       <c r="R91" t="n">
-        <v>6953731.148202746</v>
+        <v>6953421.143956529</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W91" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
@@ -11281,7 +11281,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -11291,7 +11291,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -11318,10 +11318,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111578960</v>
+        <v>111579651</v>
       </c>
       <c r="B92" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11330,61 +11330,61 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>562799.5258076072</v>
+        <v>562757.9369339028</v>
       </c>
       <c r="R92" t="n">
-        <v>6953550.628890147</v>
+        <v>6953731.148202746</v>
       </c>
       <c r="S92" t="n">
         <v>25</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
@@ -11394,7 +11394,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>20:14</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>20:14</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -11431,10 +11431,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111579236</v>
+        <v>111579503</v>
       </c>
       <c r="B93" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11443,25 +11443,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -11472,10 +11472,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>562801.7112454879</v>
+        <v>562850.2507051354</v>
       </c>
       <c r="R93" t="n">
-        <v>6953604.835366915</v>
+        <v>6953783.396332907</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -11507,7 +11507,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>19:46</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -11517,7 +11517,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>19:46</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -11544,10 +11544,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111578792</v>
+        <v>111578715</v>
       </c>
       <c r="B94" t="n">
-        <v>78578</v>
+        <v>103288</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11556,25 +11556,25 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6458</v>
+        <v>221144</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11585,10 +11585,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>562747.4557671447</v>
+        <v>562725.5046364743</v>
       </c>
       <c r="R94" t="n">
-        <v>6953533.112687511</v>
+        <v>6953382.129823714</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -11657,10 +11657,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111578704</v>
+        <v>111578582</v>
       </c>
       <c r="B95" t="n">
-        <v>103288</v>
+        <v>78578</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11669,25 +11669,25 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>221144</v>
+        <v>6458</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11698,10 +11698,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>562725.5046364743</v>
+        <v>562676.9542402821</v>
       </c>
       <c r="R95" t="n">
-        <v>6953382.129823714</v>
+        <v>6953421.143956529</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -11770,10 +11770,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111578590</v>
+        <v>111579236</v>
       </c>
       <c r="B96" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11782,61 +11782,61 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>562676.9542402821</v>
+        <v>562801.7112454879</v>
       </c>
       <c r="R96" t="n">
-        <v>6953421.143956529</v>
+        <v>6953604.835366915</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W96" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
@@ -11846,7 +11846,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:46</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -11856,7 +11856,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:46</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11883,10 +11883,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111578583</v>
+        <v>111579563</v>
       </c>
       <c r="B97" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11895,61 +11895,61 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>562676.9542402821</v>
+        <v>562802.7270039422</v>
       </c>
       <c r="R97" t="n">
-        <v>6953421.143956529</v>
+        <v>6953768.720964032</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
@@ -11959,7 +11959,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11969,7 +11969,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11996,7 +11996,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111578830</v>
+        <v>111578520</v>
       </c>
       <c r="B98" t="n">
         <v>78578</v>
@@ -12033,36 +12033,36 @@
       <c r="K98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>562740.2630645358</v>
+        <v>562600.317282272</v>
       </c>
       <c r="R98" t="n">
-        <v>6953572.911213852</v>
+        <v>6953414.179823531</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
       </c>
       <c r="T98" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr">
@@ -12072,7 +12072,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -12082,7 +12082,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -12222,10 +12222,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111578950</v>
+        <v>111578830</v>
       </c>
       <c r="B100" t="n">
-        <v>96265</v>
+        <v>78578</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12234,61 +12234,61 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>219790</v>
+        <v>6458</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>562799.5258076072</v>
+        <v>562740.2630645358</v>
       </c>
       <c r="R100" t="n">
-        <v>6953550.628890147</v>
+        <v>6953572.911213852</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr">
@@ -12335,7 +12335,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111578520</v>
+        <v>111578662</v>
       </c>
       <c r="B101" t="n">
         <v>78578</v>
@@ -12376,10 +12376,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>562600.317282272</v>
+        <v>562713.478186005</v>
       </c>
       <c r="R101" t="n">
-        <v>6953414.179823531</v>
+        <v>6953386.03256534</v>
       </c>
       <c r="S101" t="n">
         <v>25</v>
@@ -12448,7 +12448,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111578662</v>
+        <v>111578792</v>
       </c>
       <c r="B102" t="n">
         <v>78578</v>
@@ -12489,10 +12489,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>562713.478186005</v>
+        <v>562747.4557671447</v>
       </c>
       <c r="R102" t="n">
-        <v>6953386.03256534</v>
+        <v>6953533.112687511</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -12524,7 +12524,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -12534,7 +12534,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12561,7 +12561,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111578865</v>
+        <v>111578960</v>
       </c>
       <c r="B103" t="n">
         <v>78578</v>
@@ -12598,36 +12598,36 @@
       <c r="K103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>562788.3053195324</v>
+        <v>562799.5258076072</v>
       </c>
       <c r="R103" t="n">
-        <v>6953560.513836247</v>
+        <v>6953550.628890147</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W103" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y103" t="inlineStr">
@@ -12674,7 +12674,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111578990</v>
+        <v>111579233</v>
       </c>
       <c r="B104" t="n">
         <v>78578</v>
@@ -12711,36 +12711,36 @@
       <c r="K104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>562812.7329947776</v>
+        <v>562810.5604810353</v>
       </c>
       <c r="R104" t="n">
-        <v>6953532.978280453</v>
+        <v>6953622.9056556</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
       </c>
       <c r="T104" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y104" t="inlineStr">
@@ -12750,7 +12750,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -12760,7 +12760,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12787,10 +12787,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111579490</v>
+        <v>111578950</v>
       </c>
       <c r="B105" t="n">
-        <v>78578</v>
+        <v>96265</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12799,61 +12799,61 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>6458</v>
+        <v>219790</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>562858.9067506329</v>
+        <v>562799.5258076072</v>
       </c>
       <c r="R105" t="n">
-        <v>6953811.559968874</v>
+        <v>6953550.628890147</v>
       </c>
       <c r="S105" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T105" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W105" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y105" t="inlineStr">
@@ -12863,7 +12863,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12900,7 +12900,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111579503</v>
+        <v>111579490</v>
       </c>
       <c r="B106" t="n">
         <v>78578</v>
@@ -12941,13 +12941,13 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>562850.2507051354</v>
+        <v>562858.9067506329</v>
       </c>
       <c r="R106" t="n">
-        <v>6953783.396332907</v>
+        <v>6953811.559968874</v>
       </c>
       <c r="S106" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T106" t="inlineStr">
         <is>

--- a/artfynd/A 46329-2022.xlsx
+++ b/artfynd/A 46329-2022.xlsx
@@ -3232,7 +3232,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111387081</v>
+        <v>111387089</v>
       </c>
       <c r="B23" t="n">
         <v>96348</v>
@@ -3281,10 +3281,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>563042.2621750269</v>
+        <v>563098.5752202668</v>
       </c>
       <c r="R23" t="n">
-        <v>6952996.115978647</v>
+        <v>6953032.543759782</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3353,10 +3353,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111387073</v>
+        <v>111387054</v>
       </c>
       <c r="B24" t="n">
-        <v>96348</v>
+        <v>90332</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3365,47 +3365,38 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>562853.2791694358</v>
+        <v>562699.6339177528</v>
       </c>
       <c r="R24" t="n">
-        <v>6953238.580949852</v>
+        <v>6953364.652957034</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3474,7 +3465,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111387078</v>
+        <v>111387076</v>
       </c>
       <c r="B25" t="n">
         <v>96348</v>
@@ -3509,7 +3500,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3523,10 +3514,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>562997.5732215638</v>
+        <v>562883.5177444151</v>
       </c>
       <c r="R25" t="n">
-        <v>6953145.386477226</v>
+        <v>6953219.876280347</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3595,7 +3586,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111387075</v>
+        <v>111387083</v>
       </c>
       <c r="B26" t="n">
         <v>96348</v>
@@ -3630,7 +3621,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3644,10 +3635,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>562870.5364005073</v>
+        <v>563090.1823450684</v>
       </c>
       <c r="R26" t="n">
-        <v>6953225.596763036</v>
+        <v>6952990.604707411</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3716,10 +3707,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111387083</v>
+        <v>111387063</v>
       </c>
       <c r="B27" t="n">
-        <v>96348</v>
+        <v>78604</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3728,47 +3719,38 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>6461</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Torss.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>563090.1823450684</v>
+        <v>563098.4786473656</v>
       </c>
       <c r="R27" t="n">
-        <v>6952990.604707411</v>
+        <v>6953037.592026276</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3837,7 +3819,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111387088</v>
+        <v>111387087</v>
       </c>
       <c r="B28" t="n">
         <v>96348</v>
@@ -3872,7 +3854,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3886,10 +3868,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>563134.0570246503</v>
+        <v>563169.8697415534</v>
       </c>
       <c r="R28" t="n">
-        <v>6953004.299178701</v>
+        <v>6953006.821267974</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3958,7 +3940,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111387093</v>
+        <v>111387085</v>
       </c>
       <c r="B29" t="n">
         <v>96348</v>
@@ -3993,7 +3975,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -4007,10 +3989,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>562907.4367122703</v>
+        <v>563184.371910503</v>
       </c>
       <c r="R29" t="n">
-        <v>6953291.488179443</v>
+        <v>6952993.784944776</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4079,10 +4061,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111387079</v>
+        <v>111387069</v>
       </c>
       <c r="B30" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4091,47 +4073,38 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>562998.218090906</v>
+        <v>562999.5216912739</v>
       </c>
       <c r="R30" t="n">
-        <v>6953087.553533346</v>
+        <v>6953115.583010472</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4200,10 +4173,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111387076</v>
+        <v>111387105</v>
       </c>
       <c r="B31" t="n">
-        <v>96348</v>
+        <v>93881</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4212,47 +4185,38 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>220787</v>
+        <v>2869</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Girg.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>562883.5177444151</v>
+        <v>563041.4755681724</v>
       </c>
       <c r="R31" t="n">
-        <v>6953219.876280347</v>
+        <v>6953301.851638818</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4321,10 +4285,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111387071</v>
+        <v>111387098</v>
       </c>
       <c r="B32" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4333,38 +4297,47 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>563037.3396484138</v>
+        <v>562755.5413371911</v>
       </c>
       <c r="R32" t="n">
-        <v>6953301.77258506</v>
+        <v>6953301.448215675</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4433,10 +4406,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111387100</v>
+        <v>111387080</v>
       </c>
       <c r="B33" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4445,38 +4418,47 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>563171.2924523354</v>
+        <v>562999.3263167407</v>
       </c>
       <c r="R33" t="n">
-        <v>6953004.552986205</v>
+        <v>6953053.60161553</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4545,10 +4527,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111387104</v>
+        <v>111387070</v>
       </c>
       <c r="B34" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4561,21 +4543,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4585,10 +4567,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>563012.8046913089</v>
+        <v>563066.3086353226</v>
       </c>
       <c r="R34" t="n">
-        <v>6953286.613656651</v>
+        <v>6953301.408277751</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4657,7 +4639,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111387097</v>
+        <v>111387081</v>
       </c>
       <c r="B35" t="n">
         <v>96348</v>
@@ -4692,7 +4674,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4706,10 +4688,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>562755.5413371911</v>
+        <v>563042.2621750269</v>
       </c>
       <c r="R35" t="n">
-        <v>6953301.448215675</v>
+        <v>6952996.115978647</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4778,10 +4760,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111387063</v>
+        <v>111387086</v>
       </c>
       <c r="B36" t="n">
-        <v>78604</v>
+        <v>96348</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4790,38 +4772,47 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6461</v>
+        <v>220787</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>563098.4786473656</v>
+        <v>563173.1483843722</v>
       </c>
       <c r="R36" t="n">
-        <v>6953037.592026276</v>
+        <v>6953003.67031906</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4890,10 +4881,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111387069</v>
+        <v>111387056</v>
       </c>
       <c r="B37" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4906,21 +4897,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4930,10 +4921,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>562999.5216912739</v>
+        <v>562599.4090375302</v>
       </c>
       <c r="R37" t="n">
-        <v>6953115.583010472</v>
+        <v>6953389.374023037</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5002,10 +4993,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111387067</v>
+        <v>111387079</v>
       </c>
       <c r="B38" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5014,38 +5005,47 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>562956.5571138755</v>
+        <v>562998.218090906</v>
       </c>
       <c r="R38" t="n">
-        <v>6953198.774932881</v>
+        <v>6953087.553533346</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5114,7 +5114,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111387070</v>
+        <v>111387071</v>
       </c>
       <c r="B39" t="n">
         <v>78578</v>
@@ -5154,10 +5154,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>563066.3086353226</v>
+        <v>563037.3396484138</v>
       </c>
       <c r="R39" t="n">
-        <v>6953301.408277751</v>
+        <v>6953301.77258506</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5226,10 +5226,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111387054</v>
+        <v>111387100</v>
       </c>
       <c r="B40" t="n">
-        <v>90332</v>
+        <v>103288</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5242,21 +5242,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4769</v>
+        <v>221144</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>562699.6339177528</v>
+        <v>563171.2924523354</v>
       </c>
       <c r="R40" t="n">
-        <v>6953364.652957034</v>
+        <v>6953004.552986205</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5338,10 +5338,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111387077</v>
+        <v>111387102</v>
       </c>
       <c r="B41" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5350,47 +5350,38 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>562995.0074451283</v>
+        <v>562910.6623015397</v>
       </c>
       <c r="R41" t="n">
-        <v>6953183.441336502</v>
+        <v>6953291.090640862</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5459,10 +5450,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111387101</v>
+        <v>111387096</v>
       </c>
       <c r="B42" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5471,38 +5462,47 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>563012.8046913089</v>
+        <v>562776.3432141852</v>
       </c>
       <c r="R42" t="n">
-        <v>6953286.613656651</v>
+        <v>6953295.417218027</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5571,7 +5571,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111387087</v>
+        <v>111387082</v>
       </c>
       <c r="B43" t="n">
         <v>96348</v>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -5620,10 +5620,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>563169.8697415534</v>
+        <v>563081.3711416697</v>
       </c>
       <c r="R43" t="n">
-        <v>6953006.821267974</v>
+        <v>6952994.56815038</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5692,7 +5692,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111387091</v>
+        <v>111387093</v>
       </c>
       <c r="B44" t="n">
         <v>96348</v>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5741,10 +5741,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>563105.361322377</v>
+        <v>562907.4367122703</v>
       </c>
       <c r="R44" t="n">
-        <v>6953302.614342762</v>
+        <v>6953291.488179443</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5813,7 +5813,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111387082</v>
+        <v>111387075</v>
       </c>
       <c r="B45" t="n">
         <v>96348</v>
@@ -5848,7 +5848,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -5862,10 +5862,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>563081.3711416697</v>
+        <v>562870.5364005073</v>
       </c>
       <c r="R45" t="n">
-        <v>6952994.56815038</v>
+        <v>6953225.596763036</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5934,10 +5934,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111387094</v>
+        <v>111387067</v>
       </c>
       <c r="B46" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5946,47 +5946,38 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>562796.6157216484</v>
+        <v>562956.5571138755</v>
       </c>
       <c r="R46" t="n">
-        <v>6953293.048769277</v>
+        <v>6953198.774932881</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6055,10 +6046,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111387102</v>
+        <v>111387078</v>
       </c>
       <c r="B47" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6067,38 +6058,47 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>562910.6623015397</v>
+        <v>562997.5732215638</v>
       </c>
       <c r="R47" t="n">
-        <v>6953291.090640862</v>
+        <v>6953145.386477226</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6167,10 +6167,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111387086</v>
+        <v>111387101</v>
       </c>
       <c r="B48" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6179,47 +6179,38 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>563173.1483843722</v>
+        <v>563012.8046913089</v>
       </c>
       <c r="R48" t="n">
-        <v>6953003.67031906</v>
+        <v>6953286.613656651</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6288,7 +6279,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111387099</v>
+        <v>111387088</v>
       </c>
       <c r="B49" t="n">
         <v>96348</v>
@@ -6337,10 +6328,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>563062.0245114181</v>
+        <v>563134.0570246503</v>
       </c>
       <c r="R49" t="n">
-        <v>6952996.493746921</v>
+        <v>6953004.299178701</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6530,7 +6521,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111387085</v>
+        <v>111387090</v>
       </c>
       <c r="B51" t="n">
         <v>96348</v>
@@ -6565,7 +6556,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -6579,10 +6570,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>563184.371910503</v>
+        <v>563095.5280093225</v>
       </c>
       <c r="R51" t="n">
-        <v>6952993.784944776</v>
+        <v>6953047.635786653</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6651,10 +6642,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111387089</v>
+        <v>111387066</v>
       </c>
       <c r="B52" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6663,47 +6654,38 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>563098.5752202668</v>
+        <v>562599.4090375302</v>
       </c>
       <c r="R52" t="n">
-        <v>6953032.543759782</v>
+        <v>6953389.374023037</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6772,7 +6754,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111387090</v>
+        <v>111387077</v>
       </c>
       <c r="B53" t="n">
         <v>96348</v>
@@ -6807,7 +6789,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>65</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -6821,10 +6803,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>563095.5280093225</v>
+        <v>562995.0074451283</v>
       </c>
       <c r="R53" t="n">
-        <v>6953047.635786653</v>
+        <v>6953183.441336502</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6893,10 +6875,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111387066</v>
+        <v>111387094</v>
       </c>
       <c r="B54" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6905,38 +6887,47 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>562599.4090375302</v>
+        <v>562796.6157216484</v>
       </c>
       <c r="R54" t="n">
-        <v>6953389.374023037</v>
+        <v>6953293.048769277</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -7005,7 +6996,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111387080</v>
+        <v>111387099</v>
       </c>
       <c r="B55" t="n">
         <v>96348</v>
@@ -7040,7 +7031,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -7054,10 +7045,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>562999.3263167407</v>
+        <v>563062.0245114181</v>
       </c>
       <c r="R55" t="n">
-        <v>6953053.60161553</v>
+        <v>6952996.493746921</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7126,10 +7117,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111387105</v>
+        <v>111387091</v>
       </c>
       <c r="B56" t="n">
-        <v>93881</v>
+        <v>96348</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7138,38 +7129,47 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2869</v>
+        <v>220787</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Girg.</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>563041.4755681724</v>
+        <v>563105.361322377</v>
       </c>
       <c r="R56" t="n">
-        <v>6953301.851638818</v>
+        <v>6953302.614342762</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111387096</v>
+        <v>111387092</v>
       </c>
       <c r="B57" t="n">
         <v>96348</v>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -7287,10 +7287,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>562776.3432141852</v>
+        <v>563012.8046913089</v>
       </c>
       <c r="R57" t="n">
-        <v>6953295.417218027</v>
+        <v>6953286.613656651</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7359,10 +7359,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111387056</v>
+        <v>111387073</v>
       </c>
       <c r="B58" t="n">
-        <v>78579</v>
+        <v>96348</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7371,38 +7371,47 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2081</v>
+        <v>220787</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>562599.4090375302</v>
+        <v>562853.2791694358</v>
       </c>
       <c r="R58" t="n">
-        <v>6953389.374023037</v>
+        <v>6953238.580949852</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7471,10 +7480,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111387092</v>
+        <v>111387104</v>
       </c>
       <c r="B59" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7483,37 +7492,28 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>..., Mpd</t>
@@ -7592,7 +7592,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111505031</v>
+        <v>111505043</v>
       </c>
       <c r="B60" t="n">
         <v>96348</v>
@@ -7627,7 +7627,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -7641,13 +7641,13 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>563201.2223511444</v>
+        <v>562795.9247683069</v>
       </c>
       <c r="R60" t="n">
-        <v>6953793.776556972</v>
+        <v>6953570.757486098</v>
       </c>
       <c r="S60" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7713,10 +7713,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111505021</v>
+        <v>111505042</v>
       </c>
       <c r="B61" t="n">
-        <v>78512</v>
+        <v>96348</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7725,41 +7725,50 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6456</v>
+        <v>220787</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>563127.0267518542</v>
+        <v>562819.5119181958</v>
       </c>
       <c r="R61" t="n">
-        <v>6953803.830203088</v>
+        <v>6953707.993414508</v>
       </c>
       <c r="S61" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7825,10 +7834,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111505035</v>
+        <v>111505052</v>
       </c>
       <c r="B62" t="n">
-        <v>96348</v>
+        <v>93881</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7837,74 +7846,65 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>220787</v>
+        <v>2869</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Girg.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>563176.4801691328</v>
+        <v>563021.385735066</v>
       </c>
       <c r="R62" t="n">
-        <v>6953693.698667094</v>
+        <v>6953703.583207678</v>
       </c>
       <c r="S62" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
@@ -7914,7 +7914,7 @@
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
@@ -7946,10 +7946,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111505024</v>
+        <v>111505030</v>
       </c>
       <c r="B63" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7958,41 +7958,50 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>562988.0254043636</v>
+        <v>563188.2250752542</v>
       </c>
       <c r="R63" t="n">
-        <v>6953909.951939938</v>
+        <v>6953800.412410886</v>
       </c>
       <c r="S63" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -8058,10 +8067,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111505040</v>
+        <v>111506378</v>
       </c>
       <c r="B64" t="n">
-        <v>96348</v>
+        <v>96381</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8070,50 +8079,42 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>220787</v>
+        <v>219874</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>562838.4296954731</v>
+        <v>562795.9247683069</v>
       </c>
       <c r="R64" t="n">
-        <v>6953704.222797605</v>
+        <v>6953570.757486098</v>
       </c>
       <c r="S64" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -8137,7 +8138,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
@@ -8147,7 +8148,7 @@
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
@@ -8179,7 +8180,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111505041</v>
+        <v>111505032</v>
       </c>
       <c r="B65" t="n">
         <v>96348</v>
@@ -8214,7 +8215,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -8224,36 +8225,36 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>562832.325177824</v>
+        <v>563277.1457894059</v>
       </c>
       <c r="R65" t="n">
-        <v>6953710.991571963</v>
+        <v>6953717.6612378</v>
       </c>
       <c r="S65" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
@@ -8300,10 +8301,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111505050</v>
+        <v>111505034</v>
       </c>
       <c r="B66" t="n">
-        <v>78611</v>
+        <v>96348</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8312,60 +8313,69 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6463</v>
+        <v>220787</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>563111.0943530079</v>
+        <v>563233.4131933488</v>
       </c>
       <c r="R66" t="n">
-        <v>6953795.722308087</v>
+        <v>6953697.084956069</v>
       </c>
       <c r="S66" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -8412,10 +8422,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111505026</v>
+        <v>111505044</v>
       </c>
       <c r="B67" t="n">
-        <v>78578</v>
+        <v>90151</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8428,56 +8438,65 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6458</v>
+        <v>366</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr"/>
+          <t>(Pers.) Jülich</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>563112.0133087402</v>
+        <v>563300.3140053455</v>
       </c>
       <c r="R67" t="n">
-        <v>6953795.739896396</v>
+        <v>6953708.007710025</v>
       </c>
       <c r="S67" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
@@ -8524,7 +8543,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111506360</v>
+        <v>111506427</v>
       </c>
       <c r="B68" t="n">
         <v>96348</v>
@@ -8559,7 +8578,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>55</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -8570,36 +8589,36 @@
       <c r="K68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>562795.9247683069</v>
+        <v>563300.3140053455</v>
       </c>
       <c r="R68" t="n">
-        <v>6953570.757486098</v>
+        <v>6953708.007710025</v>
       </c>
       <c r="S68" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
@@ -8646,10 +8665,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111505049</v>
+        <v>111506366</v>
       </c>
       <c r="B69" t="n">
-        <v>78611</v>
+        <v>96368</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8662,37 +8681,38 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6463</v>
+        <v>221952</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>563141.3320316244</v>
+        <v>562795.9247683069</v>
       </c>
       <c r="R69" t="n">
-        <v>6953800.891131622</v>
+        <v>6953570.757486098</v>
       </c>
       <c r="S69" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -8716,7 +8736,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
@@ -8726,7 +8746,7 @@
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
@@ -8758,10 +8778,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111505023</v>
+        <v>111505050</v>
       </c>
       <c r="B70" t="n">
-        <v>78578</v>
+        <v>78611</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8770,60 +8790,60 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>562450.0507050141</v>
+        <v>563111.0943530079</v>
       </c>
       <c r="R70" t="n">
-        <v>6953411.330941907</v>
+        <v>6953795.722308087</v>
       </c>
       <c r="S70" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
@@ -8870,7 +8890,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111505036</v>
+        <v>111505037</v>
       </c>
       <c r="B71" t="n">
         <v>96348</v>
@@ -8905,7 +8925,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -8915,36 +8935,36 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>563156.3591810546</v>
+        <v>562940.6554937188</v>
       </c>
       <c r="R71" t="n">
-        <v>6953688.264125231</v>
+        <v>6953694.697192283</v>
       </c>
       <c r="S71" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
@@ -8991,10 +9011,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111505025</v>
+        <v>111505038</v>
       </c>
       <c r="B72" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -9003,41 +9023,50 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>563048.1020123652</v>
+        <v>562908.6398715272</v>
       </c>
       <c r="R72" t="n">
-        <v>6953796.81225728</v>
+        <v>6953686.283111459</v>
       </c>
       <c r="S72" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -9103,10 +9132,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111505029</v>
+        <v>111505033</v>
       </c>
       <c r="B73" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9115,41 +9144,50 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr">
         <is>
           <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>562582.6789697963</v>
+        <v>563271.4189427574</v>
       </c>
       <c r="R73" t="n">
-        <v>6953447.35522902</v>
+        <v>6953704.69911015</v>
       </c>
       <c r="S73" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
@@ -9215,10 +9253,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111506366</v>
+        <v>111505017</v>
       </c>
       <c r="B74" t="n">
-        <v>96368</v>
+        <v>78605</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9231,38 +9269,37 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>221952</v>
+        <v>6462</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>562795.9247683069</v>
+        <v>563110.157834232</v>
       </c>
       <c r="R74" t="n">
-        <v>6953570.757486098</v>
+        <v>6953796.622375475</v>
       </c>
       <c r="S74" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
@@ -9286,7 +9323,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
@@ -9296,7 +9333,7 @@
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
@@ -9328,7 +9365,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111505037</v>
+        <v>111505035</v>
       </c>
       <c r="B75" t="n">
         <v>96348</v>
@@ -9363,7 +9400,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -9373,36 +9410,36 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>562940.6554937188</v>
+        <v>563176.4801691328</v>
       </c>
       <c r="R75" t="n">
-        <v>6953694.697192283</v>
+        <v>6953693.698667094</v>
       </c>
       <c r="S75" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W75" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
@@ -9449,10 +9486,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111505017</v>
+        <v>111505029</v>
       </c>
       <c r="B76" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9461,60 +9498,60 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>563110.157834232</v>
+        <v>562582.6789697963</v>
       </c>
       <c r="R76" t="n">
-        <v>6953796.622375475</v>
+        <v>6953447.35522902</v>
       </c>
       <c r="S76" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
@@ -9561,7 +9598,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111505028</v>
+        <v>111505026</v>
       </c>
       <c r="B77" t="n">
         <v>78578</v>
@@ -9601,13 +9638,13 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>562994.4598576587</v>
+        <v>563112.0133087402</v>
       </c>
       <c r="R77" t="n">
-        <v>6953693.429543378</v>
+        <v>6953795.739896396</v>
       </c>
       <c r="S77" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -9673,10 +9710,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111506378</v>
+        <v>111505021</v>
       </c>
       <c r="B78" t="n">
-        <v>96381</v>
+        <v>78512</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9689,38 +9726,37 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>219874</v>
+        <v>6456</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>562795.9247683069</v>
+        <v>563127.0267518542</v>
       </c>
       <c r="R78" t="n">
-        <v>6953570.757486098</v>
+        <v>6953803.830203088</v>
       </c>
       <c r="S78" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -9744,7 +9780,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
@@ -9754,7 +9790,7 @@
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
@@ -9786,10 +9822,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111505044</v>
+        <v>111505049</v>
       </c>
       <c r="B79" t="n">
-        <v>90151</v>
+        <v>78611</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9798,69 +9834,60 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>366</v>
+        <v>6463</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>563300.3140053455</v>
+        <v>563141.3320316244</v>
       </c>
       <c r="R79" t="n">
-        <v>6953708.007710025</v>
+        <v>6953800.891131622</v>
       </c>
       <c r="S79" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W79" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
@@ -9907,10 +9934,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111505033</v>
+        <v>111505024</v>
       </c>
       <c r="B80" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9919,69 +9946,60 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>563271.4189427574</v>
+        <v>562988.0254043636</v>
       </c>
       <c r="R80" t="n">
-        <v>6953704.69911015</v>
+        <v>6953909.951939938</v>
       </c>
       <c r="S80" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W80" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
@@ -10028,7 +10046,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111505032</v>
+        <v>111505036</v>
       </c>
       <c r="B81" t="n">
         <v>96348</v>
@@ -10077,13 +10095,13 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>563277.1457894059</v>
+        <v>563156.3591810546</v>
       </c>
       <c r="R81" t="n">
-        <v>6953717.6612378</v>
+        <v>6953688.264125231</v>
       </c>
       <c r="S81" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
@@ -10149,10 +10167,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111505042</v>
+        <v>111505028</v>
       </c>
       <c r="B82" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10161,50 +10179,41 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>562819.5119181958</v>
+        <v>562994.4598576587</v>
       </c>
       <c r="R82" t="n">
-        <v>6953707.993414508</v>
+        <v>6953693.429543378</v>
       </c>
       <c r="S82" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
@@ -10270,7 +10279,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111506427</v>
+        <v>111505040</v>
       </c>
       <c r="B83" t="n">
         <v>96348</v>
@@ -10305,7 +10314,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -10313,44 +10322,43 @@
           <t>stjälkar/strån/skott</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>563300.3140053455</v>
+        <v>562838.4296954731</v>
       </c>
       <c r="R83" t="n">
-        <v>6953708.007710025</v>
+        <v>6953704.222797605</v>
       </c>
       <c r="S83" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W83" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
@@ -10360,7 +10368,7 @@
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB83" t="inlineStr">
@@ -10392,10 +10400,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111505034</v>
+        <v>111505027</v>
       </c>
       <c r="B84" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -10404,69 +10412,60 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>563233.4131933488</v>
+        <v>563139.9711714545</v>
       </c>
       <c r="R84" t="n">
-        <v>6953697.084956069</v>
+        <v>6953799.947082677</v>
       </c>
       <c r="S84" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W84" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
@@ -10513,7 +10512,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111505038</v>
+        <v>111505041</v>
       </c>
       <c r="B85" t="n">
         <v>96348</v>
@@ -10548,7 +10547,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -10562,13 +10561,13 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>562908.6398715272</v>
+        <v>562832.325177824</v>
       </c>
       <c r="R85" t="n">
-        <v>6953686.283111459</v>
+        <v>6953710.991571963</v>
       </c>
       <c r="S85" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
@@ -10634,7 +10633,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111505030</v>
+        <v>111505031</v>
       </c>
       <c r="B86" t="n">
         <v>96348</v>
@@ -10669,7 +10668,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -10683,13 +10682,13 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>563188.2250752542</v>
+        <v>563201.2223511444</v>
       </c>
       <c r="R86" t="n">
-        <v>6953800.412410886</v>
+        <v>6953793.776556972</v>
       </c>
       <c r="S86" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
@@ -10755,10 +10754,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111505052</v>
+        <v>111505025</v>
       </c>
       <c r="B87" t="n">
-        <v>93881</v>
+        <v>78578</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10767,25 +10766,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>2869</v>
+        <v>6458</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10795,13 +10794,13 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>563021.385735066</v>
+        <v>563048.1020123652</v>
       </c>
       <c r="R87" t="n">
-        <v>6953703.583207678</v>
+        <v>6953796.81225728</v>
       </c>
       <c r="S87" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
@@ -10825,7 +10824,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
@@ -10835,7 +10834,7 @@
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB87" t="inlineStr">
@@ -10867,7 +10866,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111505027</v>
+        <v>111505023</v>
       </c>
       <c r="B88" t="n">
         <v>78578</v>
@@ -10903,36 +10902,36 @@
       <c r="I88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>563139.9711714545</v>
+        <v>562450.0507050141</v>
       </c>
       <c r="R88" t="n">
-        <v>6953799.947082677</v>
+        <v>6953411.330941907</v>
       </c>
       <c r="S88" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W88" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
@@ -10979,7 +10978,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111578990</v>
+        <v>111578830</v>
       </c>
       <c r="B89" t="n">
         <v>78578</v>
@@ -11016,36 +11015,36 @@
       <c r="K89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>562812.7329947776</v>
+        <v>562740.2630645358</v>
       </c>
       <c r="R89" t="n">
-        <v>6953532.978280453</v>
+        <v>6953572.911213852</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W89" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
@@ -11092,10 +11091,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111578865</v>
+        <v>111578715</v>
       </c>
       <c r="B90" t="n">
-        <v>78578</v>
+        <v>103288</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -11104,61 +11103,61 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6458</v>
+        <v>221144</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>562788.3053195324</v>
+        <v>562725.5046364743</v>
       </c>
       <c r="R90" t="n">
-        <v>6953560.513836247</v>
+        <v>6953382.129823714</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W90" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
@@ -11205,10 +11204,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111578583</v>
+        <v>111578960</v>
       </c>
       <c r="B91" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11217,25 +11216,25 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -11246,10 +11245,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>562676.9542402821</v>
+        <v>562799.5258076072</v>
       </c>
       <c r="R91" t="n">
-        <v>6953421.143956529</v>
+        <v>6953550.628890147</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
@@ -11281,7 +11280,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -11291,7 +11290,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -11318,10 +11317,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111579651</v>
+        <v>111579233</v>
       </c>
       <c r="B92" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11330,25 +11329,25 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -11359,10 +11358,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>562757.9369339028</v>
+        <v>562810.5604810353</v>
       </c>
       <c r="R92" t="n">
-        <v>6953731.148202746</v>
+        <v>6953622.9056556</v>
       </c>
       <c r="S92" t="n">
         <v>25</v>
@@ -11394,7 +11393,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>20:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -11404,7 +11403,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>20:14</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -11431,10 +11430,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111579503</v>
+        <v>111579081</v>
       </c>
       <c r="B93" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11443,25 +11442,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -11472,10 +11471,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>562850.2507051354</v>
+        <v>562801.7112454879</v>
       </c>
       <c r="R93" t="n">
-        <v>6953783.396332907</v>
+        <v>6953604.835366915</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -11544,10 +11543,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111578715</v>
+        <v>111579490</v>
       </c>
       <c r="B94" t="n">
-        <v>103288</v>
+        <v>78578</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11556,61 +11555,61 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>221144</v>
+        <v>6458</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>562725.5046364743</v>
+        <v>562858.9067506329</v>
       </c>
       <c r="R94" t="n">
-        <v>6953382.129823714</v>
+        <v>6953811.559968874</v>
       </c>
       <c r="S94" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
@@ -11620,7 +11619,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -11630,7 +11629,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -11657,7 +11656,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111578582</v>
+        <v>111578792</v>
       </c>
       <c r="B95" t="n">
         <v>78578</v>
@@ -11698,10 +11697,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>562676.9542402821</v>
+        <v>562747.4557671447</v>
       </c>
       <c r="R95" t="n">
-        <v>6953421.143956529</v>
+        <v>6953533.112687511</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -11733,7 +11732,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -11743,7 +11742,7 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11770,10 +11769,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111579236</v>
+        <v>111578582</v>
       </c>
       <c r="B96" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11782,61 +11781,61 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>562801.7112454879</v>
+        <v>562676.9542402821</v>
       </c>
       <c r="R96" t="n">
-        <v>6953604.835366915</v>
+        <v>6953421.143956529</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W96" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
@@ -11846,7 +11845,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>19:46</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -11856,7 +11855,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>19:46</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11883,10 +11882,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111579563</v>
+        <v>111579646</v>
       </c>
       <c r="B97" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11895,25 +11894,25 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11924,10 +11923,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>562802.7270039422</v>
+        <v>562757.9369339028</v>
       </c>
       <c r="R97" t="n">
-        <v>6953768.720964032</v>
+        <v>6953731.148202746</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
@@ -11996,7 +11995,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111578520</v>
+        <v>111578662</v>
       </c>
       <c r="B98" t="n">
         <v>78578</v>
@@ -12037,10 +12036,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>562600.317282272</v>
+        <v>562713.478186005</v>
       </c>
       <c r="R98" t="n">
-        <v>6953414.179823531</v>
+        <v>6953386.03256534</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -12109,10 +12108,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111578841</v>
+        <v>111578583</v>
       </c>
       <c r="B99" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -12121,25 +12120,25 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -12150,10 +12149,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>562756.4976047705</v>
+        <v>562676.9542402821</v>
       </c>
       <c r="R99" t="n">
-        <v>6953541.088242936</v>
+        <v>6953421.143956529</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
@@ -12185,7 +12184,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -12195,7 +12194,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -12222,7 +12221,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111578830</v>
+        <v>111578520</v>
       </c>
       <c r="B100" t="n">
         <v>78578</v>
@@ -12259,36 +12258,36 @@
       <c r="K100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>562740.2630645358</v>
+        <v>562600.317282272</v>
       </c>
       <c r="R100" t="n">
-        <v>6953572.911213852</v>
+        <v>6953414.179823531</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr">
@@ -12298,7 +12297,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -12308,7 +12307,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -12335,7 +12334,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111578662</v>
+        <v>111578865</v>
       </c>
       <c r="B101" t="n">
         <v>78578</v>
@@ -12372,36 +12371,36 @@
       <c r="K101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>562713.478186005</v>
+        <v>562788.3053195324</v>
       </c>
       <c r="R101" t="n">
-        <v>6953386.03256534</v>
+        <v>6953560.513836247</v>
       </c>
       <c r="S101" t="n">
         <v>25</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y101" t="inlineStr">
@@ -12411,7 +12410,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -12421,7 +12420,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12448,7 +12447,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111578792</v>
+        <v>111578841</v>
       </c>
       <c r="B102" t="n">
         <v>78578</v>
@@ -12489,10 +12488,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>562747.4557671447</v>
+        <v>562756.4976047705</v>
       </c>
       <c r="R102" t="n">
-        <v>6953533.112687511</v>
+        <v>6953541.088242936</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -12561,7 +12560,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111578960</v>
+        <v>111579503</v>
       </c>
       <c r="B103" t="n">
         <v>78578</v>
@@ -12598,36 +12597,36 @@
       <c r="K103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>562799.5258076072</v>
+        <v>562850.2507051354</v>
       </c>
       <c r="R103" t="n">
-        <v>6953550.628890147</v>
+        <v>6953783.396332907</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W103" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y103" t="inlineStr">
@@ -12637,7 +12636,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -12647,7 +12646,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12674,7 +12673,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111579233</v>
+        <v>111578990</v>
       </c>
       <c r="B104" t="n">
         <v>78578</v>
@@ -12711,36 +12710,36 @@
       <c r="K104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>562810.5604810353</v>
+        <v>562812.7329947776</v>
       </c>
       <c r="R104" t="n">
-        <v>6953622.9056556</v>
+        <v>6953532.978280453</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
       </c>
       <c r="T104" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y104" t="inlineStr">
@@ -12750,7 +12749,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -12760,7 +12759,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12787,10 +12786,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111578950</v>
+        <v>111579563</v>
       </c>
       <c r="B105" t="n">
-        <v>96265</v>
+        <v>78578</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12799,61 +12798,61 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>219790</v>
+        <v>6458</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>562799.5258076072</v>
+        <v>562802.7270039422</v>
       </c>
       <c r="R105" t="n">
-        <v>6953550.628890147</v>
+        <v>6953768.720964032</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
       </c>
       <c r="T105" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W105" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y105" t="inlineStr">
@@ -12863,7 +12862,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -12873,7 +12872,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12900,10 +12899,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111579490</v>
+        <v>111578950</v>
       </c>
       <c r="B106" t="n">
-        <v>78578</v>
+        <v>96265</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12912,61 +12911,61 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>6458</v>
+        <v>219790</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>562858.9067506329</v>
+        <v>562799.5258076072</v>
       </c>
       <c r="R106" t="n">
-        <v>6953811.559968874</v>
+        <v>6953550.628890147</v>
       </c>
       <c r="S106" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T106" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W106" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y106" t="inlineStr">
@@ -12976,7 +12975,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -12986,7 +12985,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD106" t="b">

--- a/artfynd/A 46329-2022.xlsx
+++ b/artfynd/A 46329-2022.xlsx
@@ -3232,10 +3232,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111387089</v>
+        <v>111387066</v>
       </c>
       <c r="B23" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3244,47 +3244,38 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>563098.5752202668</v>
+        <v>562599.4090375302</v>
       </c>
       <c r="R23" t="n">
-        <v>6953032.543759782</v>
+        <v>6953389.374023037</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3353,10 +3344,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111387054</v>
+        <v>111387099</v>
       </c>
       <c r="B24" t="n">
-        <v>90332</v>
+        <v>96348</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3365,38 +3356,47 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>562699.6339177528</v>
+        <v>563062.0245114181</v>
       </c>
       <c r="R24" t="n">
-        <v>6953364.652957034</v>
+        <v>6952996.493746921</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3465,7 +3465,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111387076</v>
+        <v>111387083</v>
       </c>
       <c r="B25" t="n">
         <v>96348</v>
@@ -3500,7 +3500,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3514,10 +3514,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>562883.5177444151</v>
+        <v>563090.1823450684</v>
       </c>
       <c r="R25" t="n">
-        <v>6953219.876280347</v>
+        <v>6952990.604707411</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3586,7 +3586,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111387083</v>
+        <v>111387084</v>
       </c>
       <c r="B26" t="n">
         <v>96348</v>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3635,10 +3635,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>563090.1823450684</v>
+        <v>563156.6005608093</v>
       </c>
       <c r="R26" t="n">
-        <v>6952990.604707411</v>
+        <v>6952979.479832834</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3707,10 +3707,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111387063</v>
+        <v>111387101</v>
       </c>
       <c r="B27" t="n">
-        <v>78604</v>
+        <v>103288</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3723,21 +3723,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6461</v>
+        <v>221144</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3747,10 +3747,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>563098.4786473656</v>
+        <v>563012.8046913089</v>
       </c>
       <c r="R27" t="n">
-        <v>6953037.592026276</v>
+        <v>6953286.613656651</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3819,10 +3819,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111387087</v>
+        <v>111387069</v>
       </c>
       <c r="B28" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3831,47 +3831,38 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>563169.8697415534</v>
+        <v>562999.5216912739</v>
       </c>
       <c r="R28" t="n">
-        <v>6953006.821267974</v>
+        <v>6953115.583010472</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3940,7 +3931,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111387085</v>
+        <v>111387078</v>
       </c>
       <c r="B29" t="n">
         <v>96348</v>
@@ -3989,10 +3980,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>563184.371910503</v>
+        <v>562997.5732215638</v>
       </c>
       <c r="R29" t="n">
-        <v>6952993.784944776</v>
+        <v>6953145.386477226</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4061,10 +4052,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111387069</v>
+        <v>111387056</v>
       </c>
       <c r="B30" t="n">
-        <v>78578</v>
+        <v>78579</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4077,21 +4068,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4101,10 +4092,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>562999.5216912739</v>
+        <v>562599.4090375302</v>
       </c>
       <c r="R30" t="n">
-        <v>6953115.583010472</v>
+        <v>6953389.374023037</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4173,10 +4164,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111387105</v>
+        <v>111387076</v>
       </c>
       <c r="B31" t="n">
-        <v>93881</v>
+        <v>96348</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4185,38 +4176,47 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2869</v>
+        <v>220787</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Girg.</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>563041.4755681724</v>
+        <v>562883.5177444151</v>
       </c>
       <c r="R31" t="n">
-        <v>6953301.851638818</v>
+        <v>6953219.876280347</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111387098</v>
+        <v>111387079</v>
       </c>
       <c r="B32" t="n">
         <v>96348</v>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -4334,10 +4334,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>562755.5413371911</v>
+        <v>562998.218090906</v>
       </c>
       <c r="R32" t="n">
-        <v>6953301.448215675</v>
+        <v>6953087.553533346</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111387080</v>
+        <v>111387091</v>
       </c>
       <c r="B33" t="n">
         <v>96348</v>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4455,10 +4455,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>562999.3263167407</v>
+        <v>563105.361322377</v>
       </c>
       <c r="R33" t="n">
-        <v>6953053.60161553</v>
+        <v>6953302.614342762</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4527,10 +4527,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111387070</v>
+        <v>111387082</v>
       </c>
       <c r="B34" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4539,38 +4539,47 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>563066.3086353226</v>
+        <v>563081.3711416697</v>
       </c>
       <c r="R34" t="n">
-        <v>6953301.408277751</v>
+        <v>6952994.56815038</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4639,7 +4648,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111387081</v>
+        <v>111387093</v>
       </c>
       <c r="B35" t="n">
         <v>96348</v>
@@ -4674,7 +4683,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4688,10 +4697,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>563042.2621750269</v>
+        <v>562907.4367122703</v>
       </c>
       <c r="R35" t="n">
-        <v>6952996.115978647</v>
+        <v>6953291.488179443</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4760,7 +4769,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111387086</v>
+        <v>111387075</v>
       </c>
       <c r="B36" t="n">
         <v>96348</v>
@@ -4795,7 +4804,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -4809,10 +4818,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>563173.1483843722</v>
+        <v>562870.5364005073</v>
       </c>
       <c r="R36" t="n">
-        <v>6953003.67031906</v>
+        <v>6953225.596763036</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4881,10 +4890,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111387056</v>
+        <v>111387070</v>
       </c>
       <c r="B37" t="n">
-        <v>78579</v>
+        <v>78578</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4897,21 +4906,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4921,10 +4930,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>562599.4090375302</v>
+        <v>563066.3086353226</v>
       </c>
       <c r="R37" t="n">
-        <v>6953389.374023037</v>
+        <v>6953301.408277751</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4993,10 +5002,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111387079</v>
+        <v>111387067</v>
       </c>
       <c r="B38" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5005,47 +5014,38 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>562998.218090906</v>
+        <v>562956.5571138755</v>
       </c>
       <c r="R38" t="n">
-        <v>6953087.553533346</v>
+        <v>6953198.774932881</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5114,10 +5114,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111387071</v>
+        <v>111387104</v>
       </c>
       <c r="B39" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5130,21 +5130,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5154,10 +5154,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>563037.3396484138</v>
+        <v>563012.8046913089</v>
       </c>
       <c r="R39" t="n">
-        <v>6953301.77258506</v>
+        <v>6953286.613656651</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5226,10 +5226,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111387100</v>
+        <v>111387090</v>
       </c>
       <c r="B40" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5238,38 +5238,47 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>563171.2924523354</v>
+        <v>563095.5280093225</v>
       </c>
       <c r="R40" t="n">
-        <v>6953004.552986205</v>
+        <v>6953047.635786653</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5338,10 +5347,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111387102</v>
+        <v>111387073</v>
       </c>
       <c r="B41" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5350,38 +5359,47 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>562910.6623015397</v>
+        <v>562853.2791694358</v>
       </c>
       <c r="R41" t="n">
-        <v>6953291.090640862</v>
+        <v>6953238.580949852</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5571,7 +5589,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111387082</v>
+        <v>111387097</v>
       </c>
       <c r="B43" t="n">
         <v>96348</v>
@@ -5606,7 +5624,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -5620,10 +5638,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>563081.3711416697</v>
+        <v>562755.5413371911</v>
       </c>
       <c r="R43" t="n">
-        <v>6952994.56815038</v>
+        <v>6953301.448215675</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5692,7 +5710,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111387093</v>
+        <v>111387087</v>
       </c>
       <c r="B44" t="n">
         <v>96348</v>
@@ -5727,7 +5745,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -5741,10 +5759,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>562907.4367122703</v>
+        <v>563169.8697415534</v>
       </c>
       <c r="R44" t="n">
-        <v>6953291.488179443</v>
+        <v>6953006.821267974</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5813,7 +5831,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111387075</v>
+        <v>111387085</v>
       </c>
       <c r="B45" t="n">
         <v>96348</v>
@@ -5862,10 +5880,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>562870.5364005073</v>
+        <v>563184.371910503</v>
       </c>
       <c r="R45" t="n">
-        <v>6953225.596763036</v>
+        <v>6952993.784944776</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5934,10 +5952,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111387067</v>
+        <v>111387089</v>
       </c>
       <c r="B46" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5946,38 +5964,47 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>562956.5571138755</v>
+        <v>563098.5752202668</v>
       </c>
       <c r="R46" t="n">
-        <v>6953198.774932881</v>
+        <v>6953032.543759782</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6046,7 +6073,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111387078</v>
+        <v>111387080</v>
       </c>
       <c r="B47" t="n">
         <v>96348</v>
@@ -6081,7 +6108,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -6095,10 +6122,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>562997.5732215638</v>
+        <v>562999.3263167407</v>
       </c>
       <c r="R47" t="n">
-        <v>6953145.386477226</v>
+        <v>6953053.60161553</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6167,10 +6194,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111387101</v>
+        <v>111387054</v>
       </c>
       <c r="B48" t="n">
-        <v>103288</v>
+        <v>90332</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6183,21 +6210,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>221144</v>
+        <v>4769</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6207,10 +6234,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>563012.8046913089</v>
+        <v>562699.6339177528</v>
       </c>
       <c r="R48" t="n">
-        <v>6953286.613656651</v>
+        <v>6953364.652957034</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6279,10 +6306,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111387088</v>
+        <v>111387105</v>
       </c>
       <c r="B49" t="n">
-        <v>96348</v>
+        <v>93881</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6291,47 +6318,38 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>220787</v>
+        <v>2869</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Girg.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>563134.0570246503</v>
+        <v>563041.4755681724</v>
       </c>
       <c r="R49" t="n">
-        <v>6953004.299178701</v>
+        <v>6953301.851638818</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6400,7 +6418,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111387084</v>
+        <v>111387092</v>
       </c>
       <c r="B50" t="n">
         <v>96348</v>
@@ -6449,10 +6467,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>563156.6005608093</v>
+        <v>563012.8046913089</v>
       </c>
       <c r="R50" t="n">
-        <v>6952979.479832834</v>
+        <v>6953286.613656651</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6521,7 +6539,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111387090</v>
+        <v>111387081</v>
       </c>
       <c r="B51" t="n">
         <v>96348</v>
@@ -6556,7 +6574,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -6570,10 +6588,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>563095.5280093225</v>
+        <v>563042.2621750269</v>
       </c>
       <c r="R51" t="n">
-        <v>6953047.635786653</v>
+        <v>6952996.115978647</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6642,10 +6660,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111387066</v>
+        <v>111387077</v>
       </c>
       <c r="B52" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6654,38 +6672,47 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>562599.4090375302</v>
+        <v>562995.0074451283</v>
       </c>
       <c r="R52" t="n">
-        <v>6953389.374023037</v>
+        <v>6953183.441336502</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6754,10 +6781,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111387077</v>
+        <v>111387063</v>
       </c>
       <c r="B53" t="n">
-        <v>96348</v>
+        <v>78604</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6766,47 +6793,38 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>220787</v>
+        <v>6461</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Torss.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>562995.0074451283</v>
+        <v>563098.4786473656</v>
       </c>
       <c r="R53" t="n">
-        <v>6953183.441336502</v>
+        <v>6953037.592026276</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6875,10 +6893,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111387094</v>
+        <v>111387102</v>
       </c>
       <c r="B54" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6887,47 +6905,38 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>562796.6157216484</v>
+        <v>562910.6623015397</v>
       </c>
       <c r="R54" t="n">
-        <v>6953293.048769277</v>
+        <v>6953291.090640862</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6996,10 +7005,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111387099</v>
+        <v>111387071</v>
       </c>
       <c r="B55" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7008,47 +7017,38 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>563062.0245114181</v>
+        <v>563037.3396484138</v>
       </c>
       <c r="R55" t="n">
-        <v>6952996.493746921</v>
+        <v>6953301.77258506</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7117,10 +7117,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111387091</v>
+        <v>111387100</v>
       </c>
       <c r="B56" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7129,47 +7129,38 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>563105.361322377</v>
+        <v>563171.2924523354</v>
       </c>
       <c r="R56" t="n">
-        <v>6953302.614342762</v>
+        <v>6953004.552986205</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7238,7 +7229,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111387092</v>
+        <v>111387094</v>
       </c>
       <c r="B57" t="n">
         <v>96348</v>
@@ -7273,7 +7264,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -7287,10 +7278,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>563012.8046913089</v>
+        <v>562796.6157216484</v>
       </c>
       <c r="R57" t="n">
-        <v>6953286.613656651</v>
+        <v>6953293.048769277</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7359,7 +7350,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111387073</v>
+        <v>111387088</v>
       </c>
       <c r="B58" t="n">
         <v>96348</v>
@@ -7408,10 +7399,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>562853.2791694358</v>
+        <v>563134.0570246503</v>
       </c>
       <c r="R58" t="n">
-        <v>6953238.580949852</v>
+        <v>6953004.299178701</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7480,10 +7471,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111387104</v>
+        <v>111387086</v>
       </c>
       <c r="B59" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7492,38 +7483,47 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>563012.8046913089</v>
+        <v>563173.1483843722</v>
       </c>
       <c r="R59" t="n">
-        <v>6953286.613656651</v>
+        <v>6953003.67031906</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7592,10 +7592,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111505043</v>
+        <v>111505021</v>
       </c>
       <c r="B60" t="n">
-        <v>96348</v>
+        <v>78512</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7604,50 +7604,41 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>220787</v>
+        <v>6456</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(Dicks.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>562795.9247683069</v>
+        <v>563127.0267518542</v>
       </c>
       <c r="R60" t="n">
-        <v>6953570.757486098</v>
+        <v>6953803.830203088</v>
       </c>
       <c r="S60" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7713,7 +7704,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111505042</v>
+        <v>111505038</v>
       </c>
       <c r="B61" t="n">
         <v>96348</v>
@@ -7748,7 +7739,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -7762,13 +7753,13 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>562819.5119181958</v>
+        <v>562908.6398715272</v>
       </c>
       <c r="R61" t="n">
-        <v>6953707.993414508</v>
+        <v>6953686.283111459</v>
       </c>
       <c r="S61" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7834,10 +7825,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111505052</v>
+        <v>111506360</v>
       </c>
       <c r="B62" t="n">
-        <v>93881</v>
+        <v>96348</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7846,41 +7837,51 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2869</v>
+        <v>220787</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Girg.</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>563021.385735066</v>
+        <v>562795.9247683069</v>
       </c>
       <c r="R62" t="n">
-        <v>6953703.583207678</v>
+        <v>6953570.757486098</v>
       </c>
       <c r="S62" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -7946,10 +7947,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111505030</v>
+        <v>111505023</v>
       </c>
       <c r="B63" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7958,69 +7959,60 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>563188.2250752542</v>
+        <v>562450.0507050141</v>
       </c>
       <c r="R63" t="n">
-        <v>6953800.412410886</v>
+        <v>6953411.330941907</v>
       </c>
       <c r="S63" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
@@ -8067,10 +8059,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111506378</v>
+        <v>111506366</v>
       </c>
       <c r="B64" t="n">
-        <v>96381</v>
+        <v>96368</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8083,16 +8075,16 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>219874</v>
+        <v>221952</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -8180,10 +8172,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111505032</v>
+        <v>111505024</v>
       </c>
       <c r="B65" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8192,69 +8184,60 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>563277.1457894059</v>
+        <v>562988.0254043636</v>
       </c>
       <c r="R65" t="n">
-        <v>6953717.6612378</v>
+        <v>6953909.951939938</v>
       </c>
       <c r="S65" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
@@ -8301,7 +8284,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111505034</v>
+        <v>111505030</v>
       </c>
       <c r="B66" t="n">
         <v>96348</v>
@@ -8336,7 +8319,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -8346,36 +8329,36 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>563233.4131933488</v>
+        <v>563188.2250752542</v>
       </c>
       <c r="R66" t="n">
-        <v>6953697.084956069</v>
+        <v>6953800.412410886</v>
       </c>
       <c r="S66" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -8422,10 +8405,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111505044</v>
+        <v>111505034</v>
       </c>
       <c r="B67" t="n">
-        <v>90151</v>
+        <v>96348</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8434,35 +8417,35 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>366</v>
+        <v>220787</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -8471,13 +8454,13 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>563300.3140053455</v>
+        <v>563233.4131933488</v>
       </c>
       <c r="R67" t="n">
-        <v>6953708.007710025</v>
+        <v>6953697.084956069</v>
       </c>
       <c r="S67" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -8543,7 +8526,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111506427</v>
+        <v>111505035</v>
       </c>
       <c r="B68" t="n">
         <v>96348</v>
@@ -8578,7 +8561,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -8586,20 +8569,19 @@
           <t>stjälkar/strån/skott</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
           <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>563300.3140053455</v>
+        <v>563176.4801691328</v>
       </c>
       <c r="R68" t="n">
-        <v>6953708.007710025</v>
+        <v>6953693.698667094</v>
       </c>
       <c r="S68" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -8623,7 +8605,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -8633,7 +8615,7 @@
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
@@ -8665,10 +8647,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111506366</v>
+        <v>111506378</v>
       </c>
       <c r="B69" t="n">
-        <v>96368</v>
+        <v>96381</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8681,16 +8663,16 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>221952</v>
+        <v>219874</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -8778,10 +8760,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111505050</v>
+        <v>111505017</v>
       </c>
       <c r="B70" t="n">
-        <v>78611</v>
+        <v>78605</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8794,21 +8776,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6463</v>
+        <v>6462</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8818,13 +8800,13 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>563111.0943530079</v>
+        <v>563110.157834232</v>
       </c>
       <c r="R70" t="n">
-        <v>6953795.722308087</v>
+        <v>6953796.622375475</v>
       </c>
       <c r="S70" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -8890,7 +8872,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111505037</v>
+        <v>111505032</v>
       </c>
       <c r="B71" t="n">
         <v>96348</v>
@@ -8925,7 +8907,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -8935,36 +8917,36 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>562940.6554937188</v>
+        <v>563277.1457894059</v>
       </c>
       <c r="R71" t="n">
-        <v>6953694.697192283</v>
+        <v>6953717.6612378</v>
       </c>
       <c r="S71" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
@@ -9011,7 +8993,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111505038</v>
+        <v>111505042</v>
       </c>
       <c r="B72" t="n">
         <v>96348</v>
@@ -9046,7 +9028,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -9060,13 +9042,13 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>562908.6398715272</v>
+        <v>562819.5119181958</v>
       </c>
       <c r="R72" t="n">
-        <v>6953686.283111459</v>
+        <v>6953707.993414508</v>
       </c>
       <c r="S72" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -9132,10 +9114,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111505033</v>
+        <v>111505049</v>
       </c>
       <c r="B73" t="n">
-        <v>96348</v>
+        <v>78611</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9144,69 +9126,60 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>220787</v>
+        <v>6463</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>563271.4189427574</v>
+        <v>563141.3320316244</v>
       </c>
       <c r="R73" t="n">
-        <v>6953704.69911015</v>
+        <v>6953800.891131622</v>
       </c>
       <c r="S73" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
@@ -9253,10 +9226,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111505017</v>
+        <v>111505052</v>
       </c>
       <c r="B74" t="n">
-        <v>78605</v>
+        <v>93881</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9269,21 +9242,21 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6462</v>
+        <v>2869</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -9293,13 +9266,13 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>563110.157834232</v>
+        <v>563021.385735066</v>
       </c>
       <c r="R74" t="n">
-        <v>6953796.622375475</v>
+        <v>6953703.583207678</v>
       </c>
       <c r="S74" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
@@ -9323,7 +9296,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
@@ -9333,7 +9306,7 @@
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
@@ -9365,7 +9338,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111505035</v>
+        <v>111505031</v>
       </c>
       <c r="B75" t="n">
         <v>96348</v>
@@ -9400,7 +9373,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -9410,36 +9383,36 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>563176.4801691328</v>
+        <v>563201.2223511444</v>
       </c>
       <c r="R75" t="n">
-        <v>6953693.698667094</v>
+        <v>6953793.776556972</v>
       </c>
       <c r="S75" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W75" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
@@ -9486,7 +9459,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111505029</v>
+        <v>111505027</v>
       </c>
       <c r="B76" t="n">
         <v>78578</v>
@@ -9522,36 +9495,36 @@
       <c r="I76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>562582.6789697963</v>
+        <v>563139.9711714545</v>
       </c>
       <c r="R76" t="n">
-        <v>6953447.35522902</v>
+        <v>6953799.947082677</v>
       </c>
       <c r="S76" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
@@ -9598,10 +9571,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111505026</v>
+        <v>111506427</v>
       </c>
       <c r="B77" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9610,65 +9583,75 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>563112.0133087402</v>
+        <v>563300.3140053455</v>
       </c>
       <c r="R77" t="n">
-        <v>6953795.739896396</v>
+        <v>6953708.007710025</v>
       </c>
       <c r="S77" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
@@ -9678,7 +9661,7 @@
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="AB77" t="inlineStr">
@@ -9710,10 +9693,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111505021</v>
+        <v>111505044</v>
       </c>
       <c r="B78" t="n">
-        <v>78512</v>
+        <v>90151</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9722,60 +9705,69 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6456</v>
+        <v>366</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr"/>
+          <t>(Pers.) Jülich</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>563127.0267518542</v>
+        <v>563300.3140053455</v>
       </c>
       <c r="R78" t="n">
-        <v>6953803.830203088</v>
+        <v>6953708.007710025</v>
       </c>
       <c r="S78" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W78" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
@@ -9822,10 +9814,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111505049</v>
+        <v>111505028</v>
       </c>
       <c r="B79" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9834,25 +9826,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9862,13 +9854,13 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>563141.3320316244</v>
+        <v>562994.4598576587</v>
       </c>
       <c r="R79" t="n">
-        <v>6953800.891131622</v>
+        <v>6953693.429543378</v>
       </c>
       <c r="S79" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -9934,10 +9926,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111505024</v>
+        <v>111505033</v>
       </c>
       <c r="B80" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9946,60 +9938,69 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>562988.0254043636</v>
+        <v>563271.4189427574</v>
       </c>
       <c r="R80" t="n">
-        <v>6953909.951939938</v>
+        <v>6953704.69911015</v>
       </c>
       <c r="S80" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W80" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
@@ -10046,7 +10047,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111505036</v>
+        <v>111505041</v>
       </c>
       <c r="B81" t="n">
         <v>96348</v>
@@ -10081,7 +10082,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -10091,36 +10092,36 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>563156.3591810546</v>
+        <v>562832.325177824</v>
       </c>
       <c r="R81" t="n">
-        <v>6953688.264125231</v>
+        <v>6953710.991571963</v>
       </c>
       <c r="S81" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W81" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
@@ -10167,10 +10168,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111505028</v>
+        <v>111505037</v>
       </c>
       <c r="B82" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10179,41 +10180,50 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P82" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>562994.4598576587</v>
+        <v>562940.6554937188</v>
       </c>
       <c r="R82" t="n">
-        <v>6953693.429543378</v>
+        <v>6953694.697192283</v>
       </c>
       <c r="S82" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
@@ -10279,10 +10289,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111505040</v>
+        <v>111505050</v>
       </c>
       <c r="B83" t="n">
-        <v>96348</v>
+        <v>78611</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -10291,50 +10301,41 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>220787</v>
+        <v>6463</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>562838.4296954731</v>
+        <v>563111.0943530079</v>
       </c>
       <c r="R83" t="n">
-        <v>6953704.222797605</v>
+        <v>6953795.722308087</v>
       </c>
       <c r="S83" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
@@ -10400,7 +10401,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111505027</v>
+        <v>111505025</v>
       </c>
       <c r="B84" t="n">
         <v>78578</v>
@@ -10440,13 +10441,13 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>563139.9711714545</v>
+        <v>563048.1020123652</v>
       </c>
       <c r="R84" t="n">
-        <v>6953799.947082677</v>
+        <v>6953796.81225728</v>
       </c>
       <c r="S84" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
@@ -10512,10 +10513,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111505041</v>
+        <v>111505029</v>
       </c>
       <c r="B85" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10524,69 +10525,60 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>562832.325177824</v>
+        <v>562582.6789697963</v>
       </c>
       <c r="R85" t="n">
-        <v>6953710.991571963</v>
+        <v>6953447.35522902</v>
       </c>
       <c r="S85" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
@@ -10633,7 +10625,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111505031</v>
+        <v>111505040</v>
       </c>
       <c r="B86" t="n">
         <v>96348</v>
@@ -10668,7 +10660,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -10682,13 +10674,13 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>563201.2223511444</v>
+        <v>562838.4296954731</v>
       </c>
       <c r="R86" t="n">
-        <v>6953793.776556972</v>
+        <v>6953704.222797605</v>
       </c>
       <c r="S86" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
@@ -10754,10 +10746,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111505025</v>
+        <v>111505036</v>
       </c>
       <c r="B87" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10766,60 +10758,69 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>563048.1020123652</v>
+        <v>563156.3591810546</v>
       </c>
       <c r="R87" t="n">
-        <v>6953796.81225728</v>
+        <v>6953688.264125231</v>
       </c>
       <c r="S87" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
@@ -10866,7 +10867,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111505023</v>
+        <v>111505026</v>
       </c>
       <c r="B88" t="n">
         <v>78578</v>
@@ -10902,36 +10903,36 @@
       <c r="I88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>562450.0507050141</v>
+        <v>563112.0133087402</v>
       </c>
       <c r="R88" t="n">
-        <v>6953411.330941907</v>
+        <v>6953795.739896396</v>
       </c>
       <c r="S88" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W88" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
@@ -10978,7 +10979,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111578830</v>
+        <v>111578520</v>
       </c>
       <c r="B89" t="n">
         <v>78578</v>
@@ -11015,36 +11016,36 @@
       <c r="K89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>562740.2630645358</v>
+        <v>562600.317282272</v>
       </c>
       <c r="R89" t="n">
-        <v>6953572.911213852</v>
+        <v>6953414.179823531</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W89" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
@@ -11054,7 +11055,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -11064,7 +11065,7 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -11091,10 +11092,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111578715</v>
+        <v>111578990</v>
       </c>
       <c r="B90" t="n">
-        <v>103288</v>
+        <v>78578</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -11103,25 +11104,25 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>221144</v>
+        <v>6458</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -11132,10 +11133,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>562725.5046364743</v>
+        <v>562812.7329947776</v>
       </c>
       <c r="R90" t="n">
-        <v>6953382.129823714</v>
+        <v>6953532.978280453</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -11204,7 +11205,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111578960</v>
+        <v>111578865</v>
       </c>
       <c r="B91" t="n">
         <v>78578</v>
@@ -11241,36 +11242,36 @@
       <c r="K91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>562799.5258076072</v>
+        <v>562788.3053195324</v>
       </c>
       <c r="R91" t="n">
-        <v>6953550.628890147</v>
+        <v>6953560.513836247</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W91" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
@@ -11317,7 +11318,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111579233</v>
+        <v>111578841</v>
       </c>
       <c r="B92" t="n">
         <v>78578</v>
@@ -11354,36 +11355,36 @@
       <c r="K92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>562810.5604810353</v>
+        <v>562756.4976047705</v>
       </c>
       <c r="R92" t="n">
-        <v>6953622.9056556</v>
+        <v>6953541.088242936</v>
       </c>
       <c r="S92" t="n">
         <v>25</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
@@ -11393,7 +11394,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -11403,7 +11404,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -11430,10 +11431,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111579081</v>
+        <v>111578950</v>
       </c>
       <c r="B93" t="n">
-        <v>96348</v>
+        <v>96265</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11442,61 +11443,61 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>220787</v>
+        <v>219790</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>562801.7112454879</v>
+        <v>562799.5258076072</v>
       </c>
       <c r="R93" t="n">
-        <v>6953604.835366915</v>
+        <v>6953550.628890147</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
@@ -11506,7 +11507,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -11516,7 +11517,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -11543,10 +11544,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111579490</v>
+        <v>111579236</v>
       </c>
       <c r="B94" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11555,25 +11556,25 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11584,13 +11585,13 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>562858.9067506329</v>
+        <v>562801.7112454879</v>
       </c>
       <c r="R94" t="n">
-        <v>6953811.559968874</v>
+        <v>6953604.835366915</v>
       </c>
       <c r="S94" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T94" t="inlineStr">
         <is>
@@ -11619,7 +11620,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:46</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -11629,7 +11630,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:46</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -11656,7 +11657,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111578792</v>
+        <v>111578830</v>
       </c>
       <c r="B95" t="n">
         <v>78578</v>
@@ -11693,36 +11694,36 @@
       <c r="K95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>562747.4557671447</v>
+        <v>562740.2630645358</v>
       </c>
       <c r="R95" t="n">
-        <v>6953533.112687511</v>
+        <v>6953572.911213852</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W95" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr">
@@ -11769,10 +11770,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111578582</v>
+        <v>111579646</v>
       </c>
       <c r="B96" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11781,61 +11782,61 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>562676.9542402821</v>
+        <v>562757.9369339028</v>
       </c>
       <c r="R96" t="n">
-        <v>6953421.143956529</v>
+        <v>6953731.148202746</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W96" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
@@ -11845,7 +11846,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -11855,7 +11856,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11882,10 +11883,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111579646</v>
+        <v>111578582</v>
       </c>
       <c r="B97" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11894,61 +11895,61 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>562757.9369339028</v>
+        <v>562676.9542402821</v>
       </c>
       <c r="R97" t="n">
-        <v>6953731.148202746</v>
+        <v>6953421.143956529</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
@@ -11958,7 +11959,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11968,7 +11969,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11995,10 +11996,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111578662</v>
+        <v>111578715</v>
       </c>
       <c r="B98" t="n">
-        <v>78578</v>
+        <v>103288</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -12007,25 +12008,25 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6458</v>
+        <v>221144</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -12036,10 +12037,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>562713.478186005</v>
+        <v>562725.5046364743</v>
       </c>
       <c r="R98" t="n">
-        <v>6953386.03256534</v>
+        <v>6953382.129823714</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -12071,7 +12072,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -12081,7 +12082,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -12221,7 +12222,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111578520</v>
+        <v>111578662</v>
       </c>
       <c r="B100" t="n">
         <v>78578</v>
@@ -12262,10 +12263,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>562600.317282272</v>
+        <v>562713.478186005</v>
       </c>
       <c r="R100" t="n">
-        <v>6953414.179823531</v>
+        <v>6953386.03256534</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
@@ -12334,7 +12335,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111578865</v>
+        <v>111579490</v>
       </c>
       <c r="B101" t="n">
         <v>78578</v>
@@ -12375,13 +12376,13 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>562788.3053195324</v>
+        <v>562858.9067506329</v>
       </c>
       <c r="R101" t="n">
-        <v>6953560.513836247</v>
+        <v>6953811.559968874</v>
       </c>
       <c r="S101" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
@@ -12410,7 +12411,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -12420,7 +12421,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12447,7 +12448,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111578841</v>
+        <v>111578792</v>
       </c>
       <c r="B102" t="n">
         <v>78578</v>
@@ -12488,10 +12489,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>562756.4976047705</v>
+        <v>562747.4557671447</v>
       </c>
       <c r="R102" t="n">
-        <v>6953541.088242936</v>
+        <v>6953533.112687511</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -12673,7 +12674,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111578990</v>
+        <v>111579233</v>
       </c>
       <c r="B104" t="n">
         <v>78578</v>
@@ -12710,36 +12711,36 @@
       <c r="K104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>562812.7329947776</v>
+        <v>562810.5604810353</v>
       </c>
       <c r="R104" t="n">
-        <v>6953532.978280453</v>
+        <v>6953622.9056556</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
       </c>
       <c r="T104" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y104" t="inlineStr">
@@ -12749,7 +12750,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -12759,7 +12760,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12899,10 +12900,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111578950</v>
+        <v>111578960</v>
       </c>
       <c r="B106" t="n">
-        <v>96265</v>
+        <v>78578</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12911,25 +12912,25 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>219790</v>
+        <v>6458</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>

--- a/artfynd/A 46329-2022.xlsx
+++ b/artfynd/A 46329-2022.xlsx
@@ -3232,10 +3232,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111387066</v>
+        <v>111387080</v>
       </c>
       <c r="B23" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3244,38 +3244,47 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>562599.4090375302</v>
+        <v>562999.3263167407</v>
       </c>
       <c r="R23" t="n">
-        <v>6953389.374023037</v>
+        <v>6953053.60161553</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3344,10 +3353,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111387099</v>
+        <v>111387104</v>
       </c>
       <c r="B24" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3356,47 +3365,38 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>563062.0245114181</v>
+        <v>563012.8046913089</v>
       </c>
       <c r="R24" t="n">
-        <v>6952996.493746921</v>
+        <v>6953286.613656651</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3586,7 +3586,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111387084</v>
+        <v>111387092</v>
       </c>
       <c r="B26" t="n">
         <v>96348</v>
@@ -3635,10 +3635,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>563156.6005608093</v>
+        <v>563012.8046913089</v>
       </c>
       <c r="R26" t="n">
-        <v>6952979.479832834</v>
+        <v>6953286.613656651</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3707,10 +3707,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111387101</v>
+        <v>111387075</v>
       </c>
       <c r="B27" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3719,38 +3719,47 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>563012.8046913089</v>
+        <v>562870.5364005073</v>
       </c>
       <c r="R27" t="n">
-        <v>6953286.613656651</v>
+        <v>6953225.596763036</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3819,10 +3828,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111387069</v>
+        <v>111387085</v>
       </c>
       <c r="B28" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3831,38 +3840,47 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>562999.5216912739</v>
+        <v>563184.371910503</v>
       </c>
       <c r="R28" t="n">
-        <v>6953115.583010472</v>
+        <v>6952993.784944776</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3931,7 +3949,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111387078</v>
+        <v>111387086</v>
       </c>
       <c r="B29" t="n">
         <v>96348</v>
@@ -3966,7 +3984,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3980,10 +3998,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>562997.5732215638</v>
+        <v>563173.1483843722</v>
       </c>
       <c r="R29" t="n">
-        <v>6953145.386477226</v>
+        <v>6953003.67031906</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4164,7 +4182,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111387076</v>
+        <v>111387081</v>
       </c>
       <c r="B31" t="n">
         <v>96348</v>
@@ -4199,7 +4217,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -4213,10 +4231,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>562883.5177444151</v>
+        <v>563042.2621750269</v>
       </c>
       <c r="R31" t="n">
-        <v>6953219.876280347</v>
+        <v>6952996.115978647</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4285,7 +4303,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111387079</v>
+        <v>111387082</v>
       </c>
       <c r="B32" t="n">
         <v>96348</v>
@@ -4320,7 +4338,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -4334,10 +4352,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>562998.218090906</v>
+        <v>563081.3711416697</v>
       </c>
       <c r="R32" t="n">
-        <v>6953087.553533346</v>
+        <v>6952994.56815038</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4406,7 +4424,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111387091</v>
+        <v>111387094</v>
       </c>
       <c r="B33" t="n">
         <v>96348</v>
@@ -4441,7 +4459,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4455,10 +4473,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>563105.361322377</v>
+        <v>562796.6157216484</v>
       </c>
       <c r="R33" t="n">
-        <v>6953302.614342762</v>
+        <v>6953293.048769277</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4527,10 +4545,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111387082</v>
+        <v>111387071</v>
       </c>
       <c r="B34" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4539,47 +4557,38 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>563081.3711416697</v>
+        <v>563037.3396484138</v>
       </c>
       <c r="R34" t="n">
-        <v>6952994.56815038</v>
+        <v>6953301.77258506</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4648,10 +4657,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111387093</v>
+        <v>111387063</v>
       </c>
       <c r="B35" t="n">
-        <v>96348</v>
+        <v>78604</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4660,47 +4669,38 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>220787</v>
+        <v>6461</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Torss.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>562907.4367122703</v>
+        <v>563098.4786473656</v>
       </c>
       <c r="R35" t="n">
-        <v>6953291.488179443</v>
+        <v>6953037.592026276</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4769,7 +4769,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111387075</v>
+        <v>111387078</v>
       </c>
       <c r="B36" t="n">
         <v>96348</v>
@@ -4818,10 +4818,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>562870.5364005073</v>
+        <v>562997.5732215638</v>
       </c>
       <c r="R36" t="n">
-        <v>6953225.596763036</v>
+        <v>6953145.386477226</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4890,10 +4890,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111387070</v>
+        <v>111387073</v>
       </c>
       <c r="B37" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4902,38 +4902,47 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>563066.3086353226</v>
+        <v>562853.2791694358</v>
       </c>
       <c r="R37" t="n">
-        <v>6953301.408277751</v>
+        <v>6953238.580949852</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5002,10 +5011,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111387067</v>
+        <v>111387096</v>
       </c>
       <c r="B38" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5014,38 +5023,47 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>562956.5571138755</v>
+        <v>562776.3432141852</v>
       </c>
       <c r="R38" t="n">
-        <v>6953198.774932881</v>
+        <v>6953295.417218027</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5114,10 +5132,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111387104</v>
+        <v>111387070</v>
       </c>
       <c r="B39" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5130,21 +5148,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5154,10 +5172,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>563012.8046913089</v>
+        <v>563066.3086353226</v>
       </c>
       <c r="R39" t="n">
-        <v>6953286.613656651</v>
+        <v>6953301.408277751</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5226,7 +5244,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111387090</v>
+        <v>111387087</v>
       </c>
       <c r="B40" t="n">
         <v>96348</v>
@@ -5261,7 +5279,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -5275,10 +5293,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>563095.5280093225</v>
+        <v>563169.8697415534</v>
       </c>
       <c r="R40" t="n">
-        <v>6953047.635786653</v>
+        <v>6953006.821267974</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5347,10 +5365,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111387073</v>
+        <v>111387067</v>
       </c>
       <c r="B41" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5359,47 +5377,38 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>562853.2791694358</v>
+        <v>562956.5571138755</v>
       </c>
       <c r="R41" t="n">
-        <v>6953238.580949852</v>
+        <v>6953198.774932881</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5468,10 +5477,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111387096</v>
+        <v>111387102</v>
       </c>
       <c r="B42" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5480,47 +5489,38 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>562776.3432141852</v>
+        <v>562910.6623015397</v>
       </c>
       <c r="R42" t="n">
-        <v>6953295.417218027</v>
+        <v>6953291.090640862</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5589,7 +5589,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111387097</v>
+        <v>111387079</v>
       </c>
       <c r="B43" t="n">
         <v>96348</v>
@@ -5638,10 +5638,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>562755.5413371911</v>
+        <v>562998.218090906</v>
       </c>
       <c r="R43" t="n">
-        <v>6953301.448215675</v>
+        <v>6953087.553533346</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5710,10 +5710,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111387087</v>
+        <v>111387054</v>
       </c>
       <c r="B44" t="n">
-        <v>96348</v>
+        <v>90332</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5722,47 +5722,38 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>563169.8697415534</v>
+        <v>562699.6339177528</v>
       </c>
       <c r="R44" t="n">
-        <v>6953006.821267974</v>
+        <v>6953364.652957034</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5831,10 +5822,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111387085</v>
+        <v>111387069</v>
       </c>
       <c r="B45" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5843,47 +5834,38 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>563184.371910503</v>
+        <v>562999.5216912739</v>
       </c>
       <c r="R45" t="n">
-        <v>6952993.784944776</v>
+        <v>6953115.583010472</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5952,10 +5934,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111387089</v>
+        <v>111387100</v>
       </c>
       <c r="B46" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5964,47 +5946,38 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>563098.5752202668</v>
+        <v>563171.2924523354</v>
       </c>
       <c r="R46" t="n">
-        <v>6953032.543759782</v>
+        <v>6953004.552986205</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6073,7 +6046,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111387080</v>
+        <v>111387090</v>
       </c>
       <c r="B47" t="n">
         <v>96348</v>
@@ -6108,7 +6081,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -6122,10 +6095,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>562999.3263167407</v>
+        <v>563095.5280093225</v>
       </c>
       <c r="R47" t="n">
-        <v>6953053.60161553</v>
+        <v>6953047.635786653</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6194,10 +6167,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111387054</v>
+        <v>111387098</v>
       </c>
       <c r="B48" t="n">
-        <v>90332</v>
+        <v>96348</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6206,38 +6179,47 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>562699.6339177528</v>
+        <v>562755.5413371911</v>
       </c>
       <c r="R48" t="n">
-        <v>6953364.652957034</v>
+        <v>6953301.448215675</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6306,10 +6288,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111387105</v>
+        <v>111387076</v>
       </c>
       <c r="B49" t="n">
-        <v>93881</v>
+        <v>96348</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6318,38 +6300,47 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2869</v>
+        <v>220787</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Girg.</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>563041.4755681724</v>
+        <v>562883.5177444151</v>
       </c>
       <c r="R49" t="n">
-        <v>6953301.851638818</v>
+        <v>6953219.876280347</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6418,7 +6409,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111387092</v>
+        <v>111387099</v>
       </c>
       <c r="B50" t="n">
         <v>96348</v>
@@ -6467,10 +6458,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>563012.8046913089</v>
+        <v>563062.0245114181</v>
       </c>
       <c r="R50" t="n">
-        <v>6953286.613656651</v>
+        <v>6952996.493746921</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6539,7 +6530,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111387081</v>
+        <v>111387089</v>
       </c>
       <c r="B51" t="n">
         <v>96348</v>
@@ -6588,10 +6579,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>563042.2621750269</v>
+        <v>563098.5752202668</v>
       </c>
       <c r="R51" t="n">
-        <v>6952996.115978647</v>
+        <v>6953032.543759782</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6660,10 +6651,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111387077</v>
+        <v>111387101</v>
       </c>
       <c r="B52" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6672,47 +6663,38 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>562995.0074451283</v>
+        <v>563012.8046913089</v>
       </c>
       <c r="R52" t="n">
-        <v>6953183.441336502</v>
+        <v>6953286.613656651</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6781,10 +6763,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111387063</v>
+        <v>111387091</v>
       </c>
       <c r="B53" t="n">
-        <v>78604</v>
+        <v>96348</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6793,38 +6775,47 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6461</v>
+        <v>220787</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>563098.4786473656</v>
+        <v>563105.361322377</v>
       </c>
       <c r="R53" t="n">
-        <v>6953037.592026276</v>
+        <v>6953302.614342762</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6893,10 +6884,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111387102</v>
+        <v>111387105</v>
       </c>
       <c r="B54" t="n">
-        <v>103288</v>
+        <v>93881</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6909,21 +6900,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>221144</v>
+        <v>2869</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6933,10 +6924,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>562910.6623015397</v>
+        <v>563041.4755681724</v>
       </c>
       <c r="R54" t="n">
-        <v>6953291.090640862</v>
+        <v>6953301.851638818</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -7005,10 +6996,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111387071</v>
+        <v>111387093</v>
       </c>
       <c r="B55" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7017,38 +7008,47 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>563037.3396484138</v>
+        <v>562907.4367122703</v>
       </c>
       <c r="R55" t="n">
-        <v>6953301.77258506</v>
+        <v>6953291.488179443</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7117,10 +7117,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111387100</v>
+        <v>111387088</v>
       </c>
       <c r="B56" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7129,38 +7129,47 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>563171.2924523354</v>
+        <v>563134.0570246503</v>
       </c>
       <c r="R56" t="n">
-        <v>6953004.552986205</v>
+        <v>6953004.299178701</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7229,7 +7238,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111387094</v>
+        <v>111387077</v>
       </c>
       <c r="B57" t="n">
         <v>96348</v>
@@ -7264,7 +7273,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>65</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -7278,10 +7287,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>562796.6157216484</v>
+        <v>562995.0074451283</v>
       </c>
       <c r="R57" t="n">
-        <v>6953293.048769277</v>
+        <v>6953183.441336502</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7350,10 +7359,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111387088</v>
+        <v>111387066</v>
       </c>
       <c r="B58" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7362,47 +7371,38 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>..., Mpd</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>563134.0570246503</v>
+        <v>562599.4090375302</v>
       </c>
       <c r="R58" t="n">
-        <v>6953004.299178701</v>
+        <v>6953389.374023037</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7471,7 +7471,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111387086</v>
+        <v>111387084</v>
       </c>
       <c r="B59" t="n">
         <v>96348</v>
@@ -7506,7 +7506,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -7520,10 +7520,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>563173.1483843722</v>
+        <v>563156.6005608093</v>
       </c>
       <c r="R59" t="n">
-        <v>6953003.67031906</v>
+        <v>6952979.479832834</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7592,10 +7592,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111505021</v>
+        <v>111505025</v>
       </c>
       <c r="B60" t="n">
-        <v>78512</v>
+        <v>78578</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7604,25 +7604,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7632,13 +7632,13 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>563127.0267518542</v>
+        <v>563048.1020123652</v>
       </c>
       <c r="R60" t="n">
-        <v>6953803.830203088</v>
+        <v>6953796.81225728</v>
       </c>
       <c r="S60" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7704,10 +7704,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111505038</v>
+        <v>111505028</v>
       </c>
       <c r="B61" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7716,50 +7716,41 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>562908.6398715272</v>
+        <v>562994.4598576587</v>
       </c>
       <c r="R61" t="n">
-        <v>6953686.283111459</v>
+        <v>6953693.429543378</v>
       </c>
       <c r="S61" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7825,7 +7816,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111506360</v>
+        <v>111505040</v>
       </c>
       <c r="B62" t="n">
         <v>96348</v>
@@ -7860,7 +7851,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -7868,20 +7859,19 @@
           <t>stjälkar/strån/skott</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>562795.9247683069</v>
+        <v>562838.4296954731</v>
       </c>
       <c r="R62" t="n">
-        <v>6953570.757486098</v>
+        <v>6953704.222797605</v>
       </c>
       <c r="S62" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -7905,7 +7895,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
@@ -7915,7 +7905,7 @@
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
@@ -7947,10 +7937,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111505023</v>
+        <v>111505031</v>
       </c>
       <c r="B63" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7959,60 +7949,69 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>562450.0507050141</v>
+        <v>563201.2223511444</v>
       </c>
       <c r="R63" t="n">
-        <v>6953411.330941907</v>
+        <v>6953793.776556972</v>
       </c>
       <c r="S63" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
@@ -8059,10 +8058,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111506366</v>
+        <v>111505017</v>
       </c>
       <c r="B64" t="n">
-        <v>96368</v>
+        <v>78605</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8075,38 +8074,37 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>221952</v>
+        <v>6462</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>562795.9247683069</v>
+        <v>563110.157834232</v>
       </c>
       <c r="R64" t="n">
-        <v>6953570.757486098</v>
+        <v>6953796.622375475</v>
       </c>
       <c r="S64" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -8130,7 +8128,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
@@ -8140,7 +8138,7 @@
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
@@ -8172,10 +8170,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111505024</v>
+        <v>111505042</v>
       </c>
       <c r="B65" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8184,41 +8182,50 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>562988.0254043636</v>
+        <v>562819.5119181958</v>
       </c>
       <c r="R65" t="n">
-        <v>6953909.951939938</v>
+        <v>6953707.993414508</v>
       </c>
       <c r="S65" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -8284,10 +8291,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111505030</v>
+        <v>111505024</v>
       </c>
       <c r="B66" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8296,50 +8303,41 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>563188.2250752542</v>
+        <v>562988.0254043636</v>
       </c>
       <c r="R66" t="n">
-        <v>6953800.412410886</v>
+        <v>6953909.951939938</v>
       </c>
       <c r="S66" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -8405,10 +8403,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111505034</v>
+        <v>111505023</v>
       </c>
       <c r="B67" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8417,50 +8415,41 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
           <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>563233.4131933488</v>
+        <v>562450.0507050141</v>
       </c>
       <c r="R67" t="n">
-        <v>6953697.084956069</v>
+        <v>6953411.330941907</v>
       </c>
       <c r="S67" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -8526,7 +8515,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111505035</v>
+        <v>111505030</v>
       </c>
       <c r="B68" t="n">
         <v>96348</v>
@@ -8561,7 +8550,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -8571,36 +8560,36 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>563176.4801691328</v>
+        <v>563188.2250752542</v>
       </c>
       <c r="R68" t="n">
-        <v>6953693.698667094</v>
+        <v>6953800.412410886</v>
       </c>
       <c r="S68" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
@@ -8647,10 +8636,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111506378</v>
+        <v>111505049</v>
       </c>
       <c r="B69" t="n">
-        <v>96381</v>
+        <v>78611</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8663,38 +8652,37 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>219874</v>
+        <v>6463</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>562795.9247683069</v>
+        <v>563141.3320316244</v>
       </c>
       <c r="R69" t="n">
-        <v>6953570.757486098</v>
+        <v>6953800.891131622</v>
       </c>
       <c r="S69" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -8718,7 +8706,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
@@ -8728,7 +8716,7 @@
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
@@ -8760,10 +8748,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111505017</v>
+        <v>111505035</v>
       </c>
       <c r="B70" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8772,60 +8760,69 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>563110.157834232</v>
+        <v>563176.4801691328</v>
       </c>
       <c r="R70" t="n">
-        <v>6953796.622375475</v>
+        <v>6953693.698667094</v>
       </c>
       <c r="S70" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
@@ -8872,7 +8869,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111505032</v>
+        <v>111505036</v>
       </c>
       <c r="B71" t="n">
         <v>96348</v>
@@ -8921,13 +8918,13 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>563277.1457894059</v>
+        <v>563156.3591810546</v>
       </c>
       <c r="R71" t="n">
-        <v>6953717.6612378</v>
+        <v>6953688.264125231</v>
       </c>
       <c r="S71" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -8993,10 +8990,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111505042</v>
+        <v>111506366</v>
       </c>
       <c r="B72" t="n">
-        <v>96348</v>
+        <v>96368</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -9005,50 +9002,42 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>220787</v>
+        <v>221952</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>562819.5119181958</v>
+        <v>562795.9247683069</v>
       </c>
       <c r="R72" t="n">
-        <v>6953707.993414508</v>
+        <v>6953570.757486098</v>
       </c>
       <c r="S72" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -9072,7 +9061,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
@@ -9082,7 +9071,7 @@
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
@@ -9114,10 +9103,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111505049</v>
+        <v>111505026</v>
       </c>
       <c r="B73" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9126,25 +9115,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -9154,13 +9143,13 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>563141.3320316244</v>
+        <v>563112.0133087402</v>
       </c>
       <c r="R73" t="n">
-        <v>6953800.891131622</v>
+        <v>6953795.739896396</v>
       </c>
       <c r="S73" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
@@ -9226,10 +9215,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111505052</v>
+        <v>111505050</v>
       </c>
       <c r="B74" t="n">
-        <v>93881</v>
+        <v>78611</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9242,21 +9231,21 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2869</v>
+        <v>6463</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -9266,13 +9255,13 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>563021.385735066</v>
+        <v>563111.0943530079</v>
       </c>
       <c r="R74" t="n">
-        <v>6953703.583207678</v>
+        <v>6953795.722308087</v>
       </c>
       <c r="S74" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
@@ -9296,7 +9285,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
@@ -9306,7 +9295,7 @@
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
@@ -9338,10 +9327,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111505031</v>
+        <v>111505052</v>
       </c>
       <c r="B75" t="n">
-        <v>96348</v>
+        <v>93881</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9350,50 +9339,41 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>220787</v>
+        <v>2869</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Girg.</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>563201.2223511444</v>
+        <v>563021.385735066</v>
       </c>
       <c r="R75" t="n">
-        <v>6953793.776556972</v>
+        <v>6953703.583207678</v>
       </c>
       <c r="S75" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -9417,7 +9397,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
@@ -9427,7 +9407,7 @@
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr">
@@ -9459,10 +9439,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111505027</v>
+        <v>111506427</v>
       </c>
       <c r="B76" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9471,65 +9451,75 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>563139.9711714545</v>
+        <v>563300.3140053455</v>
       </c>
       <c r="R76" t="n">
-        <v>6953799.947082677</v>
+        <v>6953708.007710025</v>
       </c>
       <c r="S76" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
@@ -9539,7 +9529,7 @@
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="AB76" t="inlineStr">
@@ -9571,10 +9561,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111506427</v>
+        <v>111506378</v>
       </c>
       <c r="B77" t="n">
-        <v>96348</v>
+        <v>96381</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9583,70 +9573,61 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>220787</v>
+        <v>219874</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>563300.3140053455</v>
+        <v>562795.9247683069</v>
       </c>
       <c r="R77" t="n">
-        <v>6953708.007710025</v>
+        <v>6953570.757486098</v>
       </c>
       <c r="S77" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
@@ -9693,10 +9674,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111505044</v>
+        <v>111505021</v>
       </c>
       <c r="B78" t="n">
-        <v>90151</v>
+        <v>78512</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9705,69 +9686,60 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>366</v>
+        <v>6456</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Dicks.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>563300.3140053455</v>
+        <v>563127.0267518542</v>
       </c>
       <c r="R78" t="n">
-        <v>6953708.007710025</v>
+        <v>6953803.830203088</v>
       </c>
       <c r="S78" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W78" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
@@ -9814,10 +9786,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111505028</v>
+        <v>111505038</v>
       </c>
       <c r="B79" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9826,41 +9798,50 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>562994.4598576587</v>
+        <v>562908.6398715272</v>
       </c>
       <c r="R79" t="n">
-        <v>6953693.429543378</v>
+        <v>6953686.283111459</v>
       </c>
       <c r="S79" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -9926,10 +9907,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111505033</v>
+        <v>111505044</v>
       </c>
       <c r="B80" t="n">
-        <v>96348</v>
+        <v>90151</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9938,35 +9919,35 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>220787</v>
+        <v>366</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -9975,13 +9956,13 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>563271.4189427574</v>
+        <v>563300.3140053455</v>
       </c>
       <c r="R80" t="n">
-        <v>6953704.69911015</v>
+        <v>6953708.007710025</v>
       </c>
       <c r="S80" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
@@ -10168,7 +10149,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111505037</v>
+        <v>111505043</v>
       </c>
       <c r="B82" t="n">
         <v>96348</v>
@@ -10203,7 +10184,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -10217,13 +10198,13 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>562940.6554937188</v>
+        <v>562795.9247683069</v>
       </c>
       <c r="R82" t="n">
-        <v>6953694.697192283</v>
+        <v>6953570.757486098</v>
       </c>
       <c r="S82" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
@@ -10289,10 +10270,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111505050</v>
+        <v>111505027</v>
       </c>
       <c r="B83" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -10301,25 +10282,25 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -10329,13 +10310,13 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>563111.0943530079</v>
+        <v>563139.9711714545</v>
       </c>
       <c r="R83" t="n">
-        <v>6953795.722308087</v>
+        <v>6953799.947082677</v>
       </c>
       <c r="S83" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
@@ -10401,10 +10382,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111505025</v>
+        <v>111505033</v>
       </c>
       <c r="B84" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -10413,60 +10394,69 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>563048.1020123652</v>
+        <v>563271.4189427574</v>
       </c>
       <c r="R84" t="n">
-        <v>6953796.81225728</v>
+        <v>6953704.69911015</v>
       </c>
       <c r="S84" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W84" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
@@ -10513,10 +10503,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111505029</v>
+        <v>111505037</v>
       </c>
       <c r="B85" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10525,60 +10515,69 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>562582.6789697963</v>
+        <v>562940.6554937188</v>
       </c>
       <c r="R85" t="n">
-        <v>6953447.35522902</v>
+        <v>6953694.697192283</v>
       </c>
       <c r="S85" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
@@ -10625,7 +10624,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111505040</v>
+        <v>111505034</v>
       </c>
       <c r="B86" t="n">
         <v>96348</v>
@@ -10660,7 +10659,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -10670,36 +10669,36 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>562838.4296954731</v>
+        <v>563233.4131933488</v>
       </c>
       <c r="R86" t="n">
-        <v>6953704.222797605</v>
+        <v>6953697.084956069</v>
       </c>
       <c r="S86" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W86" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
@@ -10746,7 +10745,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111505036</v>
+        <v>111505032</v>
       </c>
       <c r="B87" t="n">
         <v>96348</v>
@@ -10795,13 +10794,13 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>563156.3591810546</v>
+        <v>563277.1457894059</v>
       </c>
       <c r="R87" t="n">
-        <v>6953688.264125231</v>
+        <v>6953717.6612378</v>
       </c>
       <c r="S87" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
@@ -10867,7 +10866,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111505026</v>
+        <v>111505029</v>
       </c>
       <c r="B88" t="n">
         <v>78578</v>
@@ -10903,36 +10902,36 @@
       <c r="I88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>563112.0133087402</v>
+        <v>562582.6789697963</v>
       </c>
       <c r="R88" t="n">
-        <v>6953795.739896396</v>
+        <v>6953447.35522902</v>
       </c>
       <c r="S88" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W88" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
@@ -10979,7 +10978,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111578520</v>
+        <v>111578830</v>
       </c>
       <c r="B89" t="n">
         <v>78578</v>
@@ -11016,36 +11015,36 @@
       <c r="K89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>562600.317282272</v>
+        <v>562740.2630645358</v>
       </c>
       <c r="R89" t="n">
-        <v>6953414.179823531</v>
+        <v>6953572.911213852</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W89" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
@@ -11055,7 +11054,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -11065,7 +11064,7 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -11092,7 +11091,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111578990</v>
+        <v>111579503</v>
       </c>
       <c r="B90" t="n">
         <v>78578</v>
@@ -11129,36 +11128,36 @@
       <c r="K90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>562812.7329947776</v>
+        <v>562850.2507051354</v>
       </c>
       <c r="R90" t="n">
-        <v>6953532.978280453</v>
+        <v>6953783.396332907</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W90" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
@@ -11168,7 +11167,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
@@ -11178,7 +11177,7 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -11205,10 +11204,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111578865</v>
+        <v>111579213</v>
       </c>
       <c r="B91" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11217,25 +11216,25 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -11246,10 +11245,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>562788.3053195324</v>
+        <v>562801.7112454879</v>
       </c>
       <c r="R91" t="n">
-        <v>6953560.513836247</v>
+        <v>6953604.835366915</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
@@ -11281,7 +11280,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>19:46</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -11291,7 +11290,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>19:46</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -11318,7 +11317,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111578841</v>
+        <v>111579233</v>
       </c>
       <c r="B92" t="n">
         <v>78578</v>
@@ -11355,36 +11354,36 @@
       <c r="K92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>562756.4976047705</v>
+        <v>562810.5604810353</v>
       </c>
       <c r="R92" t="n">
-        <v>6953541.088242936</v>
+        <v>6953622.9056556</v>
       </c>
       <c r="S92" t="n">
         <v>25</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
@@ -11394,7 +11393,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -11404,7 +11403,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -11431,10 +11430,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111578950</v>
+        <v>111578662</v>
       </c>
       <c r="B93" t="n">
-        <v>96265</v>
+        <v>78578</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11443,25 +11442,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>219790</v>
+        <v>6458</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -11472,10 +11471,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>562799.5258076072</v>
+        <v>562713.478186005</v>
       </c>
       <c r="R93" t="n">
-        <v>6953550.628890147</v>
+        <v>6953386.03256534</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -11507,7 +11506,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -11517,7 +11516,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -11544,10 +11543,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111579236</v>
+        <v>111578715</v>
       </c>
       <c r="B94" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11556,61 +11555,61 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>562801.7112454879</v>
+        <v>562725.5046364743</v>
       </c>
       <c r="R94" t="n">
-        <v>6953604.835366915</v>
+        <v>6953382.129823714</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
@@ -11620,7 +11619,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>19:46</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -11630,7 +11629,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>19:46</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -11657,7 +11656,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111578830</v>
+        <v>111578990</v>
       </c>
       <c r="B95" t="n">
         <v>78578</v>
@@ -11694,36 +11693,36 @@
       <c r="K95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>562740.2630645358</v>
+        <v>562812.7329947776</v>
       </c>
       <c r="R95" t="n">
-        <v>6953572.911213852</v>
+        <v>6953532.978280453</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W95" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr">
@@ -11770,10 +11769,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111579646</v>
+        <v>111578582</v>
       </c>
       <c r="B96" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11782,61 +11781,61 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>562757.9369339028</v>
+        <v>562676.9542402821</v>
       </c>
       <c r="R96" t="n">
-        <v>6953731.148202746</v>
+        <v>6953421.143956529</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W96" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
@@ -11846,7 +11845,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -11856,7 +11855,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11883,7 +11882,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111578582</v>
+        <v>111579490</v>
       </c>
       <c r="B97" t="n">
         <v>78578</v>
@@ -11920,36 +11919,36 @@
       <c r="K97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>562676.9542402821</v>
+        <v>562858.9067506329</v>
       </c>
       <c r="R97" t="n">
-        <v>6953421.143956529</v>
+        <v>6953811.559968874</v>
       </c>
       <c r="S97" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
@@ -11959,7 +11958,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11969,7 +11968,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11996,10 +11995,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111578715</v>
+        <v>111578950</v>
       </c>
       <c r="B98" t="n">
-        <v>103288</v>
+        <v>96265</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -12012,21 +12011,21 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>221144</v>
+        <v>219790</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -12037,10 +12036,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>562725.5046364743</v>
+        <v>562799.5258076072</v>
       </c>
       <c r="R98" t="n">
-        <v>6953382.129823714</v>
+        <v>6953550.628890147</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -12109,10 +12108,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111578583</v>
+        <v>111578865</v>
       </c>
       <c r="B99" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -12121,61 +12120,61 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>562676.9542402821</v>
+        <v>562788.3053195324</v>
       </c>
       <c r="R99" t="n">
-        <v>6953421.143956529</v>
+        <v>6953560.513836247</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
       </c>
       <c r="T99" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W99" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr">
@@ -12185,7 +12184,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -12195,7 +12194,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -12222,7 +12221,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111578662</v>
+        <v>111578792</v>
       </c>
       <c r="B100" t="n">
         <v>78578</v>
@@ -12263,10 +12262,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>562713.478186005</v>
+        <v>562747.4557671447</v>
       </c>
       <c r="R100" t="n">
-        <v>6953386.03256534</v>
+        <v>6953533.112687511</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
@@ -12298,7 +12297,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -12308,7 +12307,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -12335,10 +12334,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111579490</v>
+        <v>111579651</v>
       </c>
       <c r="B101" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12347,25 +12346,25 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -12376,13 +12375,13 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>562858.9067506329</v>
+        <v>562757.9369339028</v>
       </c>
       <c r="R101" t="n">
-        <v>6953811.559968874</v>
+        <v>6953731.148202746</v>
       </c>
       <c r="S101" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
@@ -12411,7 +12410,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>20:14</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -12421,7 +12420,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>20:14</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12448,7 +12447,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111578792</v>
+        <v>111578841</v>
       </c>
       <c r="B102" t="n">
         <v>78578</v>
@@ -12489,10 +12488,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>562747.4557671447</v>
+        <v>562756.4976047705</v>
       </c>
       <c r="R102" t="n">
-        <v>6953533.112687511</v>
+        <v>6953541.088242936</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -12561,7 +12560,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111579503</v>
+        <v>111578520</v>
       </c>
       <c r="B103" t="n">
         <v>78578</v>
@@ -12598,36 +12597,36 @@
       <c r="K103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>562850.2507051354</v>
+        <v>562600.317282272</v>
       </c>
       <c r="R103" t="n">
-        <v>6953783.396332907</v>
+        <v>6953414.179823531</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W103" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y103" t="inlineStr">
@@ -12637,7 +12636,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -12647,7 +12646,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12674,7 +12673,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111579233</v>
+        <v>111578960</v>
       </c>
       <c r="B104" t="n">
         <v>78578</v>
@@ -12711,36 +12710,36 @@
       <c r="K104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>562810.5604810353</v>
+        <v>562799.5258076072</v>
       </c>
       <c r="R104" t="n">
-        <v>6953622.9056556</v>
+        <v>6953550.628890147</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
       </c>
       <c r="T104" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y104" t="inlineStr">
@@ -12750,7 +12749,7 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
@@ -12760,7 +12759,7 @@
       </c>
       <c r="AB104" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12787,10 +12786,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111579563</v>
+        <v>111578583</v>
       </c>
       <c r="B105" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12799,61 +12798,61 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>562802.7270039422</v>
+        <v>562676.9542402821</v>
       </c>
       <c r="R105" t="n">
-        <v>6953768.720964032</v>
+        <v>6953421.143956529</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
       </c>
       <c r="T105" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W105" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y105" t="inlineStr">
@@ -12863,7 +12862,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -12873,7 +12872,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12900,7 +12899,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111578960</v>
+        <v>111579563</v>
       </c>
       <c r="B106" t="n">
         <v>78578</v>
@@ -12937,36 +12936,36 @@
       <c r="K106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>562799.5258076072</v>
+        <v>562802.7270039422</v>
       </c>
       <c r="R106" t="n">
-        <v>6953550.628890147</v>
+        <v>6953768.720964032</v>
       </c>
       <c r="S106" t="n">
         <v>25</v>
       </c>
       <c r="T106" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W106" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y106" t="inlineStr">
@@ -12976,7 +12975,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -12986,7 +12985,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD106" t="b">

--- a/artfynd/A 46329-2022.xlsx
+++ b/artfynd/A 46329-2022.xlsx
@@ -8515,10 +8515,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111505030</v>
+        <v>111505049</v>
       </c>
       <c r="B68" t="n">
-        <v>96348</v>
+        <v>78611</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8527,50 +8527,41 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>220787</v>
+        <v>6463</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>563188.2250752542</v>
+        <v>563141.3320316244</v>
       </c>
       <c r="R68" t="n">
-        <v>6953800.412410886</v>
+        <v>6953800.891131622</v>
       </c>
       <c r="S68" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -8636,10 +8627,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111505049</v>
+        <v>111505030</v>
       </c>
       <c r="B69" t="n">
-        <v>78611</v>
+        <v>96348</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8648,41 +8639,50 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6463</v>
+        <v>220787</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>563141.3320316244</v>
+        <v>563188.2250752542</v>
       </c>
       <c r="R69" t="n">
-        <v>6953800.891131622</v>
+        <v>6953800.412410886</v>
       </c>
       <c r="S69" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -9215,10 +9215,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111505050</v>
+        <v>111506427</v>
       </c>
       <c r="B74" t="n">
-        <v>78611</v>
+        <v>96348</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9227,65 +9227,75 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6463</v>
+        <v>220787</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>563111.0943530079</v>
+        <v>563300.3140053455</v>
       </c>
       <c r="R74" t="n">
-        <v>6953795.722308087</v>
+        <v>6953708.007710025</v>
       </c>
       <c r="S74" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
@@ -9295,7 +9305,7 @@
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
@@ -9327,10 +9337,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111505052</v>
+        <v>111506378</v>
       </c>
       <c r="B75" t="n">
-        <v>93881</v>
+        <v>96381</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9343,37 +9353,38 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>2869</v>
+        <v>219874</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>563021.385735066</v>
+        <v>562795.9247683069</v>
       </c>
       <c r="R75" t="n">
-        <v>6953703.583207678</v>
+        <v>6953570.757486098</v>
       </c>
       <c r="S75" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -9439,10 +9450,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111506427</v>
+        <v>111505050</v>
       </c>
       <c r="B76" t="n">
-        <v>96348</v>
+        <v>78611</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9451,75 +9462,65 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>220787</v>
+        <v>6463</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>563300.3140053455</v>
+        <v>563111.0943530079</v>
       </c>
       <c r="R76" t="n">
-        <v>6953708.007710025</v>
+        <v>6953795.722308087</v>
       </c>
       <c r="S76" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
@@ -9529,7 +9530,7 @@
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB76" t="inlineStr">
@@ -9561,10 +9562,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111506378</v>
+        <v>111505052</v>
       </c>
       <c r="B77" t="n">
-        <v>96381</v>
+        <v>93881</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9577,38 +9578,37 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>219874</v>
+        <v>2869</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>562795.9247683069</v>
+        <v>563021.385735066</v>
       </c>
       <c r="R77" t="n">
-        <v>6953570.757486098</v>
+        <v>6953703.583207678</v>
       </c>
       <c r="S77" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>

--- a/artfynd/A 46329-2022.xlsx
+++ b/artfynd/A 46329-2022.xlsx
@@ -7592,10 +7592,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111505025</v>
+        <v>111505036</v>
       </c>
       <c r="B60" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7604,60 +7604,69 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>563048.1020123652</v>
+        <v>563156.3591810546</v>
       </c>
       <c r="R60" t="n">
-        <v>6953796.81225728</v>
+        <v>6953688.264125231</v>
       </c>
       <c r="S60" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
@@ -7704,10 +7713,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111505028</v>
+        <v>111505050</v>
       </c>
       <c r="B61" t="n">
-        <v>78578</v>
+        <v>78611</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7716,25 +7725,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7744,13 +7753,13 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>562994.4598576587</v>
+        <v>563111.0943530079</v>
       </c>
       <c r="R61" t="n">
-        <v>6953693.429543378</v>
+        <v>6953795.722308087</v>
       </c>
       <c r="S61" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7816,7 +7825,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111505040</v>
+        <v>111505035</v>
       </c>
       <c r="B62" t="n">
         <v>96348</v>
@@ -7851,7 +7860,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -7861,36 +7870,36 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>562838.4296954731</v>
+        <v>563176.4801691328</v>
       </c>
       <c r="R62" t="n">
-        <v>6953704.222797605</v>
+        <v>6953693.698667094</v>
       </c>
       <c r="S62" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
@@ -7937,7 +7946,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111505031</v>
+        <v>111505038</v>
       </c>
       <c r="B63" t="n">
         <v>96348</v>
@@ -7972,7 +7981,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -7986,13 +7995,13 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>563201.2223511444</v>
+        <v>562908.6398715272</v>
       </c>
       <c r="R63" t="n">
-        <v>6953793.776556972</v>
+        <v>6953686.283111459</v>
       </c>
       <c r="S63" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -8058,10 +8067,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111505017</v>
+        <v>111505042</v>
       </c>
       <c r="B64" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8070,41 +8079,50 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>563110.157834232</v>
+        <v>562819.5119181958</v>
       </c>
       <c r="R64" t="n">
-        <v>6953796.622375475</v>
+        <v>6953707.993414508</v>
       </c>
       <c r="S64" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -8170,7 +8188,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111505042</v>
+        <v>111506427</v>
       </c>
       <c r="B65" t="n">
         <v>96348</v>
@@ -8205,7 +8223,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>55</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -8213,43 +8231,44 @@
           <t>stjälkar/strån/skott</t>
         </is>
       </c>
+      <c r="K65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>562819.5119181958</v>
+        <v>563300.3140053455</v>
       </c>
       <c r="R65" t="n">
-        <v>6953707.993414508</v>
+        <v>6953708.007710025</v>
       </c>
       <c r="S65" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -8259,7 +8278,7 @@
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
@@ -8291,10 +8310,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111505024</v>
+        <v>111505034</v>
       </c>
       <c r="B66" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8303,60 +8322,69 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>562988.0254043636</v>
+        <v>563233.4131933488</v>
       </c>
       <c r="R66" t="n">
-        <v>6953909.951939938</v>
+        <v>6953697.084956069</v>
       </c>
       <c r="S66" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -8403,10 +8431,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111505023</v>
+        <v>111505049</v>
       </c>
       <c r="B67" t="n">
-        <v>78578</v>
+        <v>78611</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8415,60 +8443,60 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>562450.0507050141</v>
+        <v>563141.3320316244</v>
       </c>
       <c r="R67" t="n">
-        <v>6953411.330941907</v>
+        <v>6953800.891131622</v>
       </c>
       <c r="S67" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
@@ -8515,10 +8543,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111505049</v>
+        <v>111505044</v>
       </c>
       <c r="B68" t="n">
-        <v>78611</v>
+        <v>90151</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8527,60 +8555,69 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6463</v>
+        <v>366</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
+          <t>(Pers.) Jülich</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>563141.3320316244</v>
+        <v>563300.3140053455</v>
       </c>
       <c r="R68" t="n">
-        <v>6953800.891131622</v>
+        <v>6953708.007710025</v>
       </c>
       <c r="S68" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
@@ -8627,7 +8664,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111505030</v>
+        <v>111505040</v>
       </c>
       <c r="B69" t="n">
         <v>96348</v>
@@ -8662,7 +8699,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -8676,13 +8713,13 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>563188.2250752542</v>
+        <v>562838.4296954731</v>
       </c>
       <c r="R69" t="n">
-        <v>6953800.412410886</v>
+        <v>6953704.222797605</v>
       </c>
       <c r="S69" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -8748,10 +8785,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111505035</v>
+        <v>111505025</v>
       </c>
       <c r="B70" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8760,69 +8797,60 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>563176.4801691328</v>
+        <v>563048.1020123652</v>
       </c>
       <c r="R70" t="n">
-        <v>6953693.698667094</v>
+        <v>6953796.81225728</v>
       </c>
       <c r="S70" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
@@ -8869,10 +8897,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111505036</v>
+        <v>111506366</v>
       </c>
       <c r="B71" t="n">
-        <v>96348</v>
+        <v>96368</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8881,74 +8909,66 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>220787</v>
+        <v>221952</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>563156.3591810546</v>
+        <v>562795.9247683069</v>
       </c>
       <c r="R71" t="n">
-        <v>6953688.264125231</v>
+        <v>6953570.757486098</v>
       </c>
       <c r="S71" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
@@ -8958,7 +8978,7 @@
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
@@ -8990,10 +9010,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111506366</v>
+        <v>111505037</v>
       </c>
       <c r="B72" t="n">
-        <v>96368</v>
+        <v>96348</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -9002,42 +9022,50 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>221952</v>
+        <v>220787</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>562795.9247683069</v>
+        <v>562940.6554937188</v>
       </c>
       <c r="R72" t="n">
-        <v>6953570.757486098</v>
+        <v>6953694.697192283</v>
       </c>
       <c r="S72" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -9061,7 +9089,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
@@ -9071,7 +9099,7 @@
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
@@ -9103,10 +9131,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111505026</v>
+        <v>111505032</v>
       </c>
       <c r="B73" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9115,60 +9143,69 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>563112.0133087402</v>
+        <v>563277.1457894059</v>
       </c>
       <c r="R73" t="n">
-        <v>6953795.739896396</v>
+        <v>6953717.6612378</v>
       </c>
       <c r="S73" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
@@ -9215,10 +9252,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111506427</v>
+        <v>111505021</v>
       </c>
       <c r="B74" t="n">
-        <v>96348</v>
+        <v>78512</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9227,75 +9264,65 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>220787</v>
+        <v>6456</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr"/>
+          <t>(Dicks.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>563300.3140053455</v>
+        <v>563127.0267518542</v>
       </c>
       <c r="R74" t="n">
-        <v>6953708.007710025</v>
+        <v>6953803.830203088</v>
       </c>
       <c r="S74" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
@@ -9305,7 +9332,7 @@
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
@@ -9337,10 +9364,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111506378</v>
+        <v>111505030</v>
       </c>
       <c r="B75" t="n">
-        <v>96381</v>
+        <v>96348</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9349,42 +9376,50 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>219874</v>
+        <v>220787</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P75" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>562795.9247683069</v>
+        <v>563188.2250752542</v>
       </c>
       <c r="R75" t="n">
-        <v>6953570.757486098</v>
+        <v>6953800.412410886</v>
       </c>
       <c r="S75" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -9408,7 +9443,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
@@ -9418,7 +9453,7 @@
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr">
@@ -9450,10 +9485,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111505050</v>
+        <v>111506360</v>
       </c>
       <c r="B76" t="n">
-        <v>78611</v>
+        <v>96348</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9462,41 +9497,51 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6463</v>
+        <v>220787</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>563111.0943530079</v>
+        <v>562795.9247683069</v>
       </c>
       <c r="R76" t="n">
-        <v>6953795.722308087</v>
+        <v>6953570.757486098</v>
       </c>
       <c r="S76" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -9520,7 +9565,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
@@ -9530,7 +9575,7 @@
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="AB76" t="inlineStr">
@@ -9562,10 +9607,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111505052</v>
+        <v>111505041</v>
       </c>
       <c r="B77" t="n">
-        <v>93881</v>
+        <v>96348</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9574,41 +9619,50 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>2869</v>
+        <v>220787</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Girg.</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P77" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>563021.385735066</v>
+        <v>562832.325177824</v>
       </c>
       <c r="R77" t="n">
-        <v>6953703.583207678</v>
+        <v>6953710.991571963</v>
       </c>
       <c r="S77" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -9632,7 +9686,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
@@ -9642,7 +9696,7 @@
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB77" t="inlineStr">
@@ -9674,10 +9728,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111505021</v>
+        <v>111505027</v>
       </c>
       <c r="B78" t="n">
-        <v>78512</v>
+        <v>78578</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9686,25 +9740,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9714,13 +9768,13 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>563127.0267518542</v>
+        <v>563139.9711714545</v>
       </c>
       <c r="R78" t="n">
-        <v>6953803.830203088</v>
+        <v>6953799.947082677</v>
       </c>
       <c r="S78" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -9786,7 +9840,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111505038</v>
+        <v>111505033</v>
       </c>
       <c r="B79" t="n">
         <v>96348</v>
@@ -9831,36 +9885,36 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>562908.6398715272</v>
+        <v>563271.4189427574</v>
       </c>
       <c r="R79" t="n">
-        <v>6953686.283111459</v>
+        <v>6953704.69911015</v>
       </c>
       <c r="S79" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W79" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
@@ -9907,10 +9961,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111505044</v>
+        <v>111505031</v>
       </c>
       <c r="B80" t="n">
-        <v>90151</v>
+        <v>96348</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9919,69 +9973,69 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>366</v>
+        <v>220787</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>563300.3140053455</v>
+        <v>563201.2223511444</v>
       </c>
       <c r="R80" t="n">
-        <v>6953708.007710025</v>
+        <v>6953793.776556972</v>
       </c>
       <c r="S80" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W80" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
@@ -10028,10 +10082,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111505041</v>
+        <v>111505052</v>
       </c>
       <c r="B81" t="n">
-        <v>96348</v>
+        <v>93881</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -10040,50 +10094,41 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>220787</v>
+        <v>2869</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Girg.</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>562832.325177824</v>
+        <v>563021.385735066</v>
       </c>
       <c r="R81" t="n">
-        <v>6953710.991571963</v>
+        <v>6953703.583207678</v>
       </c>
       <c r="S81" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
@@ -10107,7 +10152,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
@@ -10117,7 +10162,7 @@
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr">
@@ -10149,10 +10194,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111505043</v>
+        <v>111505017</v>
       </c>
       <c r="B82" t="n">
-        <v>96348</v>
+        <v>78605</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10161,50 +10206,41 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>220787</v>
+        <v>6462</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>562795.9247683069</v>
+        <v>563110.157834232</v>
       </c>
       <c r="R82" t="n">
-        <v>6953570.757486098</v>
+        <v>6953796.622375475</v>
       </c>
       <c r="S82" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
@@ -10270,7 +10306,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111505027</v>
+        <v>111505024</v>
       </c>
       <c r="B83" t="n">
         <v>78578</v>
@@ -10310,13 +10346,13 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>563139.9711714545</v>
+        <v>562988.0254043636</v>
       </c>
       <c r="R83" t="n">
-        <v>6953799.947082677</v>
+        <v>6953909.951939938</v>
       </c>
       <c r="S83" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
@@ -10382,10 +10418,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111505033</v>
+        <v>111505028</v>
       </c>
       <c r="B84" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -10394,69 +10430,60 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>563271.4189427574</v>
+        <v>562994.4598576587</v>
       </c>
       <c r="R84" t="n">
-        <v>6953704.69911015</v>
+        <v>6953693.429543378</v>
       </c>
       <c r="S84" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W84" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
@@ -10503,10 +10530,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111505037</v>
+        <v>111506378</v>
       </c>
       <c r="B85" t="n">
-        <v>96348</v>
+        <v>96381</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10515,50 +10542,42 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>220787</v>
+        <v>219874</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>562940.6554937188</v>
+        <v>562795.9247683069</v>
       </c>
       <c r="R85" t="n">
-        <v>6953694.697192283</v>
+        <v>6953570.757486098</v>
       </c>
       <c r="S85" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
@@ -10582,7 +10601,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
@@ -10592,7 +10611,7 @@
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="AB85" t="inlineStr">
@@ -10624,10 +10643,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111505034</v>
+        <v>111505026</v>
       </c>
       <c r="B86" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10636,69 +10655,60 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>563233.4131933488</v>
+        <v>563112.0133087402</v>
       </c>
       <c r="R86" t="n">
-        <v>6953697.084956069</v>
+        <v>6953795.739896396</v>
       </c>
       <c r="S86" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W86" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
@@ -10745,10 +10755,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111505032</v>
+        <v>111505023</v>
       </c>
       <c r="B87" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10757,50 +10767,41 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
           <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>563277.1457894059</v>
+        <v>562450.0507050141</v>
       </c>
       <c r="R87" t="n">
-        <v>6953717.6612378</v>
+        <v>6953411.330941907</v>
       </c>
       <c r="S87" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
@@ -10978,7 +10979,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111578830</v>
+        <v>111579503</v>
       </c>
       <c r="B89" t="n">
         <v>78578</v>
@@ -11019,10 +11020,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>562740.2630645358</v>
+        <v>562850.2507051354</v>
       </c>
       <c r="R89" t="n">
-        <v>6953572.911213852</v>
+        <v>6953783.396332907</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
@@ -11054,7 +11055,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -11064,7 +11065,7 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -11091,7 +11092,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111579503</v>
+        <v>111579490</v>
       </c>
       <c r="B90" t="n">
         <v>78578</v>
@@ -11132,13 +11133,13 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>562850.2507051354</v>
+        <v>562858.9067506329</v>
       </c>
       <c r="R90" t="n">
-        <v>6953783.396332907</v>
+        <v>6953811.559968874</v>
       </c>
       <c r="S90" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
@@ -11204,10 +11205,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111579213</v>
+        <v>111578950</v>
       </c>
       <c r="B91" t="n">
-        <v>96348</v>
+        <v>96265</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11216,61 +11217,61 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>220787</v>
+        <v>219790</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>562801.7112454879</v>
+        <v>562799.5258076072</v>
       </c>
       <c r="R91" t="n">
-        <v>6953604.835366915</v>
+        <v>6953550.628890147</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W91" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
@@ -11280,7 +11281,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>19:46</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -11290,7 +11291,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>19:46</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -11317,10 +11318,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111579233</v>
+        <v>111578715</v>
       </c>
       <c r="B92" t="n">
-        <v>78578</v>
+        <v>103288</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11329,61 +11330,61 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6458</v>
+        <v>221144</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>562810.5604810353</v>
+        <v>562725.5046364743</v>
       </c>
       <c r="R92" t="n">
-        <v>6953622.9056556</v>
+        <v>6953382.129823714</v>
       </c>
       <c r="S92" t="n">
         <v>25</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
@@ -11393,7 +11394,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -11403,7 +11404,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -11430,7 +11431,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111578662</v>
+        <v>111578792</v>
       </c>
       <c r="B93" t="n">
         <v>78578</v>
@@ -11471,10 +11472,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>562713.478186005</v>
+        <v>562747.4557671447</v>
       </c>
       <c r="R93" t="n">
-        <v>6953386.03256534</v>
+        <v>6953533.112687511</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -11506,7 +11507,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -11516,7 +11517,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -11543,10 +11544,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111578715</v>
+        <v>111578520</v>
       </c>
       <c r="B94" t="n">
-        <v>103288</v>
+        <v>78578</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11555,25 +11556,25 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>221144</v>
+        <v>6458</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11584,10 +11585,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>562725.5046364743</v>
+        <v>562600.317282272</v>
       </c>
       <c r="R94" t="n">
-        <v>6953382.129823714</v>
+        <v>6953414.179823531</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -11619,7 +11620,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -11629,7 +11630,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -11656,10 +11657,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111578990</v>
+        <v>111578583</v>
       </c>
       <c r="B95" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11668,25 +11669,25 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11697,10 +11698,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>562812.7329947776</v>
+        <v>562676.9542402821</v>
       </c>
       <c r="R95" t="n">
-        <v>6953532.978280453</v>
+        <v>6953421.143956529</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -11732,7 +11733,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -11742,7 +11743,7 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11769,10 +11770,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111578582</v>
+        <v>111579651</v>
       </c>
       <c r="B96" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11781,61 +11782,61 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>562676.9542402821</v>
+        <v>562757.9369339028</v>
       </c>
       <c r="R96" t="n">
-        <v>6953421.143956529</v>
+        <v>6953731.148202746</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W96" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
@@ -11845,7 +11846,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>20:14</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -11855,7 +11856,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>20:14</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11882,7 +11883,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111579490</v>
+        <v>111579233</v>
       </c>
       <c r="B97" t="n">
         <v>78578</v>
@@ -11923,13 +11924,13 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>562858.9067506329</v>
+        <v>562810.5604810353</v>
       </c>
       <c r="R97" t="n">
-        <v>6953811.559968874</v>
+        <v>6953622.9056556</v>
       </c>
       <c r="S97" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T97" t="inlineStr">
         <is>
@@ -11995,10 +11996,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111578950</v>
+        <v>111579563</v>
       </c>
       <c r="B98" t="n">
-        <v>96265</v>
+        <v>78578</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -12007,61 +12008,61 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>219790</v>
+        <v>6458</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>562799.5258076072</v>
+        <v>562802.7270039422</v>
       </c>
       <c r="R98" t="n">
-        <v>6953550.628890147</v>
+        <v>6953768.720964032</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
       </c>
       <c r="T98" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr">
@@ -12071,7 +12072,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -12081,7 +12082,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -12108,7 +12109,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111578865</v>
+        <v>111578830</v>
       </c>
       <c r="B99" t="n">
         <v>78578</v>
@@ -12149,10 +12150,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>562788.3053195324</v>
+        <v>562740.2630645358</v>
       </c>
       <c r="R99" t="n">
-        <v>6953560.513836247</v>
+        <v>6953572.911213852</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
@@ -12221,10 +12222,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111578792</v>
+        <v>111579081</v>
       </c>
       <c r="B100" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12233,61 +12234,61 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>562747.4557671447</v>
+        <v>562801.7112454879</v>
       </c>
       <c r="R100" t="n">
-        <v>6953533.112687511</v>
+        <v>6953604.835366915</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr">
@@ -12297,7 +12298,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -12307,7 +12308,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -12334,10 +12335,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111579651</v>
+        <v>111578865</v>
       </c>
       <c r="B101" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12346,25 +12347,25 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -12375,10 +12376,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>562757.9369339028</v>
+        <v>562788.3053195324</v>
       </c>
       <c r="R101" t="n">
-        <v>6953731.148202746</v>
+        <v>6953560.513836247</v>
       </c>
       <c r="S101" t="n">
         <v>25</v>
@@ -12410,7 +12411,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>20:14</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -12420,7 +12421,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>20:14</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12447,7 +12448,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111578841</v>
+        <v>111578590</v>
       </c>
       <c r="B102" t="n">
         <v>78578</v>
@@ -12488,10 +12489,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>562756.4976047705</v>
+        <v>562676.9542402821</v>
       </c>
       <c r="R102" t="n">
-        <v>6953541.088242936</v>
+        <v>6953421.143956529</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -12523,7 +12524,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -12533,7 +12534,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12560,7 +12561,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111578520</v>
+        <v>111578841</v>
       </c>
       <c r="B103" t="n">
         <v>78578</v>
@@ -12601,10 +12602,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>562600.317282272</v>
+        <v>562756.4976047705</v>
       </c>
       <c r="R103" t="n">
-        <v>6953414.179823531</v>
+        <v>6953541.088242936</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
@@ -12636,7 +12637,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -12646,7 +12647,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12673,7 +12674,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111578960</v>
+        <v>111578990</v>
       </c>
       <c r="B104" t="n">
         <v>78578</v>
@@ -12714,10 +12715,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>562799.5258076072</v>
+        <v>562812.7329947776</v>
       </c>
       <c r="R104" t="n">
-        <v>6953550.628890147</v>
+        <v>6953532.978280453</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
@@ -12786,10 +12787,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111578583</v>
+        <v>111578960</v>
       </c>
       <c r="B105" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12798,25 +12799,25 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12827,10 +12828,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>562676.9542402821</v>
+        <v>562799.5258076072</v>
       </c>
       <c r="R105" t="n">
-        <v>6953421.143956529</v>
+        <v>6953550.628890147</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
@@ -12862,7 +12863,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -12872,7 +12873,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12899,7 +12900,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111579563</v>
+        <v>111578662</v>
       </c>
       <c r="B106" t="n">
         <v>78578</v>
@@ -12936,36 +12937,36 @@
       <c r="K106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>562802.7270039422</v>
+        <v>562713.478186005</v>
       </c>
       <c r="R106" t="n">
-        <v>6953768.720964032</v>
+        <v>6953386.03256534</v>
       </c>
       <c r="S106" t="n">
         <v>25</v>
       </c>
       <c r="T106" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W106" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y106" t="inlineStr">
@@ -12975,7 +12976,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -12985,7 +12986,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD106" t="b">

--- a/artfynd/A 46329-2022.xlsx
+++ b/artfynd/A 46329-2022.xlsx
@@ -8897,10 +8897,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111506366</v>
+        <v>111505037</v>
       </c>
       <c r="B71" t="n">
-        <v>96368</v>
+        <v>96348</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8909,42 +8909,50 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>221952</v>
+        <v>220787</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>562795.9247683069</v>
+        <v>562940.6554937188</v>
       </c>
       <c r="R71" t="n">
-        <v>6953570.757486098</v>
+        <v>6953694.697192283</v>
       </c>
       <c r="S71" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -8968,7 +8976,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
@@ -8978,7 +8986,7 @@
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
@@ -9010,10 +9018,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111505037</v>
+        <v>111506366</v>
       </c>
       <c r="B72" t="n">
-        <v>96348</v>
+        <v>96368</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -9022,50 +9030,42 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>220787</v>
+        <v>221952</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>562940.6554937188</v>
+        <v>562795.9247683069</v>
       </c>
       <c r="R72" t="n">
-        <v>6953694.697192283</v>
+        <v>6953570.757486098</v>
       </c>
       <c r="S72" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
@@ -9099,7 +9099,7 @@
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
@@ -11883,7 +11883,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111579233</v>
+        <v>111579563</v>
       </c>
       <c r="B97" t="n">
         <v>78578</v>
@@ -11924,10 +11924,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>562810.5604810353</v>
+        <v>562802.7270039422</v>
       </c>
       <c r="R97" t="n">
-        <v>6953622.9056556</v>
+        <v>6953768.720964032</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
@@ -11996,7 +11996,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111579563</v>
+        <v>111579233</v>
       </c>
       <c r="B98" t="n">
         <v>78578</v>
@@ -12037,10 +12037,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>562802.7270039422</v>
+        <v>562810.5604810353</v>
       </c>
       <c r="R98" t="n">
-        <v>6953768.720964032</v>
+        <v>6953622.9056556</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -12222,10 +12222,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111579081</v>
+        <v>111578865</v>
       </c>
       <c r="B100" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12234,25 +12234,25 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -12263,10 +12263,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>562801.7112454879</v>
+        <v>562788.3053195324</v>
       </c>
       <c r="R100" t="n">
-        <v>6953604.835366915</v>
+        <v>6953560.513836247</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
@@ -12298,7 +12298,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -12308,7 +12308,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -12335,10 +12335,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111578865</v>
+        <v>111579081</v>
       </c>
       <c r="B101" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12347,25 +12347,25 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -12376,10 +12376,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>562788.3053195324</v>
+        <v>562801.7112454879</v>
       </c>
       <c r="R101" t="n">
-        <v>6953560.513836247</v>
+        <v>6953604.835366915</v>
       </c>
       <c r="S101" t="n">
         <v>25</v>
@@ -12411,7 +12411,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -12421,7 +12421,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD101" t="b">

--- a/artfynd/A 46329-2022.xlsx
+++ b/artfynd/A 46329-2022.xlsx
@@ -7592,7 +7592,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111505036</v>
+        <v>111505037</v>
       </c>
       <c r="B60" t="n">
         <v>96348</v>
@@ -7627,7 +7627,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -7637,36 +7637,36 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>563156.3591810546</v>
+        <v>562940.6554937188</v>
       </c>
       <c r="R60" t="n">
-        <v>6953688.264125231</v>
+        <v>6953694.697192283</v>
       </c>
       <c r="S60" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
@@ -7713,10 +7713,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111505050</v>
+        <v>111505017</v>
       </c>
       <c r="B61" t="n">
-        <v>78611</v>
+        <v>78605</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7729,21 +7729,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6463</v>
+        <v>6462</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7753,13 +7753,13 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>563111.0943530079</v>
+        <v>563110.157834232</v>
       </c>
       <c r="R61" t="n">
-        <v>6953795.722308087</v>
+        <v>6953796.622375475</v>
       </c>
       <c r="S61" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7825,10 +7825,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111505035</v>
+        <v>111505023</v>
       </c>
       <c r="B62" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7837,50 +7837,41 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>563176.4801691328</v>
+        <v>562450.0507050141</v>
       </c>
       <c r="R62" t="n">
-        <v>6953693.698667094</v>
+        <v>6953411.330941907</v>
       </c>
       <c r="S62" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -7946,10 +7937,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111505038</v>
+        <v>111505050</v>
       </c>
       <c r="B63" t="n">
-        <v>96348</v>
+        <v>78611</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7958,50 +7949,41 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>220787</v>
+        <v>6463</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>562908.6398715272</v>
+        <v>563111.0943530079</v>
       </c>
       <c r="R63" t="n">
-        <v>6953686.283111459</v>
+        <v>6953795.722308087</v>
       </c>
       <c r="S63" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -8067,10 +8049,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111505042</v>
+        <v>111505025</v>
       </c>
       <c r="B64" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8079,50 +8061,41 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>562819.5119181958</v>
+        <v>563048.1020123652</v>
       </c>
       <c r="R64" t="n">
-        <v>6953707.993414508</v>
+        <v>6953796.81225728</v>
       </c>
       <c r="S64" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -8188,10 +8161,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111506427</v>
+        <v>111505052</v>
       </c>
       <c r="B65" t="n">
-        <v>96348</v>
+        <v>93881</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8200,70 +8173,60 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>220787</v>
+        <v>2869</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
+          <t>Girg.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>563300.3140053455</v>
+        <v>563021.385735066</v>
       </c>
       <c r="R65" t="n">
-        <v>6953708.007710025</v>
+        <v>6953703.583207678</v>
       </c>
       <c r="S65" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
@@ -8310,7 +8273,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111505034</v>
+        <v>111505033</v>
       </c>
       <c r="B66" t="n">
         <v>96348</v>
@@ -8345,7 +8308,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -8359,13 +8322,13 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>563233.4131933488</v>
+        <v>563271.4189427574</v>
       </c>
       <c r="R66" t="n">
-        <v>6953697.084956069</v>
+        <v>6953704.69911015</v>
       </c>
       <c r="S66" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -8431,10 +8394,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111505049</v>
+        <v>111505028</v>
       </c>
       <c r="B67" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8443,25 +8406,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8471,13 +8434,13 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>563141.3320316244</v>
+        <v>562994.4598576587</v>
       </c>
       <c r="R67" t="n">
-        <v>6953800.891131622</v>
+        <v>6953693.429543378</v>
       </c>
       <c r="S67" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -8543,10 +8506,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111505044</v>
+        <v>111505036</v>
       </c>
       <c r="B68" t="n">
-        <v>90151</v>
+        <v>96348</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8555,35 +8518,35 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>366</v>
+        <v>220787</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -8592,13 +8555,13 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>563300.3140053455</v>
+        <v>563156.3591810546</v>
       </c>
       <c r="R68" t="n">
-        <v>6953708.007710025</v>
+        <v>6953688.264125231</v>
       </c>
       <c r="S68" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -8664,7 +8627,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111505040</v>
+        <v>111505032</v>
       </c>
       <c r="B69" t="n">
         <v>96348</v>
@@ -8699,7 +8662,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -8709,36 +8672,36 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>562838.4296954731</v>
+        <v>563277.1457894059</v>
       </c>
       <c r="R69" t="n">
-        <v>6953704.222797605</v>
+        <v>6953717.6612378</v>
       </c>
       <c r="S69" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
@@ -8785,10 +8748,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111505025</v>
+        <v>111505042</v>
       </c>
       <c r="B70" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8797,41 +8760,50 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>563048.1020123652</v>
+        <v>562819.5119181958</v>
       </c>
       <c r="R70" t="n">
-        <v>6953796.81225728</v>
+        <v>6953707.993414508</v>
       </c>
       <c r="S70" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -8897,7 +8869,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111505037</v>
+        <v>111505030</v>
       </c>
       <c r="B71" t="n">
         <v>96348</v>
@@ -8932,7 +8904,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -8946,13 +8918,13 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>562940.6554937188</v>
+        <v>563188.2250752542</v>
       </c>
       <c r="R71" t="n">
-        <v>6953694.697192283</v>
+        <v>6953800.412410886</v>
       </c>
       <c r="S71" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -9018,10 +8990,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111506366</v>
+        <v>111505041</v>
       </c>
       <c r="B72" t="n">
-        <v>96368</v>
+        <v>96348</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -9030,42 +9002,50 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>221952</v>
+        <v>220787</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>562795.9247683069</v>
+        <v>562832.325177824</v>
       </c>
       <c r="R72" t="n">
-        <v>6953570.757486098</v>
+        <v>6953710.991571963</v>
       </c>
       <c r="S72" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -9089,7 +9069,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
@@ -9099,7 +9079,7 @@
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
@@ -9131,7 +9111,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111505032</v>
+        <v>111505035</v>
       </c>
       <c r="B73" t="n">
         <v>96348</v>
@@ -9166,7 +9146,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -9180,13 +9160,13 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>563277.1457894059</v>
+        <v>563176.4801691328</v>
       </c>
       <c r="R73" t="n">
-        <v>6953717.6612378</v>
+        <v>6953693.698667094</v>
       </c>
       <c r="S73" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
@@ -9252,10 +9232,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111505021</v>
+        <v>111505034</v>
       </c>
       <c r="B74" t="n">
-        <v>78512</v>
+        <v>96348</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9264,60 +9244,69 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6456</v>
+        <v>220787</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>563127.0267518542</v>
+        <v>563233.4131933488</v>
       </c>
       <c r="R74" t="n">
-        <v>6953803.830203088</v>
+        <v>6953697.084956069</v>
       </c>
       <c r="S74" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
@@ -9364,10 +9353,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111505030</v>
+        <v>111505049</v>
       </c>
       <c r="B75" t="n">
-        <v>96348</v>
+        <v>78611</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9376,50 +9365,41 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>220787</v>
+        <v>6463</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>563188.2250752542</v>
+        <v>563141.3320316244</v>
       </c>
       <c r="R75" t="n">
-        <v>6953800.412410886</v>
+        <v>6953800.891131622</v>
       </c>
       <c r="S75" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -9485,10 +9465,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111506360</v>
+        <v>111506378</v>
       </c>
       <c r="B76" t="n">
-        <v>96348</v>
+        <v>96381</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9497,37 +9477,28 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>220787</v>
+        <v>219874</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
@@ -9607,10 +9578,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111505041</v>
+        <v>111505024</v>
       </c>
       <c r="B77" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9619,50 +9590,41 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>562832.325177824</v>
+        <v>562988.0254043636</v>
       </c>
       <c r="R77" t="n">
-        <v>6953710.991571963</v>
+        <v>6953909.951939938</v>
       </c>
       <c r="S77" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -9728,10 +9690,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111505027</v>
+        <v>111506360</v>
       </c>
       <c r="B78" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9740,41 +9702,51 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>563139.9711714545</v>
+        <v>562795.9247683069</v>
       </c>
       <c r="R78" t="n">
-        <v>6953799.947082677</v>
+        <v>6953570.757486098</v>
       </c>
       <c r="S78" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -9798,7 +9770,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
@@ -9808,7 +9780,7 @@
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
@@ -9840,10 +9812,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111505033</v>
+        <v>111505026</v>
       </c>
       <c r="B79" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9852,69 +9824,60 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>563271.4189427574</v>
+        <v>563112.0133087402</v>
       </c>
       <c r="R79" t="n">
-        <v>6953704.69911015</v>
+        <v>6953795.739896396</v>
       </c>
       <c r="S79" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W79" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
@@ -9961,7 +9924,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111505031</v>
+        <v>111505038</v>
       </c>
       <c r="B80" t="n">
         <v>96348</v>
@@ -9996,7 +9959,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -10010,13 +9973,13 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>563201.2223511444</v>
+        <v>562908.6398715272</v>
       </c>
       <c r="R80" t="n">
-        <v>6953793.776556972</v>
+        <v>6953686.283111459</v>
       </c>
       <c r="S80" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
@@ -10082,10 +10045,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111505052</v>
+        <v>111505029</v>
       </c>
       <c r="B81" t="n">
-        <v>93881</v>
+        <v>78578</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -10094,65 +10057,65 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>2869</v>
+        <v>6458</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>563021.385735066</v>
+        <v>562582.6789697963</v>
       </c>
       <c r="R81" t="n">
-        <v>6953703.583207678</v>
+        <v>6953447.35522902</v>
       </c>
       <c r="S81" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W81" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
@@ -10162,7 +10125,7 @@
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr">
@@ -10194,10 +10157,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111505017</v>
+        <v>111506427</v>
       </c>
       <c r="B82" t="n">
-        <v>78605</v>
+        <v>96348</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10206,65 +10169,75 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6462</v>
+        <v>220787</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>563110.157834232</v>
+        <v>563300.3140053455</v>
       </c>
       <c r="R82" t="n">
-        <v>6953796.622375475</v>
+        <v>6953708.007710025</v>
       </c>
       <c r="S82" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
@@ -10274,7 +10247,7 @@
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr">
@@ -10306,10 +10279,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111505024</v>
+        <v>111506366</v>
       </c>
       <c r="B83" t="n">
-        <v>78578</v>
+        <v>96368</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -10318,41 +10291,42 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6458</v>
+        <v>221952</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>562988.0254043636</v>
+        <v>562795.9247683069</v>
       </c>
       <c r="R83" t="n">
-        <v>6953909.951939938</v>
+        <v>6953570.757486098</v>
       </c>
       <c r="S83" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
@@ -10376,7 +10350,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
@@ -10386,7 +10360,7 @@
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="AB83" t="inlineStr">
@@ -10418,10 +10392,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111505028</v>
+        <v>111505021</v>
       </c>
       <c r="B84" t="n">
-        <v>78578</v>
+        <v>78512</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -10430,25 +10404,25 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -10458,13 +10432,13 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>562994.4598576587</v>
+        <v>563127.0267518542</v>
       </c>
       <c r="R84" t="n">
-        <v>6953693.429543378</v>
+        <v>6953803.830203088</v>
       </c>
       <c r="S84" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
@@ -10530,10 +10504,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111506378</v>
+        <v>111505027</v>
       </c>
       <c r="B85" t="n">
-        <v>96381</v>
+        <v>78578</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10542,42 +10516,41 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>219874</v>
+        <v>6458</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>562795.9247683069</v>
+        <v>563139.9711714545</v>
       </c>
       <c r="R85" t="n">
-        <v>6953570.757486098</v>
+        <v>6953799.947082677</v>
       </c>
       <c r="S85" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
@@ -10601,7 +10574,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
@@ -10611,7 +10584,7 @@
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB85" t="inlineStr">
@@ -10643,10 +10616,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111505026</v>
+        <v>111505044</v>
       </c>
       <c r="B86" t="n">
-        <v>78578</v>
+        <v>90151</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10659,56 +10632,65 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6458</v>
+        <v>366</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr"/>
+          <t>(Pers.) Jülich</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>563112.0133087402</v>
+        <v>563300.3140053455</v>
       </c>
       <c r="R86" t="n">
-        <v>6953795.739896396</v>
+        <v>6953708.007710025</v>
       </c>
       <c r="S86" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W86" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
@@ -10755,10 +10737,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111505023</v>
+        <v>111505040</v>
       </c>
       <c r="B87" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10767,60 +10749,69 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>562450.0507050141</v>
+        <v>562838.4296954731</v>
       </c>
       <c r="R87" t="n">
-        <v>6953411.330941907</v>
+        <v>6953704.222797605</v>
       </c>
       <c r="S87" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
@@ -10867,10 +10858,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111505029</v>
+        <v>111505031</v>
       </c>
       <c r="B88" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10879,60 +10870,69 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>562582.6789697963</v>
+        <v>563201.2223511444</v>
       </c>
       <c r="R88" t="n">
-        <v>6953447.35522902</v>
+        <v>6953793.776556972</v>
       </c>
       <c r="S88" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W88" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
@@ -11092,7 +11092,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111579490</v>
+        <v>111578662</v>
       </c>
       <c r="B90" t="n">
         <v>78578</v>
@@ -11129,36 +11129,36 @@
       <c r="K90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>562858.9067506329</v>
+        <v>562713.478186005</v>
       </c>
       <c r="R90" t="n">
-        <v>6953811.559968874</v>
+        <v>6953386.03256534</v>
       </c>
       <c r="S90" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W90" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
@@ -11168,7 +11168,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
@@ -11178,7 +11178,7 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -11205,10 +11205,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111578950</v>
+        <v>111578583</v>
       </c>
       <c r="B91" t="n">
-        <v>96265</v>
+        <v>78605</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11221,21 +11221,21 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>219790</v>
+        <v>6462</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -11246,10 +11246,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>562799.5258076072</v>
+        <v>562676.9542402821</v>
       </c>
       <c r="R91" t="n">
-        <v>6953550.628890147</v>
+        <v>6953421.143956529</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
@@ -11281,7 +11281,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -11291,7 +11291,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -11318,10 +11318,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111578715</v>
+        <v>111579236</v>
       </c>
       <c r="B92" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11330,61 +11330,61 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>562725.5046364743</v>
+        <v>562801.7112454879</v>
       </c>
       <c r="R92" t="n">
-        <v>6953382.129823714</v>
+        <v>6953604.835366915</v>
       </c>
       <c r="S92" t="n">
         <v>25</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
@@ -11394,7 +11394,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>19:46</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>19:46</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -11544,7 +11544,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111578520</v>
+        <v>111578582</v>
       </c>
       <c r="B94" t="n">
         <v>78578</v>
@@ -11585,10 +11585,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>562600.317282272</v>
+        <v>562676.9542402821</v>
       </c>
       <c r="R94" t="n">
-        <v>6953414.179823531</v>
+        <v>6953421.143956529</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -11657,10 +11657,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111578583</v>
+        <v>111579490</v>
       </c>
       <c r="B95" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11669,61 +11669,61 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>562676.9542402821</v>
+        <v>562858.9067506329</v>
       </c>
       <c r="R95" t="n">
-        <v>6953421.143956529</v>
+        <v>6953811.559968874</v>
       </c>
       <c r="S95" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W95" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr">
@@ -11733,7 +11733,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -11743,7 +11743,7 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11770,10 +11770,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111579651</v>
+        <v>111578520</v>
       </c>
       <c r="B96" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11782,61 +11782,61 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>562757.9369339028</v>
+        <v>562600.317282272</v>
       </c>
       <c r="R96" t="n">
-        <v>6953731.148202746</v>
+        <v>6953414.179823531</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W96" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
@@ -11846,7 +11846,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>20:14</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -11856,7 +11856,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>20:14</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11883,7 +11883,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111579563</v>
+        <v>111578841</v>
       </c>
       <c r="B97" t="n">
         <v>78578</v>
@@ -11920,36 +11920,36 @@
       <c r="K97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>562802.7270039422</v>
+        <v>562756.4976047705</v>
       </c>
       <c r="R97" t="n">
-        <v>6953768.720964032</v>
+        <v>6953541.088242936</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
@@ -11959,7 +11959,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11969,7 +11969,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11996,10 +11996,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111579233</v>
+        <v>111579651</v>
       </c>
       <c r="B98" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -12008,25 +12008,25 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -12037,10 +12037,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>562810.5604810353</v>
+        <v>562757.9369339028</v>
       </c>
       <c r="R98" t="n">
-        <v>6953622.9056556</v>
+        <v>6953731.148202746</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -12072,7 +12072,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>20:14</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -12082,7 +12082,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>20:14</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -12109,10 +12109,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111578830</v>
+        <v>111578715</v>
       </c>
       <c r="B99" t="n">
-        <v>78578</v>
+        <v>103288</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -12121,61 +12121,61 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>6458</v>
+        <v>221144</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>562740.2630645358</v>
+        <v>562725.5046364743</v>
       </c>
       <c r="R99" t="n">
-        <v>6953572.911213852</v>
+        <v>6953382.129823714</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
       </c>
       <c r="T99" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W99" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr">
@@ -12222,7 +12222,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111578865</v>
+        <v>111578990</v>
       </c>
       <c r="B100" t="n">
         <v>78578</v>
@@ -12259,36 +12259,36 @@
       <c r="K100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>562788.3053195324</v>
+        <v>562812.7329947776</v>
       </c>
       <c r="R100" t="n">
-        <v>6953560.513836247</v>
+        <v>6953532.978280453</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr">
@@ -12335,10 +12335,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111579081</v>
+        <v>111578950</v>
       </c>
       <c r="B101" t="n">
-        <v>96348</v>
+        <v>96265</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12347,61 +12347,61 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>220787</v>
+        <v>219790</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>562801.7112454879</v>
+        <v>562799.5258076072</v>
       </c>
       <c r="R101" t="n">
-        <v>6953604.835366915</v>
+        <v>6953550.628890147</v>
       </c>
       <c r="S101" t="n">
         <v>25</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y101" t="inlineStr">
@@ -12411,7 +12411,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -12421,7 +12421,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12448,7 +12448,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111578590</v>
+        <v>111578960</v>
       </c>
       <c r="B102" t="n">
         <v>78578</v>
@@ -12489,10 +12489,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>562676.9542402821</v>
+        <v>562799.5258076072</v>
       </c>
       <c r="R102" t="n">
-        <v>6953421.143956529</v>
+        <v>6953550.628890147</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -12524,7 +12524,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -12534,7 +12534,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12561,7 +12561,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111578841</v>
+        <v>111579233</v>
       </c>
       <c r="B103" t="n">
         <v>78578</v>
@@ -12598,36 +12598,36 @@
       <c r="K103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>562756.4976047705</v>
+        <v>562810.5604810353</v>
       </c>
       <c r="R103" t="n">
-        <v>6953541.088242936</v>
+        <v>6953622.9056556</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W103" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y103" t="inlineStr">
@@ -12637,7 +12637,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -12647,7 +12647,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12674,7 +12674,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111578990</v>
+        <v>111578865</v>
       </c>
       <c r="B104" t="n">
         <v>78578</v>
@@ -12711,36 +12711,36 @@
       <c r="K104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>562812.7329947776</v>
+        <v>562788.3053195324</v>
       </c>
       <c r="R104" t="n">
-        <v>6953532.978280453</v>
+        <v>6953560.513836247</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
       </c>
       <c r="T104" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y104" t="inlineStr">
@@ -12787,7 +12787,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111578960</v>
+        <v>111579563</v>
       </c>
       <c r="B105" t="n">
         <v>78578</v>
@@ -12824,36 +12824,36 @@
       <c r="K105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>562799.5258076072</v>
+        <v>562802.7270039422</v>
       </c>
       <c r="R105" t="n">
-        <v>6953550.628890147</v>
+        <v>6953768.720964032</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
       </c>
       <c r="T105" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W105" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y105" t="inlineStr">
@@ -12863,7 +12863,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12900,7 +12900,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111578662</v>
+        <v>111578830</v>
       </c>
       <c r="B106" t="n">
         <v>78578</v>
@@ -12937,36 +12937,36 @@
       <c r="K106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>562713.478186005</v>
+        <v>562740.2630645358</v>
       </c>
       <c r="R106" t="n">
-        <v>6953386.03256534</v>
+        <v>6953572.911213852</v>
       </c>
       <c r="S106" t="n">
         <v>25</v>
       </c>
       <c r="T106" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W106" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y106" t="inlineStr">
@@ -12976,7 +12976,7 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
@@ -12986,7 +12986,7 @@
       </c>
       <c r="AB106" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD106" t="b">

--- a/artfynd/A 46329-2022.xlsx
+++ b/artfynd/A 46329-2022.xlsx
@@ -9465,10 +9465,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111506378</v>
+        <v>111505024</v>
       </c>
       <c r="B76" t="n">
-        <v>96381</v>
+        <v>78578</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9477,42 +9477,41 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>219874</v>
+        <v>6458</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>562795.9247683069</v>
+        <v>562988.0254043636</v>
       </c>
       <c r="R76" t="n">
-        <v>6953570.757486098</v>
+        <v>6953909.951939938</v>
       </c>
       <c r="S76" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -9536,7 +9535,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
@@ -9546,7 +9545,7 @@
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB76" t="inlineStr">
@@ -9578,10 +9577,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111505024</v>
+        <v>111506378</v>
       </c>
       <c r="B77" t="n">
-        <v>78578</v>
+        <v>96381</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9590,41 +9589,42 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6458</v>
+        <v>219874</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>562988.0254043636</v>
+        <v>562795.9247683069</v>
       </c>
       <c r="R77" t="n">
-        <v>6953909.951939938</v>
+        <v>6953570.757486098</v>
       </c>
       <c r="S77" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -9648,7 +9648,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
@@ -9658,7 +9658,7 @@
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="AB77" t="inlineStr">
@@ -9690,7 +9690,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111506360</v>
+        <v>111505043</v>
       </c>
       <c r="B78" t="n">
         <v>96348</v>
@@ -9725,7 +9725,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -9733,7 +9733,6 @@
           <t>stjälkar/strån/skott</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
@@ -9770,7 +9769,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
@@ -9780,7 +9779,7 @@
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">

--- a/artfynd/A 46329-2022.xlsx
+++ b/artfynd/A 46329-2022.xlsx
@@ -7592,7 +7592,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111505037</v>
+        <v>111505034</v>
       </c>
       <c r="B60" t="n">
         <v>96348</v>
@@ -7627,7 +7627,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -7637,36 +7637,36 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>562940.6554937188</v>
+        <v>563233.4131933488</v>
       </c>
       <c r="R60" t="n">
-        <v>6953694.697192283</v>
+        <v>6953697.084956069</v>
       </c>
       <c r="S60" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
@@ -7825,10 +7825,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111505023</v>
+        <v>111505052</v>
       </c>
       <c r="B62" t="n">
-        <v>78578</v>
+        <v>93881</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7837,65 +7837,65 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6458</v>
+        <v>2869</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>562450.0507050141</v>
+        <v>563021.385735066</v>
       </c>
       <c r="R62" t="n">
-        <v>6953411.330941907</v>
+        <v>6953703.583207678</v>
       </c>
       <c r="S62" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
@@ -7905,7 +7905,7 @@
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
@@ -7937,10 +7937,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111505050</v>
+        <v>111505025</v>
       </c>
       <c r="B63" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7949,25 +7949,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7977,13 +7977,13 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>563111.0943530079</v>
+        <v>563048.1020123652</v>
       </c>
       <c r="R63" t="n">
-        <v>6953795.722308087</v>
+        <v>6953796.81225728</v>
       </c>
       <c r="S63" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -8049,10 +8049,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111505025</v>
+        <v>111505030</v>
       </c>
       <c r="B64" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8061,41 +8061,50 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>563048.1020123652</v>
+        <v>563188.2250752542</v>
       </c>
       <c r="R64" t="n">
-        <v>6953796.81225728</v>
+        <v>6953800.412410886</v>
       </c>
       <c r="S64" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -8161,10 +8170,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111505052</v>
+        <v>111505041</v>
       </c>
       <c r="B65" t="n">
-        <v>93881</v>
+        <v>96348</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8173,41 +8182,50 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2869</v>
+        <v>220787</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Girg.</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>563021.385735066</v>
+        <v>562832.325177824</v>
       </c>
       <c r="R65" t="n">
-        <v>6953703.583207678</v>
+        <v>6953710.991571963</v>
       </c>
       <c r="S65" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -8231,7 +8249,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -8241,7 +8259,7 @@
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
@@ -8273,10 +8291,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111505033</v>
+        <v>111505050</v>
       </c>
       <c r="B66" t="n">
-        <v>96348</v>
+        <v>78611</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8285,69 +8303,60 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>220787</v>
+        <v>6463</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>563271.4189427574</v>
+        <v>563111.0943530079</v>
       </c>
       <c r="R66" t="n">
-        <v>6953704.69911015</v>
+        <v>6953795.722308087</v>
       </c>
       <c r="S66" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -8394,7 +8403,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111505028</v>
+        <v>111505029</v>
       </c>
       <c r="B67" t="n">
         <v>78578</v>
@@ -8430,36 +8439,36 @@
       <c r="I67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>562994.4598576587</v>
+        <v>562582.6789697963</v>
       </c>
       <c r="R67" t="n">
-        <v>6953693.429543378</v>
+        <v>6953447.35522902</v>
       </c>
       <c r="S67" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
@@ -8506,7 +8515,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111505036</v>
+        <v>111505038</v>
       </c>
       <c r="B68" t="n">
         <v>96348</v>
@@ -8541,7 +8550,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -8551,36 +8560,36 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>563156.3591810546</v>
+        <v>562908.6398715272</v>
       </c>
       <c r="R68" t="n">
-        <v>6953688.264125231</v>
+        <v>6953686.283111459</v>
       </c>
       <c r="S68" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
@@ -8627,7 +8636,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111505032</v>
+        <v>111505043</v>
       </c>
       <c r="B69" t="n">
         <v>96348</v>
@@ -8662,7 +8671,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -8672,36 +8681,36 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>563277.1457894059</v>
+        <v>562795.9247683069</v>
       </c>
       <c r="R69" t="n">
-        <v>6953717.6612378</v>
+        <v>6953570.757486098</v>
       </c>
       <c r="S69" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
@@ -8748,10 +8757,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111505042</v>
+        <v>111505023</v>
       </c>
       <c r="B70" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8760,69 +8769,60 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>562819.5119181958</v>
+        <v>562450.0507050141</v>
       </c>
       <c r="R70" t="n">
-        <v>6953707.993414508</v>
+        <v>6953411.330941907</v>
       </c>
       <c r="S70" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
@@ -8869,7 +8869,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111505030</v>
+        <v>111505033</v>
       </c>
       <c r="B71" t="n">
         <v>96348</v>
@@ -8904,7 +8904,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -8914,36 +8914,36 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>563188.2250752542</v>
+        <v>563271.4189427574</v>
       </c>
       <c r="R71" t="n">
-        <v>6953800.412410886</v>
+        <v>6953704.69911015</v>
       </c>
       <c r="S71" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
@@ -8990,10 +8990,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111505041</v>
+        <v>111505028</v>
       </c>
       <c r="B72" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -9002,50 +9002,41 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>562832.325177824</v>
+        <v>562994.4598576587</v>
       </c>
       <c r="R72" t="n">
-        <v>6953710.991571963</v>
+        <v>6953693.429543378</v>
       </c>
       <c r="S72" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -9111,7 +9102,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111505035</v>
+        <v>111505040</v>
       </c>
       <c r="B73" t="n">
         <v>96348</v>
@@ -9146,7 +9137,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>30</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -9156,36 +9147,36 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>563176.4801691328</v>
+        <v>562838.4296954731</v>
       </c>
       <c r="R73" t="n">
-        <v>6953693.698667094</v>
+        <v>6953704.222797605</v>
       </c>
       <c r="S73" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
@@ -9232,7 +9223,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111505034</v>
+        <v>111505031</v>
       </c>
       <c r="B74" t="n">
         <v>96348</v>
@@ -9267,7 +9258,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -9277,36 +9268,36 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>563233.4131933488</v>
+        <v>563201.2223511444</v>
       </c>
       <c r="R74" t="n">
-        <v>6953697.084956069</v>
+        <v>6953793.776556972</v>
       </c>
       <c r="S74" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
@@ -9465,7 +9456,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111505024</v>
+        <v>111505026</v>
       </c>
       <c r="B76" t="n">
         <v>78578</v>
@@ -9505,13 +9496,13 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>562988.0254043636</v>
+        <v>563112.0133087402</v>
       </c>
       <c r="R76" t="n">
-        <v>6953909.951939938</v>
+        <v>6953795.739896396</v>
       </c>
       <c r="S76" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -9577,10 +9568,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111506378</v>
+        <v>111505036</v>
       </c>
       <c r="B77" t="n">
-        <v>96381</v>
+        <v>96348</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9589,66 +9580,74 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>219874</v>
+        <v>220787</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>562795.9247683069</v>
+        <v>563156.3591810546</v>
       </c>
       <c r="R77" t="n">
-        <v>6953570.757486098</v>
+        <v>6953688.264125231</v>
       </c>
       <c r="S77" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
@@ -9658,7 +9657,7 @@
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB77" t="inlineStr">
@@ -9690,7 +9689,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111505043</v>
+        <v>111506427</v>
       </c>
       <c r="B78" t="n">
         <v>96348</v>
@@ -9725,7 +9724,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>55</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -9733,43 +9732,44 @@
           <t>stjälkar/strån/skott</t>
         </is>
       </c>
+      <c r="K78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>562795.9247683069</v>
+        <v>563300.3140053455</v>
       </c>
       <c r="R78" t="n">
-        <v>6953570.757486098</v>
+        <v>6953708.007710025</v>
       </c>
       <c r="S78" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W78" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
@@ -9779,7 +9779,7 @@
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
@@ -9811,10 +9811,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111505026</v>
+        <v>111505042</v>
       </c>
       <c r="B79" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9823,41 +9823,50 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>563112.0133087402</v>
+        <v>562819.5119181958</v>
       </c>
       <c r="R79" t="n">
-        <v>6953795.739896396</v>
+        <v>6953707.993414508</v>
       </c>
       <c r="S79" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -9923,10 +9932,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111505038</v>
+        <v>111505024</v>
       </c>
       <c r="B80" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9935,50 +9944,41 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>562908.6398715272</v>
+        <v>562988.0254043636</v>
       </c>
       <c r="R80" t="n">
-        <v>6953686.283111459</v>
+        <v>6953909.951939938</v>
       </c>
       <c r="S80" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111505029</v>
+        <v>111505027</v>
       </c>
       <c r="B81" t="n">
         <v>78578</v>
@@ -10080,36 +10080,36 @@
       <c r="I81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>562582.6789697963</v>
+        <v>563139.9711714545</v>
       </c>
       <c r="R81" t="n">
-        <v>6953447.35522902</v>
+        <v>6953799.947082677</v>
       </c>
       <c r="S81" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W81" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
@@ -10156,10 +10156,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111506427</v>
+        <v>111505044</v>
       </c>
       <c r="B82" t="n">
-        <v>96348</v>
+        <v>90151</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10168,38 +10168,37 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>220787</v>
+        <v>366</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr"/>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P82" t="inlineStr">
         <is>
           <t>Tivsjönäset, Mpd</t>
@@ -10236,7 +10235,7 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
@@ -10246,7 +10245,7 @@
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr">
@@ -10278,10 +10277,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111506366</v>
+        <v>111505037</v>
       </c>
       <c r="B83" t="n">
-        <v>96368</v>
+        <v>96348</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -10290,42 +10289,50 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>221952</v>
+        <v>220787</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P83" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>562795.9247683069</v>
+        <v>562940.6554937188</v>
       </c>
       <c r="R83" t="n">
-        <v>6953570.757486098</v>
+        <v>6953694.697192283</v>
       </c>
       <c r="S83" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
@@ -10349,7 +10356,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
@@ -10359,7 +10366,7 @@
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB83" t="inlineStr">
@@ -10391,10 +10398,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111505021</v>
+        <v>111505032</v>
       </c>
       <c r="B84" t="n">
-        <v>78512</v>
+        <v>96348</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -10403,60 +10410,69 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6456</v>
+        <v>220787</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>563127.0267518542</v>
+        <v>563277.1457894059</v>
       </c>
       <c r="R84" t="n">
-        <v>6953803.830203088</v>
+        <v>6953717.6612378</v>
       </c>
       <c r="S84" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W84" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
@@ -10503,10 +10519,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111505027</v>
+        <v>111505035</v>
       </c>
       <c r="B85" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10515,60 +10531,69 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>563139.9711714545</v>
+        <v>563176.4801691328</v>
       </c>
       <c r="R85" t="n">
-        <v>6953799.947082677</v>
+        <v>6953693.698667094</v>
       </c>
       <c r="S85" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
@@ -10615,10 +10640,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111505044</v>
+        <v>111506366</v>
       </c>
       <c r="B86" t="n">
-        <v>90151</v>
+        <v>96368</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10627,74 +10652,66 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>366</v>
+        <v>221952</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>563300.3140053455</v>
+        <v>562795.9247683069</v>
       </c>
       <c r="R86" t="n">
-        <v>6953708.007710025</v>
+        <v>6953570.757486098</v>
       </c>
       <c r="S86" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W86" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
@@ -10704,7 +10721,7 @@
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="AB86" t="inlineStr">
@@ -10736,10 +10753,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111505040</v>
+        <v>111505021</v>
       </c>
       <c r="B87" t="n">
-        <v>96348</v>
+        <v>78512</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10748,50 +10765,41 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>220787</v>
+        <v>6456</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(Dicks.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>562838.4296954731</v>
+        <v>563127.0267518542</v>
       </c>
       <c r="R87" t="n">
-        <v>6953704.222797605</v>
+        <v>6953803.830203088</v>
       </c>
       <c r="S87" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
@@ -10857,10 +10865,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111505031</v>
+        <v>111506378</v>
       </c>
       <c r="B88" t="n">
-        <v>96348</v>
+        <v>96381</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10869,50 +10877,42 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>220787</v>
+        <v>219874</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>563201.2223511444</v>
+        <v>562795.9247683069</v>
       </c>
       <c r="R88" t="n">
-        <v>6953793.776556972</v>
+        <v>6953570.757486098</v>
       </c>
       <c r="S88" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
@@ -10946,7 +10946,7 @@
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="AB88" t="inlineStr">
@@ -10978,7 +10978,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111579503</v>
+        <v>111578590</v>
       </c>
       <c r="B89" t="n">
         <v>78578</v>
@@ -11015,36 +11015,36 @@
       <c r="K89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>562850.2507051354</v>
+        <v>562676.9542402821</v>
       </c>
       <c r="R89" t="n">
-        <v>6953783.396332907</v>
+        <v>6953421.143956529</v>
       </c>
       <c r="S89" t="n">
         <v>25</v>
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W89" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
@@ -11054,7 +11054,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -11064,7 +11064,7 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -11091,10 +11091,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111578662</v>
+        <v>111578704</v>
       </c>
       <c r="B90" t="n">
-        <v>78578</v>
+        <v>103288</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -11103,25 +11103,25 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6458</v>
+        <v>221144</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -11132,10 +11132,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>562713.478186005</v>
+        <v>562725.5046364743</v>
       </c>
       <c r="R90" t="n">
-        <v>6953386.03256534</v>
+        <v>6953382.129823714</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
@@ -11317,7 +11317,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111579236</v>
+        <v>111579646</v>
       </c>
       <c r="B92" t="n">
         <v>96348</v>
@@ -11358,10 +11358,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>562801.7112454879</v>
+        <v>562757.9369339028</v>
       </c>
       <c r="R92" t="n">
-        <v>6953604.835366915</v>
+        <v>6953731.148202746</v>
       </c>
       <c r="S92" t="n">
         <v>25</v>
@@ -11393,7 +11393,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>19:46</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -11403,7 +11403,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>19:46</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -11430,7 +11430,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111578792</v>
+        <v>111578865</v>
       </c>
       <c r="B93" t="n">
         <v>78578</v>
@@ -11467,36 +11467,36 @@
       <c r="K93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>562747.4557671447</v>
+        <v>562788.3053195324</v>
       </c>
       <c r="R93" t="n">
-        <v>6953533.112687511</v>
+        <v>6953560.513836247</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
@@ -11543,10 +11543,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111578582</v>
+        <v>111579081</v>
       </c>
       <c r="B94" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11555,61 +11555,61 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>562676.9542402821</v>
+        <v>562801.7112454879</v>
       </c>
       <c r="R94" t="n">
-        <v>6953421.143956529</v>
+        <v>6953604.835366915</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
@@ -11619,7 +11619,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -11629,7 +11629,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -11656,7 +11656,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111579490</v>
+        <v>111579503</v>
       </c>
       <c r="B95" t="n">
         <v>78578</v>
@@ -11697,13 +11697,13 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>562858.9067506329</v>
+        <v>562850.2507051354</v>
       </c>
       <c r="R95" t="n">
-        <v>6953811.559968874</v>
+        <v>6953783.396332907</v>
       </c>
       <c r="S95" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T95" t="inlineStr">
         <is>
@@ -11769,10 +11769,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111578520</v>
+        <v>111578950</v>
       </c>
       <c r="B96" t="n">
-        <v>78578</v>
+        <v>96265</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11781,25 +11781,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6458</v>
+        <v>219790</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11810,10 +11810,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>562600.317282272</v>
+        <v>562799.5258076072</v>
       </c>
       <c r="R96" t="n">
-        <v>6953414.179823531</v>
+        <v>6953550.628890147</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -11855,7 +11855,7 @@
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11882,7 +11882,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111578841</v>
+        <v>111579490</v>
       </c>
       <c r="B97" t="n">
         <v>78578</v>
@@ -11919,36 +11919,36 @@
       <c r="K97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>562756.4976047705</v>
+        <v>562858.9067506329</v>
       </c>
       <c r="R97" t="n">
-        <v>6953541.088242936</v>
+        <v>6953811.559968874</v>
       </c>
       <c r="S97" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
@@ -11958,7 +11958,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11968,7 +11968,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11995,10 +11995,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111579651</v>
+        <v>111578990</v>
       </c>
       <c r="B98" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -12007,61 +12007,61 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>562757.9369339028</v>
+        <v>562812.7329947776</v>
       </c>
       <c r="R98" t="n">
-        <v>6953731.148202746</v>
+        <v>6953532.978280453</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
       </c>
       <c r="T98" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr">
@@ -12071,7 +12071,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>20:14</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -12081,7 +12081,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>20:14</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -12108,10 +12108,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111578715</v>
+        <v>111579233</v>
       </c>
       <c r="B99" t="n">
-        <v>103288</v>
+        <v>78578</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -12120,61 +12120,61 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>221144</v>
+        <v>6458</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>562725.5046364743</v>
+        <v>562810.5604810353</v>
       </c>
       <c r="R99" t="n">
-        <v>6953382.129823714</v>
+        <v>6953622.9056556</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
       </c>
       <c r="T99" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W99" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -12194,7 +12194,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -12221,7 +12221,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111578990</v>
+        <v>111578841</v>
       </c>
       <c r="B100" t="n">
         <v>78578</v>
@@ -12262,10 +12262,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>562812.7329947776</v>
+        <v>562756.4976047705</v>
       </c>
       <c r="R100" t="n">
-        <v>6953532.978280453</v>
+        <v>6953541.088242936</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
@@ -12334,10 +12334,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111578950</v>
+        <v>111579563</v>
       </c>
       <c r="B101" t="n">
-        <v>96265</v>
+        <v>78578</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12346,61 +12346,61 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>219790</v>
+        <v>6458</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>562799.5258076072</v>
+        <v>562802.7270039422</v>
       </c>
       <c r="R101" t="n">
-        <v>6953550.628890147</v>
+        <v>6953768.720964032</v>
       </c>
       <c r="S101" t="n">
         <v>25</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y101" t="inlineStr">
@@ -12410,7 +12410,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
@@ -12420,7 +12420,7 @@
       </c>
       <c r="AB101" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12447,7 +12447,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111578960</v>
+        <v>111578662</v>
       </c>
       <c r="B102" t="n">
         <v>78578</v>
@@ -12488,10 +12488,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>562799.5258076072</v>
+        <v>562713.478186005</v>
       </c>
       <c r="R102" t="n">
-        <v>6953550.628890147</v>
+        <v>6953386.03256534</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -12523,7 +12523,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -12533,7 +12533,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12560,7 +12560,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111579233</v>
+        <v>111578520</v>
       </c>
       <c r="B103" t="n">
         <v>78578</v>
@@ -12597,36 +12597,36 @@
       <c r="K103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>562810.5604810353</v>
+        <v>562600.317282272</v>
       </c>
       <c r="R103" t="n">
-        <v>6953622.9056556</v>
+        <v>6953414.179823531</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W103" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y103" t="inlineStr">
@@ -12636,7 +12636,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -12646,7 +12646,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12673,7 +12673,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111578865</v>
+        <v>111578830</v>
       </c>
       <c r="B104" t="n">
         <v>78578</v>
@@ -12714,10 +12714,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>562788.3053195324</v>
+        <v>562740.2630645358</v>
       </c>
       <c r="R104" t="n">
-        <v>6953560.513836247</v>
+        <v>6953572.911213852</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
@@ -12786,7 +12786,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111579563</v>
+        <v>111578792</v>
       </c>
       <c r="B105" t="n">
         <v>78578</v>
@@ -12823,36 +12823,36 @@
       <c r="K105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>562802.7270039422</v>
+        <v>562747.4557671447</v>
       </c>
       <c r="R105" t="n">
-        <v>6953768.720964032</v>
+        <v>6953533.112687511</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
       </c>
       <c r="T105" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W105" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y105" t="inlineStr">
@@ -12862,7 +12862,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -12872,7 +12872,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12899,7 +12899,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111578830</v>
+        <v>111578960</v>
       </c>
       <c r="B106" t="n">
         <v>78578</v>
@@ -12936,36 +12936,36 @@
       <c r="K106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>562740.2630645358</v>
+        <v>562799.5258076072</v>
       </c>
       <c r="R106" t="n">
-        <v>6953572.911213852</v>
+        <v>6953550.628890147</v>
       </c>
       <c r="S106" t="n">
         <v>25</v>
       </c>
       <c r="T106" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W106" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y106" t="inlineStr">

--- a/artfynd/A 46329-2022.xlsx
+++ b/artfynd/A 46329-2022.xlsx
@@ -8170,10 +8170,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111505041</v>
+        <v>111505050</v>
       </c>
       <c r="B65" t="n">
-        <v>96348</v>
+        <v>78611</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8182,50 +8182,41 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>220787</v>
+        <v>6463</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
           <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>562832.325177824</v>
+        <v>563111.0943530079</v>
       </c>
       <c r="R65" t="n">
-        <v>6953710.991571963</v>
+        <v>6953795.722308087</v>
       </c>
       <c r="S65" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -8291,10 +8282,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111505050</v>
+        <v>111505029</v>
       </c>
       <c r="B66" t="n">
-        <v>78611</v>
+        <v>78578</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8303,60 +8294,60 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Jmt</t>
+          <t>Tivsjönäset, Mpd</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>563111.0943530079</v>
+        <v>562582.6789697963</v>
       </c>
       <c r="R66" t="n">
-        <v>6953795.722308087</v>
+        <v>6953447.35522902</v>
       </c>
       <c r="S66" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -8403,10 +8394,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111505029</v>
+        <v>111505041</v>
       </c>
       <c r="B67" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8415,60 +8406,69 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Tivsjönäset, Mpd</t>
+          <t>Tivsjönäset, Jmt</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>562582.6789697963</v>
+        <v>562832.325177824</v>
       </c>
       <c r="R67" t="n">
-        <v>6953447.35522902</v>
+        <v>6953710.991571963</v>
       </c>
       <c r="S67" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
@@ -10978,10 +10978,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111578590</v>
+        <v>111578583</v>
       </c>
       <c r="B89" t="n">
-        <v>78578</v>
+        <v>78605</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10990,25 +10990,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -11091,10 +11091,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111578704</v>
+        <v>111578830</v>
       </c>
       <c r="B90" t="n">
-        <v>103288</v>
+        <v>78578</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -11103,61 +11103,61 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>221144</v>
+        <v>6458</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>562725.5046364743</v>
+        <v>562740.2630645358</v>
       </c>
       <c r="R90" t="n">
-        <v>6953382.129823714</v>
+        <v>6953572.911213852</v>
       </c>
       <c r="S90" t="n">
         <v>25</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W90" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
@@ -11167,7 +11167,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
@@ -11177,7 +11177,7 @@
       </c>
       <c r="AB90" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -11204,10 +11204,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111578583</v>
+        <v>111578960</v>
       </c>
       <c r="B91" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11216,25 +11216,25 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -11245,10 +11245,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>562676.9542402821</v>
+        <v>562799.5258076072</v>
       </c>
       <c r="R91" t="n">
-        <v>6953421.143956529</v>
+        <v>6953550.628890147</v>
       </c>
       <c r="S91" t="n">
         <v>25</v>
@@ -11280,7 +11280,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -11290,7 +11290,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -11317,10 +11317,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111579646</v>
+        <v>111578792</v>
       </c>
       <c r="B92" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11329,61 +11329,61 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>562757.9369339028</v>
+        <v>562747.4557671447</v>
       </c>
       <c r="R92" t="n">
-        <v>6953731.148202746</v>
+        <v>6953533.112687511</v>
       </c>
       <c r="S92" t="n">
         <v>25</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
@@ -11393,7 +11393,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -11403,7 +11403,7 @@
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -11430,10 +11430,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111578865</v>
+        <v>111579646</v>
       </c>
       <c r="B93" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11442,25 +11442,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -11471,10 +11471,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>562788.3053195324</v>
+        <v>562757.9369339028</v>
       </c>
       <c r="R93" t="n">
-        <v>6953560.513836247</v>
+        <v>6953731.148202746</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -11506,7 +11506,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -11516,7 +11516,7 @@
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -11543,10 +11543,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111579081</v>
+        <v>111579233</v>
       </c>
       <c r="B94" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11555,25 +11555,25 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11584,10 +11584,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>562801.7112454879</v>
+        <v>562810.5604810353</v>
       </c>
       <c r="R94" t="n">
-        <v>6953604.835366915</v>
+        <v>6953622.9056556</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>
@@ -11656,10 +11656,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111579503</v>
+        <v>111579081</v>
       </c>
       <c r="B95" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11668,25 +11668,25 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11697,10 +11697,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>562850.2507051354</v>
+        <v>562801.7112454879</v>
       </c>
       <c r="R95" t="n">
-        <v>6953783.396332907</v>
+        <v>6953604.835366915</v>
       </c>
       <c r="S95" t="n">
         <v>25</v>
@@ -11769,10 +11769,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111578950</v>
+        <v>111578715</v>
       </c>
       <c r="B96" t="n">
-        <v>96265</v>
+        <v>103288</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11785,21 +11785,21 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>219790</v>
+        <v>221144</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11810,10 +11810,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>562799.5258076072</v>
+        <v>562725.5046364743</v>
       </c>
       <c r="R96" t="n">
-        <v>6953550.628890147</v>
+        <v>6953382.129823714</v>
       </c>
       <c r="S96" t="n">
         <v>25</v>
@@ -11882,7 +11882,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111579490</v>
+        <v>111578841</v>
       </c>
       <c r="B97" t="n">
         <v>78578</v>
@@ -11919,36 +11919,36 @@
       <c r="K97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>562858.9067506329</v>
+        <v>562756.4976047705</v>
       </c>
       <c r="R97" t="n">
-        <v>6953811.559968874</v>
+        <v>6953541.088242936</v>
       </c>
       <c r="S97" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
@@ -11958,7 +11958,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -11968,7 +11968,7 @@
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11995,7 +11995,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111578990</v>
+        <v>111579563</v>
       </c>
       <c r="B98" t="n">
         <v>78578</v>
@@ -12032,36 +12032,36 @@
       <c r="K98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>562812.7329947776</v>
+        <v>562802.7270039422</v>
       </c>
       <c r="R98" t="n">
-        <v>6953532.978280453</v>
+        <v>6953768.720964032</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
       </c>
       <c r="T98" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr">
@@ -12071,7 +12071,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -12081,7 +12081,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -12108,7 +12108,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111579233</v>
+        <v>111578520</v>
       </c>
       <c r="B99" t="n">
         <v>78578</v>
@@ -12145,36 +12145,36 @@
       <c r="K99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>562810.5604810353</v>
+        <v>562600.317282272</v>
       </c>
       <c r="R99" t="n">
-        <v>6953622.9056556</v>
+        <v>6953414.179823531</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
       </c>
       <c r="T99" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W99" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -12194,7 +12194,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -12221,7 +12221,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111578841</v>
+        <v>111578662</v>
       </c>
       <c r="B100" t="n">
         <v>78578</v>
@@ -12262,10 +12262,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>562756.4976047705</v>
+        <v>562713.478186005</v>
       </c>
       <c r="R100" t="n">
-        <v>6953541.088242936</v>
+        <v>6953386.03256534</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
@@ -12297,7 +12297,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -12307,7 +12307,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -12334,7 +12334,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111579563</v>
+        <v>111579490</v>
       </c>
       <c r="B101" t="n">
         <v>78578</v>
@@ -12375,13 +12375,13 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>562802.7270039422</v>
+        <v>562858.9067506329</v>
       </c>
       <c r="R101" t="n">
-        <v>6953768.720964032</v>
+        <v>6953811.559968874</v>
       </c>
       <c r="S101" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111578662</v>
+        <v>111578865</v>
       </c>
       <c r="B102" t="n">
         <v>78578</v>
@@ -12484,36 +12484,36 @@
       <c r="K102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>562713.478186005</v>
+        <v>562788.3053195324</v>
       </c>
       <c r="R102" t="n">
-        <v>6953386.03256534</v>
+        <v>6953560.513836247</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y102" t="inlineStr">
@@ -12523,7 +12523,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
@@ -12533,7 +12533,7 @@
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>19:21</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12560,7 +12560,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111578520</v>
+        <v>111579503</v>
       </c>
       <c r="B103" t="n">
         <v>78578</v>
@@ -12597,36 +12597,36 @@
       <c r="K103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken, Jmt</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>562600.317282272</v>
+        <v>562850.2507051354</v>
       </c>
       <c r="R103" t="n">
-        <v>6953414.179823531</v>
+        <v>6953783.396332907</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>Västernorrland</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>Ånge</t>
+          <t>Bräcke</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>Medelpad</t>
+          <t>Jämtland</t>
         </is>
       </c>
       <c r="W103" t="inlineStr">
         <is>
-          <t>Torp</t>
+          <t>Hällesjö</t>
         </is>
       </c>
       <c r="Y103" t="inlineStr">
@@ -12636,7 +12636,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
@@ -12646,7 +12646,7 @@
       </c>
       <c r="AB103" t="inlineStr">
         <is>
-          <t>18:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12673,10 +12673,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111578830</v>
+        <v>111578950</v>
       </c>
       <c r="B104" t="n">
-        <v>78578</v>
+        <v>96265</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12685,61 +12685,61 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>6458</v>
+        <v>219790</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Marsjöviken, Jmt</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>562740.2630645358</v>
+        <v>562799.5258076072</v>
       </c>
       <c r="R104" t="n">
-        <v>6953572.911213852</v>
+        <v>6953550.628890147</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
       </c>
       <c r="T104" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Västernorrland</t>
         </is>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>Bräcke</t>
+          <t>Ånge</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>Jämtland</t>
+          <t>Medelpad</t>
         </is>
       </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>Hällesjö</t>
+          <t>Torp</t>
         </is>
       </c>
       <c r="Y104" t="inlineStr">
@@ -12786,7 +12786,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111578792</v>
+        <v>111578590</v>
       </c>
       <c r="B105" t="n">
         <v>78578</v>
@@ -12827,10 +12827,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>562747.4557671447</v>
+        <v>562676.9542402821</v>
       </c>
       <c r="R105" t="n">
-        <v>6953533.112687511</v>
+        <v>6953421.143956529</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
@@ -12862,7 +12862,7 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
@@ -12872,7 +12872,7 @@
       </c>
       <c r="AB105" t="inlineStr">
         <is>
-          <t>19:21</t>
+          <t>18:43</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12899,7 +12899,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111578960</v>
+        <v>111578990</v>
       </c>
       <c r="B106" t="n">
         <v>78578</v>
@@ -12940,10 +12940,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>562799.5258076072</v>
+        <v>562812.7329947776</v>
       </c>
       <c r="R106" t="n">
-        <v>6953550.628890147</v>
+        <v>6953532.978280453</v>
       </c>
       <c r="S106" t="n">
         <v>25</v>

--- a/artfynd/A 46329-2022.xlsx
+++ b/artfynd/A 46329-2022.xlsx
@@ -11430,10 +11430,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111579646</v>
+        <v>111579233</v>
       </c>
       <c r="B93" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11442,25 +11442,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -11471,10 +11471,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>562757.9369339028</v>
+        <v>562810.5604810353</v>
       </c>
       <c r="R93" t="n">
-        <v>6953731.148202746</v>
+        <v>6953622.9056556</v>
       </c>
       <c r="S93" t="n">
         <v>25</v>
@@ -11543,10 +11543,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111579233</v>
+        <v>111579646</v>
       </c>
       <c r="B94" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11555,25 +11555,25 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11584,10 +11584,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>562810.5604810353</v>
+        <v>562757.9369339028</v>
       </c>
       <c r="R94" t="n">
-        <v>6953622.9056556</v>
+        <v>6953731.148202746</v>
       </c>
       <c r="S94" t="n">
         <v>25</v>

--- a/artfynd/A 46329-2022.xlsx
+++ b/artfynd/A 46329-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>96790148</v>
+        <v>110552498</v>
       </c>
       <c r="B2" t="n">
-        <v>78596</v>
+        <v>78578</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Marsjöviken, NV om, Mpd</t>
+          <t>Rödmossamyran (Rödmossamyran), Mpd</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>562682.5934217381</v>
+        <v>563393.1819116292</v>
       </c>
       <c r="R2" t="n">
-        <v>6953390.494961299</v>
+        <v>6953396.273392892</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +751,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2023-07-03</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +761,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2023-07-03</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -776,43 +777,26 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>120-årig, högrest barrblandskog</t>
-        </is>
-      </c>
-      <c r="AN2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>2 substratenheter # gamla sälgar</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Erica Hästdahl</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Erica Hästdahl</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>96790174</v>
+        <v>96790148</v>
       </c>
       <c r="B3" t="n">
-        <v>96334</v>
+        <v>78596</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -821,38 +805,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>6462</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>norr om Färnviken, Tivsjön, Mpd</t>
+          <t>Marsjöviken, NV om, Mpd</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>563307.8084196195</v>
+        <v>562682.5934217381</v>
       </c>
       <c r="R3" t="n">
-        <v>6953581.003593756</v>
+        <v>6953390.494961299</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -879,7 +863,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2021-08-08</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -889,7 +873,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2021-08-08</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -908,7 +892,15 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>ogallrad äldre barrblandskog med stort björkinslag</t>
+          <t>120-årig, högrest barrblandskog</t>
+        </is>
+      </c>
+      <c r="AN3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>2 substratenheter # gamla sälgar</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -930,10 +922,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>96790150</v>
+        <v>96790174</v>
       </c>
       <c r="B4" t="n">
-        <v>78569</v>
+        <v>96334</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -942,38 +934,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Marsjöviken, NV om, Mpd</t>
+          <t>norr om Färnviken, Tivsjön, Mpd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>562695.6871861723</v>
+        <v>563307.8084196195</v>
       </c>
       <c r="R4" t="n">
-        <v>6953378.808543677</v>
+        <v>6953581.003593756</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1000,7 +992,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-08</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1010,7 +1002,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-08</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1029,15 +1021,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>120-årig, gallrad barrblandskog</t>
-        </is>
-      </c>
-      <c r="AN4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>1 substratenheter # gammal sälg</t>
+          <t>ogallrad äldre barrblandskog med stort björkinslag</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1059,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>96790178</v>
+        <v>96790150</v>
       </c>
       <c r="B5" t="n">
-        <v>77258</v>
+        <v>78569</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1075,34 +1059,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6446</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>norr om Färnviken, Tivsjön, Mpd</t>
+          <t>Marsjöviken, NV om, Mpd</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>563185.3905123406</v>
+        <v>562695.6871861723</v>
       </c>
       <c r="R5" t="n">
-        <v>6953636.492585693</v>
+        <v>6953378.808543677</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1129,7 +1113,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2021-08-08</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1139,7 +1123,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2021-08-08</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1158,7 +1142,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>gallrad äldre tallskog med kommande granunderväxt</t>
+          <t>120-årig, gallrad barrblandskog</t>
         </is>
       </c>
       <c r="AN5" t="n">
@@ -1166,7 +1150,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1 substratenheter # gammal brandhögstubbe</t>
+          <t>1 substratenheter # gammal sälg</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1188,10 +1172,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>96790152</v>
+        <v>96790178</v>
       </c>
       <c r="B6" t="n">
-        <v>78569</v>
+        <v>77258</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1204,34 +1188,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>6446</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Marsjöviken, NV om, Mpd</t>
+          <t>norr om Färnviken, Tivsjön, Mpd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>562551.9081305305</v>
+        <v>563185.3905123406</v>
       </c>
       <c r="R6" t="n">
-        <v>6953445.853366789</v>
+        <v>6953636.492585693</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1258,7 +1242,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-08</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1268,7 +1252,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-08</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1287,15 +1271,15 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>120-årig, gallrad barrblandskog</t>
+          <t>gallrad äldre tallskog med kommande granunderväxt</t>
         </is>
       </c>
       <c r="AN6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>7 substratenheter # gamla sälgar och aspar</t>
+          <t>1 substratenheter # gammal brandhögstubbe</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1317,10 +1301,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>96790179</v>
+        <v>96790152</v>
       </c>
       <c r="B7" t="n">
-        <v>89412</v>
+        <v>78569</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1333,34 +1317,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5442</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>norr om Färnviken, Tivsjön, Mpd</t>
+          <t>Marsjöviken, NV om, Mpd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>563034.6851344912</v>
+        <v>562551.9081305305</v>
       </c>
       <c r="R7" t="n">
-        <v>6953584.952161556</v>
+        <v>6953445.853366789</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1387,7 +1371,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2021-08-08</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1397,7 +1381,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2021-08-08</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1416,15 +1400,15 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>liten kulle med gammeltallar i gallrad barrskog</t>
+          <t>120-årig, gallrad barrblandskog</t>
         </is>
       </c>
       <c r="AN7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1 substratenheter # grov, närmare 300-årig tall</t>
+          <t>7 substratenheter # gamla sälgar och aspar</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1446,10 +1430,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>96790173</v>
+        <v>96790179</v>
       </c>
       <c r="B8" t="n">
-        <v>77258</v>
+        <v>89412</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1462,21 +1446,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6446</v>
+        <v>5442</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1486,10 +1470,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>563088.5108510313</v>
+        <v>563034.6851344912</v>
       </c>
       <c r="R8" t="n">
-        <v>6953390.431113064</v>
+        <v>6953584.952161556</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1545,12 +1529,15 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>gallrad äldre tallskog utan granunderväxt</t>
-        </is>
+          <t>liten kulle med gammeltallar i gallrad barrskog</t>
+        </is>
+      </c>
+      <c r="AN8" t="n">
+        <v>1</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>gammal brandhögstubbar</t>
+          <t>1 substratenheter # grov, närmare 300-årig tall</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1572,10 +1559,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96790176</v>
+        <v>96790173</v>
       </c>
       <c r="B9" t="n">
-        <v>94121</v>
+        <v>77258</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1588,21 +1575,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53</v>
+        <v>6446</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1612,10 +1599,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>563310.6944714063</v>
+        <v>563088.5108510313</v>
       </c>
       <c r="R9" t="n">
-        <v>6953670.109007379</v>
+        <v>6953390.431113064</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1671,15 +1658,12 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>ogallrad äldre barrblandskog</t>
-        </is>
-      </c>
-      <c r="AN9" t="n">
-        <v>1</v>
+          <t>gallrad äldre tallskog utan granunderväxt</t>
+        </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1 substratenheter # gammal tallåga</t>
+          <t>gammal brandhögstubbar</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1701,10 +1685,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>96790151</v>
+        <v>96790176</v>
       </c>
       <c r="B10" t="n">
-        <v>78569</v>
+        <v>94121</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1717,34 +1701,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Marsjöviken, NV om, Mpd</t>
+          <t>norr om Färnviken, Tivsjön, Mpd</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>562637.1756028088</v>
+        <v>563310.6944714063</v>
       </c>
       <c r="R10" t="n">
-        <v>6953409.830153062</v>
+        <v>6953670.109007379</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1771,7 +1755,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-08</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1781,7 +1765,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-08</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1800,15 +1784,15 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>120-årig, högrest barrblandskog</t>
+          <t>ogallrad äldre barrblandskog</t>
         </is>
       </c>
       <c r="AN10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>2 substratenheter # gammal sälg och i granen därunder</t>
+          <t>1 substratenheter # gammal tallåga</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1830,7 +1814,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>96790149</v>
+        <v>96790151</v>
       </c>
       <c r="B11" t="n">
         <v>78569</v>
@@ -1870,10 +1854,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>562682.5934217381</v>
+        <v>562637.1756028088</v>
       </c>
       <c r="R11" t="n">
-        <v>6953390.494961299</v>
+        <v>6953409.830153062</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1933,11 +1917,11 @@
         </is>
       </c>
       <c r="AN11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>4 substratenheter # gamla sälgar och i granar därunder</t>
+          <t>2 substratenheter # gammal sälg och i granen därunder</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1959,10 +1943,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>96790177</v>
+        <v>96790149</v>
       </c>
       <c r="B12" t="n">
-        <v>96334</v>
+        <v>78569</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1971,38 +1955,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>norr om Färnviken, Tivsjön, Mpd</t>
+          <t>Marsjöviken, NV om, Mpd</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>563245.896794814</v>
+        <v>562682.5934217381</v>
       </c>
       <c r="R12" t="n">
-        <v>6953669.324613419</v>
+        <v>6953390.494961299</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2029,7 +2013,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2021-08-08</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2039,7 +2023,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2021-08-08</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2058,7 +2042,15 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>ogallrad äldre tallskog med granunderväxt</t>
+          <t>120-årig, högrest barrblandskog</t>
+        </is>
+      </c>
+      <c r="AN12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>4 substratenheter # gamla sälgar och i granar därunder</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2080,10 +2072,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>96790175</v>
+        <v>96790177</v>
       </c>
       <c r="B13" t="n">
-        <v>77258</v>
+        <v>96334</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2092,25 +2084,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6446</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2120,10 +2112,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>563585.2371419482</v>
+        <v>563245.896794814</v>
       </c>
       <c r="R13" t="n">
-        <v>6953544.569383385</v>
+        <v>6953669.324613419</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2179,12 +2171,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>gallrad äldre tallskog med kommande granunderväxt</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>gamla brandhögstubbar</t>
+          <t>ogallrad äldre tallskog med granunderväxt</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2206,10 +2193,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>110556614</v>
+        <v>96790175</v>
       </c>
       <c r="B14" t="n">
-        <v>103288</v>
+        <v>77258</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2218,39 +2205,38 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>221144</v>
+        <v>6446</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Marsjöviken (Marsjöviken), Mpd</t>
+          <t>norr om Färnviken, Tivsjön, Mpd</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>562987.0804313433</v>
+        <v>563585.2371419482</v>
       </c>
       <c r="R14" t="n">
-        <v>6953574.403032796</v>
+        <v>6953544.569383385</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2277,22 +2263,22 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
+          <t>2021-08-08</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
+          <t>2021-08-08</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>15:55</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2303,26 +2289,40 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>gallrad äldre tallskog med kommande granunderväxt</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>gamla brandhögstubbar</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Erica Hästdahl</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Erica Hästdahl</t>
-        </is>
-      </c>
-      <c r="AY14" t="inlineStr"/>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>110556717</v>
+        <v>110556614</v>
       </c>
       <c r="B15" t="n">
-        <v>96381</v>
+        <v>103288</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2335,21 +2335,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>219874</v>
+        <v>221144</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Platanthera bifolia</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2360,10 +2360,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>562934.7181023863</v>
+        <v>562987.0804313433</v>
       </c>
       <c r="R15" t="n">
-        <v>6953596.354525639</v>
+        <v>6953574.403032796</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:55</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:55</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2432,10 +2432,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>110551460</v>
+        <v>110556717</v>
       </c>
       <c r="B16" t="n">
-        <v>94134</v>
+        <v>96381</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2444,25 +2444,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>53</v>
+        <v>219874</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Platanthera bifolia</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>562793.1488800419</v>
+        <v>562934.7181023863</v>
       </c>
       <c r="R16" t="n">
-        <v>6953402.697159289</v>
+        <v>6953596.354525639</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2545,10 +2545,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>110557705</v>
+        <v>110551460</v>
       </c>
       <c r="B17" t="n">
-        <v>96265</v>
+        <v>94134</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2557,48 +2557,39 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>219790</v>
+        <v>53</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Marsjöviken, Mpd</t>
+          <t>Marsjöviken (Marsjöviken), Mpd</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>562752.2854179504</v>
+        <v>562793.1488800419</v>
       </c>
       <c r="R17" t="n">
-        <v>6953400.083177477</v>
+        <v>6953402.697159289</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2667,10 +2658,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>110552498</v>
+        <v>110557705</v>
       </c>
       <c r="B18" t="n">
-        <v>78578</v>
+        <v>96265</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2679,39 +2670,48 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>219790</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>(L.) Soó</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Rödmossamyran (Rödmossamyran), Mpd</t>
+          <t>Marsjöviken, Mpd</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>563393.1819116292</v>
+        <v>562752.2854179504</v>
       </c>
       <c r="R18" t="n">
-        <v>6953396.273392892</v>
+        <v>6953400.083177477</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
